--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="370">
   <si>
     <t>N°</t>
   </si>
@@ -2340,11 +2340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2381,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="15.75" hidden="1" spans="1:7">
       <c r="A2" s="23">
         <v>1</v>
       </c>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="23">
         <f>A2+1</f>
         <v>2</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="G3" s="27"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="23">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="G4" s="27"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="G6" s="27"/>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="G7" s="27"/>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="G8" s="27"/>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G9" s="27"/>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" ht="15.75" spans="1:7">
+    <row r="11" ht="15.75" hidden="1" spans="1:7">
       <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="G11" s="27"/>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="G12" s="27"/>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="G13" s="27"/>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="G14" s="27"/>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="G15" s="27"/>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G16" s="27"/>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="G17" s="27"/>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="G18" s="27"/>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="G19" s="27"/>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="G20" s="27"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="G22" s="27"/>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="G23" s="27"/>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="23">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G24" s="27"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="23">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="G25" s="27"/>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G27" s="27"/>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="G29" s="27"/>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G30" s="27"/>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G32" s="27"/>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="23">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="G35" s="27"/>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="23">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="G36" s="27"/>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="23">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3166,7 +3166,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="23">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="23">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="G39" s="27"/>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="23">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="G40" s="27"/>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="23">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="G42" s="27"/>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="23">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G44" s="27"/>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="23">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="G47" s="27"/>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="G48" s="27"/>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="G49" s="27"/>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="G50" s="27"/>
     </row>
-    <row r="51" ht="15.75" spans="1:7">
+    <row r="51" ht="15.75" hidden="1" spans="1:7">
       <c r="A51" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="G51" s="27"/>
     </row>
-    <row r="52" ht="15.75" spans="1:7">
+    <row r="52" ht="15.75" hidden="1" spans="1:7">
       <c r="A52" s="23">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G52" s="27"/>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3514,7 +3514,7 @@
       </c>
       <c r="G53" s="27"/>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="G54" s="27"/>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3552,7 +3552,7 @@
       <c r="F55" s="29"/>
       <c r="G55" s="27"/>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="G56" s="27"/>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="23">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="G57" s="27"/>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="23">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="G58" s="27"/>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3634,7 +3634,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="1:7">
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3652,7 +3652,7 @@
       <c r="F60" s="29"/>
       <c r="G60" s="27"/>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="G61" s="27"/>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="23">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3694,7 +3694,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" ht="15.75" spans="1:7">
+    <row r="63" ht="15.75" hidden="1" spans="1:7">
       <c r="A63" s="23">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="G63" s="27"/>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="23">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G64" s="27"/>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="23">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3756,7 +3756,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="1:7">
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3778,7 +3778,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" ht="15.75" spans="1:7">
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="23">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="G67" s="27"/>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="23">
         <f t="shared" ref="A68:A111" si="1">A67+1</f>
         <v>67</v>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="G68" s="27"/>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="23">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3840,7 +3840,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" ht="15.75" spans="1:7">
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="23">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3862,7 +3862,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" ht="15.75" spans="1:7">
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="23">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="G71" s="27"/>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="23">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="23">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3924,7 +3924,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" ht="15.75" spans="1:7">
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="23">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3946,7 +3946,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="1:7">
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="23">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="G75" s="27"/>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="23">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3988,7 +3988,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" ht="15.75" spans="1:7">
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="23">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="23">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="G78" s="27"/>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="23">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4046,7 +4046,7 @@
       <c r="F79" s="29"/>
       <c r="G79" s="27"/>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="23">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G80" s="27"/>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="23">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="G81" s="27"/>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="23">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4108,7 +4108,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:7">
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="23">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4126,7 +4126,7 @@
       <c r="F83" s="29"/>
       <c r="G83" s="27"/>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="23">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="G84" s="27"/>
     </row>
-    <row r="85" ht="15.75" spans="1:7">
+    <row r="85" ht="15.75" hidden="1" spans="1:7">
       <c r="A85" s="23">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4168,7 +4168,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:7">
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="23">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4188,7 +4188,7 @@
       </c>
       <c r="G86" s="27"/>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="23">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="G87" s="27"/>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="23">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G88" s="27"/>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="23">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4246,7 +4246,7 @@
       <c r="F89" s="29"/>
       <c r="G89" s="27"/>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="23">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G90" s="27"/>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="23">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4288,7 +4288,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="92" ht="15.75" spans="1:7">
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="23">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="G92" s="27"/>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="23">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="G93" s="27"/>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="23">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4346,7 +4346,7 @@
       <c r="F94" s="29"/>
       <c r="G94" s="27"/>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="23">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="G95" s="27"/>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="23">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="G96" s="27"/>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="23">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4404,7 +4404,7 @@
       <c r="F97" s="29"/>
       <c r="G97" s="27"/>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="23">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="G98" s="27"/>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="23">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4458,7 +4458,9 @@
       <c r="D100" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="30"/>
+      <c r="E100" s="25" t="s">
+        <v>10</v>
+      </c>
       <c r="F100" s="31" t="s">
         <v>289</v>
       </c>
@@ -4466,7 +4468,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="101" ht="15.75" spans="1:7">
+    <row r="101" ht="15.75" hidden="1" spans="1:7">
       <c r="A101" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4488,7 +4490,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="102" ht="15.75" spans="1:7">
+    <row r="102" ht="15.75" hidden="1" spans="1:7">
       <c r="A102" s="23">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4510,7 +4512,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="103" ht="15.75" spans="1:7">
+    <row r="103" ht="15.75" hidden="1" spans="1:7">
       <c r="A103" s="23">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4530,7 +4532,7 @@
       </c>
       <c r="G103" s="27"/>
     </row>
-    <row r="104" ht="15.75" spans="1:7">
+    <row r="104" ht="15.75" hidden="1" spans="1:7">
       <c r="A104" s="23">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4550,7 +4552,7 @@
       </c>
       <c r="G104" s="27"/>
     </row>
-    <row r="105" ht="15.75" spans="1:7">
+    <row r="105" ht="15.75" hidden="1" spans="1:7">
       <c r="A105" s="23">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4572,7 +4574,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="106" ht="15.75" spans="1:7">
+    <row r="106" ht="15.75" hidden="1" spans="1:7">
       <c r="A106" s="23">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4592,7 +4594,7 @@
       </c>
       <c r="G106" s="27"/>
     </row>
-    <row r="107" ht="15.75" spans="1:7">
+    <row r="107" ht="15.75" hidden="1" spans="1:7">
       <c r="A107" s="23">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4614,7 +4616,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="108" ht="15.75" spans="1:7">
+    <row r="108" ht="15.75" hidden="1" spans="1:7">
       <c r="A108" s="23">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4636,7 +4638,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" ht="15.75" spans="1:7">
+    <row r="109" ht="15.75" hidden="1" spans="1:7">
       <c r="A109" s="23">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4658,7 +4660,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="110" ht="15.75" spans="1:7">
+    <row r="110" ht="15.75" hidden="1" spans="1:7">
       <c r="A110" s="23">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4676,7 +4678,7 @@
       <c r="F110" s="29"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="111" ht="15.75" spans="1:7">
+    <row r="111" ht="15.75" hidden="1" spans="1:7">
       <c r="A111" s="23">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4698,7 +4700,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="112" ht="15.75" spans="1:7">
+    <row r="112" ht="15.75" hidden="1" spans="1:7">
       <c r="A112" s="33"/>
       <c r="B112" s="34" t="s">
         <v>326</v>
@@ -4717,7 +4719,7 @@
       </c>
       <c r="G112" s="27"/>
     </row>
-    <row r="113" ht="15.75" spans="1:7">
+    <row r="113" ht="15.75" hidden="1" spans="1:7">
       <c r="A113" s="33"/>
       <c r="B113" s="34" t="s">
         <v>329</v>
@@ -12296,6 +12298,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F113" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MILOUA"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A1:F113">
       <sortCondition ref="D1:D109"/>
     </sortState>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="370">
   <si>
     <t>N°</t>
   </si>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:G1193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+      <selection activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4458,9 +4458,7 @@
       <c r="D100" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E100" s="25" t="s">
-        <v>10</v>
-      </c>
+      <c r="E100" s="25"/>
       <c r="F100" s="31" t="s">
         <v>289</v>
       </c>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Permanents-Vacataires" sheetId="7" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="373">
   <si>
     <t>N°</t>
   </si>
@@ -423,862 +423,736 @@
     <t>rezoug.med@gmail.com</t>
   </si>
   <si>
+    <t>SAHALI</t>
+  </si>
+  <si>
+    <t>YAMINA</t>
+  </si>
+  <si>
+    <t>ya_sahali@yahoo.fr</t>
+  </si>
+  <si>
+    <t>SEMMAH</t>
+  </si>
+  <si>
+    <t>ABDELHAFID</t>
+  </si>
+  <si>
+    <t>hafid.semmah@yahoo.fr</t>
+  </si>
+  <si>
+    <t>TABET DERRAZ</t>
+  </si>
+  <si>
+    <t>HIND</t>
+  </si>
+  <si>
+    <t>htabet05@yahoo.fr</t>
+  </si>
+  <si>
+    <t>TILMATINE</t>
+  </si>
+  <si>
+    <t>AMAR</t>
+  </si>
+  <si>
+    <t>atilmatine@gmail.com</t>
+  </si>
+  <si>
+    <t>TOUHAMI</t>
+  </si>
+  <si>
+    <t>SEDDIK</t>
+  </si>
+  <si>
+    <t>seddik.touhami@gmail.com</t>
+  </si>
+  <si>
+    <t>ZEBLAH</t>
+  </si>
+  <si>
+    <t>azeblah@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ZENASNI</t>
+  </si>
+  <si>
+    <t>MERIEM</t>
+  </si>
+  <si>
+    <t>zenasnimeriem29@gmail.com</t>
+  </si>
+  <si>
+    <t>MOUNYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zenasni_mounya@yahoo.fr </t>
+  </si>
+  <si>
+    <t>ZIDI</t>
+  </si>
+  <si>
+    <t>sbzidi@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ABBES</t>
+  </si>
+  <si>
+    <t>Vacataire</t>
+  </si>
+  <si>
+    <t>abbasmohammed@gmail.com</t>
+  </si>
+  <si>
+    <t>ABDELLI</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>ABED</t>
+  </si>
+  <si>
+    <t>ZOULIKHA</t>
+  </si>
+  <si>
+    <t>zoulikhaabed3@gmail.com</t>
+  </si>
+  <si>
+    <t>AISSANI</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>aliaissani97@gmail.com</t>
+  </si>
+  <si>
+    <t>ARAB</t>
+  </si>
+  <si>
+    <t>ABDELMADJID</t>
+  </si>
+  <si>
+    <t>arab4abdelmajid@gmail</t>
+  </si>
+  <si>
+    <t>AREZKI</t>
+  </si>
+  <si>
+    <t>MOUFOK</t>
+  </si>
+  <si>
+    <t>mohamedmoufak308</t>
+  </si>
+  <si>
+    <t>06 97 05 81 64</t>
+  </si>
+  <si>
+    <t>AZZA</t>
+  </si>
+  <si>
+    <t>ROMAISSA FATIMA ZOHRA</t>
+  </si>
+  <si>
+    <t>BELABED</t>
+  </si>
+  <si>
+    <t>meriembelabed5@gmail.com</t>
+  </si>
+  <si>
+    <t>BELHABRI</t>
+  </si>
+  <si>
+    <t>RIHAB</t>
+  </si>
+  <si>
+    <t>ri123hab@gmail.com</t>
+  </si>
+  <si>
+    <t>05540755 89</t>
+  </si>
+  <si>
+    <t>BELHALOUCHE</t>
+  </si>
+  <si>
+    <t>LAKHDAR</t>
+  </si>
+  <si>
+    <t>lakhdar_belhallouche@hotmail.fr</t>
+  </si>
+  <si>
+    <t>BENCELLA</t>
+  </si>
+  <si>
+    <t>SARRA</t>
+  </si>
+  <si>
+    <t>sarrabencella@gmail.com</t>
+  </si>
+  <si>
+    <t>BENDIDA</t>
+  </si>
+  <si>
+    <t>bendida65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 50 59 52 24 </t>
+  </si>
+  <si>
+    <t>BENKABOU</t>
+  </si>
+  <si>
+    <t>MOHAMED EL HABIB</t>
+  </si>
+  <si>
+    <t>bkbhbb22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 62 15 65 63 </t>
+  </si>
+  <si>
+    <t>BENMASOUD</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>l.benmessaoud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENSALEM</t>
+  </si>
+  <si>
+    <t>RITEDJ INES</t>
+  </si>
+  <si>
+    <t>rawnakritedj@gmail.com</t>
+  </si>
+  <si>
+    <t>BERROUNA</t>
+  </si>
+  <si>
+    <t>HANANEEL</t>
+  </si>
+  <si>
+    <t>berhenen@yahoo.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 71 74 58 06 </t>
+  </si>
+  <si>
+    <t>BOUBKEUR</t>
+  </si>
+  <si>
+    <t>HALIMA</t>
+  </si>
+  <si>
+    <t>boubkeurhalima97sba@gmail.com</t>
+  </si>
+  <si>
+    <t>06 74 50 65 01</t>
+  </si>
+  <si>
+    <t>BOUKHARI</t>
+  </si>
+  <si>
+    <t>SOUMIA</t>
+  </si>
+  <si>
+    <t>boukhari_sf@yahoo.com</t>
+  </si>
+  <si>
+    <t>BOULARAF</t>
+  </si>
+  <si>
+    <t>AICHA</t>
+  </si>
+  <si>
+    <t>douaaboularaf@gmail.com</t>
+  </si>
+  <si>
+    <t>CHIKHI</t>
+  </si>
+  <si>
+    <t>NAWEL</t>
+  </si>
+  <si>
+    <t>chikhi nawel75@yahoo.fr</t>
+  </si>
+  <si>
+    <t>06 75 33 80 01</t>
+  </si>
+  <si>
+    <t>DELLOUM</t>
+  </si>
+  <si>
+    <t>AMIRA</t>
+  </si>
+  <si>
+    <t>amirad elloum28@ gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 54 96 88 33 </t>
+  </si>
+  <si>
+    <t>DJELLOULI</t>
+  </si>
+  <si>
+    <t>YOUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
+  </si>
+  <si>
+    <t>ABDERRAHMANE</t>
+  </si>
+  <si>
+    <t>djellouli7abderrahmane@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 80 29 68 02 </t>
+  </si>
+  <si>
+    <t>DJIZIRI</t>
+  </si>
+  <si>
+    <t>soumiadjiziri22@gmail.com</t>
+  </si>
+  <si>
+    <t>DRICI</t>
+  </si>
+  <si>
+    <t>LAMIA</t>
+  </si>
+  <si>
+    <t>Lamia_du22@hotmail.com</t>
+  </si>
+  <si>
+    <t>DRIF</t>
+  </si>
+  <si>
+    <t>FAIZA</t>
+  </si>
+  <si>
+    <t>ELGHODASSE</t>
+  </si>
+  <si>
+    <t>ABDEL MADJID</t>
+  </si>
+  <si>
+    <t>elghodasseabdelmadjid@gmail.com</t>
+  </si>
+  <si>
+    <t>FENTAZY</t>
+  </si>
+  <si>
+    <t>BELKISSE</t>
+  </si>
+  <si>
+    <t>fantazibelkisse.13@gmail.com</t>
+  </si>
+  <si>
+    <t>FEZAZI</t>
+  </si>
+  <si>
+    <t>KHADIDJA</t>
+  </si>
+  <si>
+    <t>khadidjafezazi90@gmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06660791 28 </t>
+  </si>
+  <si>
+    <t>GHALEM</t>
+  </si>
+  <si>
+    <t>ABDELHAK</t>
+  </si>
+  <si>
+    <t>ghalem.abdelhak@yahoo.com</t>
+  </si>
+  <si>
+    <t>HADER</t>
+  </si>
+  <si>
+    <t>aer.hader91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 41 0044 75 </t>
+  </si>
+  <si>
+    <t>HAMMAR</t>
+  </si>
+  <si>
+    <t>MEHDI</t>
+  </si>
+  <si>
+    <t>protoboy9999@gmail.com</t>
+  </si>
+  <si>
+    <t>KADA ZAIR</t>
+  </si>
+  <si>
+    <t>IKRAM</t>
+  </si>
+  <si>
+    <t>ikram.kadazair@gmail.com</t>
+  </si>
+  <si>
+    <t>KADRI</t>
+  </si>
+  <si>
+    <t>RANIA</t>
+  </si>
+  <si>
+    <t>kadrirania51@gmail.com</t>
+  </si>
+  <si>
+    <t>KHELEF</t>
+  </si>
+  <si>
+    <t>KADDA</t>
+  </si>
+  <si>
+    <t>LATRECHE</t>
+  </si>
+  <si>
+    <t>MOKHTAR</t>
+  </si>
+  <si>
+    <t>m_latreche@yahoo.com</t>
+  </si>
+  <si>
+    <t>LAYATI</t>
+  </si>
+  <si>
+    <t>TAYEB MEHDI</t>
+  </si>
+  <si>
+    <t>layatimedi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06964431 32   </t>
+  </si>
+  <si>
+    <t>LOUSDAD</t>
+  </si>
+  <si>
+    <t>AYMEN</t>
+  </si>
+  <si>
+    <t>lousdadaymen.aziz@gmail.com</t>
+  </si>
+  <si>
+    <t>MAHKOUKA</t>
+  </si>
+  <si>
+    <t>ZAZA</t>
+  </si>
+  <si>
+    <t>mahkouka.zaza@gmail.com</t>
+  </si>
+  <si>
+    <t>MANSOURI</t>
+  </si>
+  <si>
+    <t>ABDERRAZAK</t>
+  </si>
+  <si>
+    <t>MECHETTEM</t>
+  </si>
+  <si>
+    <t>KHALIDA</t>
+  </si>
+  <si>
+    <t>khalidamet4@gmail.com</t>
+  </si>
+  <si>
+    <t>MEKHALEF</t>
+  </si>
+  <si>
+    <t>mekhalefleila@gmail.com</t>
+  </si>
+  <si>
+    <t>MERADJAH</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>MESLEM</t>
+  </si>
+  <si>
+    <t>MEHADJIA</t>
+  </si>
+  <si>
+    <t>mehadjiameslem@gmail.com</t>
+  </si>
+  <si>
+    <t>MESTARI</t>
+  </si>
+  <si>
+    <t>WAHIBA</t>
+  </si>
+  <si>
+    <t>wahibaelmestarii@gmail.com</t>
+  </si>
+  <si>
+    <t>MILOUA-2</t>
+  </si>
+  <si>
+    <t>FETHI</t>
+  </si>
+  <si>
+    <t>fethi22miloua@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0664 31 52 76 </t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>KHELIFA</t>
+  </si>
+  <si>
+    <t>khelifa-mir@outlook.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 69 59 78 39 </t>
+  </si>
+  <si>
+    <t>MOKADEM</t>
+  </si>
+  <si>
+    <t>AMINA</t>
+  </si>
+  <si>
+    <t>mokeddem.amina2222@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06564287 15 </t>
+  </si>
+  <si>
+    <t>MOULAY</t>
+  </si>
+  <si>
+    <t>MILOUD</t>
+  </si>
+  <si>
+    <t>mmiloud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>NEFAHA</t>
+  </si>
+  <si>
+    <t>ABOUBAKR</t>
+  </si>
+  <si>
+    <t>Boba1620@hotmail.com</t>
+  </si>
+  <si>
+    <t>REDJALA</t>
+  </si>
+  <si>
+    <t>MAJDA</t>
+  </si>
+  <si>
+    <t>majdaredjala1492@gmail.com</t>
+  </si>
+  <si>
+    <t>05 53 64 47 91</t>
+  </si>
+  <si>
+    <t>SACI</t>
+  </si>
+  <si>
+    <t>sacihamza40@gmail.com</t>
+  </si>
+  <si>
+    <t>TURKI</t>
+  </si>
+  <si>
+    <t>BILAL MEROUANE</t>
+  </si>
+  <si>
+    <t>turkibilal22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 55 20 68 65 </t>
+  </si>
+  <si>
+    <t>ZAREB</t>
+  </si>
+  <si>
+    <t>zarebmohamedamine@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 74 68 05 35 </t>
+  </si>
+  <si>
+    <t>ZERDANI</t>
+  </si>
+  <si>
+    <t>medzerdani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 60 15 22 65 </t>
+  </si>
+  <si>
+    <t>ZIANI</t>
+  </si>
+  <si>
+    <t>DJAMEL</t>
+  </si>
+  <si>
+    <t>ZIDI-2</t>
+  </si>
+  <si>
+    <t>LARBI</t>
+  </si>
+  <si>
+    <t>larbi.zidi6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 92 12 03 38 </t>
+  </si>
+  <si>
+    <t>RAIS</t>
+  </si>
+  <si>
+    <t>ABDELMAJID</t>
+  </si>
+  <si>
+    <t>amrais@yahoo.com</t>
+  </si>
+  <si>
+    <t>REGUIG</t>
+  </si>
+  <si>
+    <t>ABDELDJALIL</t>
+  </si>
+  <si>
+    <t>abdeldjalil.reguig@outlook.com</t>
+  </si>
+  <si>
+    <t>CYCLE</t>
+  </si>
+  <si>
+    <t>PROMOTION</t>
+  </si>
+  <si>
+    <t>HORAIRE</t>
+  </si>
+  <si>
+    <t>RÉPARTITION (GROUPES / SALLES)</t>
+  </si>
+  <si>
+    <t>INGÉNIEUR</t>
+  </si>
+  <si>
+    <t>ING1</t>
+  </si>
+  <si>
+    <t>13h30 – 15h30</t>
+  </si>
+  <si>
+    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
+  </si>
+  <si>
+    <t>ING2</t>
+  </si>
+  <si>
+    <t>11h00 – 13h00</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08 BIS</t>
+  </si>
+  <si>
+    <t>ING3-EI</t>
+  </si>
+  <si>
+    <t>08h30 – 10h30</t>
+  </si>
+  <si>
+    <t>Promotion entière : SN</t>
+  </si>
+  <si>
+    <t>ING3-TM</t>
+  </si>
+  <si>
+    <t>Promotion entière : A10</t>
+  </si>
+  <si>
+    <t>ING4-CI</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 14</t>
+  </si>
+  <si>
+    <t>LICENCE</t>
+  </si>
+  <si>
+    <t>L2ELT</t>
+  </si>
+  <si>
+    <t>G1: A8 / G2: A9 / G3: A12</t>
+  </si>
+  <si>
+    <t>L3ELT</t>
+  </si>
+  <si>
+    <t>MASTER / MCIL</t>
+  </si>
+  <si>
+    <t>MCIL1</t>
+  </si>
+  <si>
+    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
+  </si>
+  <si>
+    <t>MCIL2</t>
+  </si>
+  <si>
+    <t>G1+G2: A10, G3: S02, G4: S06</t>
+  </si>
+  <si>
+    <t>MCIL3</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 01</t>
+  </si>
+  <si>
+    <t>M1CE</t>
+  </si>
+  <si>
+    <t>M1ER</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 06</t>
+  </si>
+  <si>
+    <t>M1ME</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08</t>
+  </si>
+  <si>
+    <t>M1MCIL</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 02</t>
+  </si>
+  <si>
+    <t>M1RE</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 04</t>
+  </si>
+  <si>
     <t>SEHALI</t>
-  </si>
-  <si>
-    <t>YAMINA</t>
-  </si>
-  <si>
-    <t>ya_sahali@yahoo.fr</t>
-  </si>
-  <si>
-    <t>SEMMAH</t>
-  </si>
-  <si>
-    <t>ABDELHAFID</t>
-  </si>
-  <si>
-    <t>hafid.semmah@yahoo.fr</t>
-  </si>
-  <si>
-    <t>TABET DERRAZ</t>
-  </si>
-  <si>
-    <t>HIND</t>
-  </si>
-  <si>
-    <t>htabet05@yahoo.fr</t>
-  </si>
-  <si>
-    <t>TILMATINE</t>
-  </si>
-  <si>
-    <t>AMAR</t>
-  </si>
-  <si>
-    <t>atilmatine@gmail.com</t>
-  </si>
-  <si>
-    <t>TOUHAMI</t>
-  </si>
-  <si>
-    <t>SEDDIK</t>
-  </si>
-  <si>
-    <t>seddik.touhami@gmail.com</t>
-  </si>
-  <si>
-    <t>ZEBLAH</t>
-  </si>
-  <si>
-    <t>azeblah@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ZENASNI</t>
-  </si>
-  <si>
-    <t>MERIEM</t>
-  </si>
-  <si>
-    <t>zenasnimeriem29@gmail.com</t>
-  </si>
-  <si>
-    <t>MOUNYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenasni_mounya@yahoo.fr </t>
-  </si>
-  <si>
-    <t>ZIDI</t>
-  </si>
-  <si>
-    <t>sbzidi@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ABBES</t>
-  </si>
-  <si>
-    <t>Vacataire</t>
-  </si>
-  <si>
-    <t>abbasmohammed@gmail,com</t>
-  </si>
-  <si>
-    <t>ABDELLI</t>
-  </si>
-  <si>
-    <t>MAMA</t>
-  </si>
-  <si>
-    <t>ABED</t>
-  </si>
-  <si>
-    <t>ZOULIKHA</t>
-  </si>
-  <si>
-    <t>zoulikhaabed3@gmail,com</t>
-  </si>
-  <si>
-    <t>AISSANI</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>aliaissani97@gmail,com</t>
-  </si>
-  <si>
-    <t>ARAB</t>
-  </si>
-  <si>
-    <t>ABDELMADJID</t>
-  </si>
-  <si>
-    <t>arab4abdelmajid@gmail</t>
-  </si>
-  <si>
-    <t>AREZKI</t>
-  </si>
-  <si>
-    <t>MOUFOK</t>
-  </si>
-  <si>
-    <t>mohamedmoufak308</t>
-  </si>
-  <si>
-    <t>06 97 05 81 64</t>
-  </si>
-  <si>
-    <t>AZZA</t>
-  </si>
-  <si>
-    <t>ROMAISSA FATIMA ZOHRA</t>
-  </si>
-  <si>
-    <t>BELABED</t>
-  </si>
-  <si>
-    <t>meriembelabed5@gmail,com</t>
-  </si>
-  <si>
-    <t>BELHABRI</t>
-  </si>
-  <si>
-    <t>RIHAB</t>
-  </si>
-  <si>
-    <t>ri123hab@gmail,com</t>
-  </si>
-  <si>
-    <t>05540755 89</t>
-  </si>
-  <si>
-    <t>BELHALOUCHE</t>
-  </si>
-  <si>
-    <t>LAKHDAR</t>
-  </si>
-  <si>
-    <t>lakhdar_belhallouche@hotmail,fr</t>
-  </si>
-  <si>
-    <t>BENCELLA</t>
-  </si>
-  <si>
-    <t>SARRA</t>
-  </si>
-  <si>
-    <t>sarrabencella@gmail,com</t>
-  </si>
-  <si>
-    <t>BENDIDA</t>
-  </si>
-  <si>
-    <t>bendida65@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 50 59 52 24 </t>
-  </si>
-  <si>
-    <t>BENKABOU</t>
-  </si>
-  <si>
-    <t>MOHAMED EL HABIB</t>
-  </si>
-  <si>
-    <t>bkbhbb22@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 62 15 65 63 </t>
-  </si>
-  <si>
-    <t>BENMASOUD</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>l,benmessaoud@yahoo,fr</t>
-  </si>
-  <si>
-    <t>BENSALEM</t>
-  </si>
-  <si>
-    <t>RITEDJ INES</t>
-  </si>
-  <si>
-    <t>rawnakritedj@gmail,com</t>
-  </si>
-  <si>
-    <t>BERROUNA</t>
-  </si>
-  <si>
-    <t>HANANEEL</t>
-  </si>
-  <si>
-    <t>berhenen@yahoo,fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 71 74 58 06 </t>
-  </si>
-  <si>
-    <t>BOUBKEUR</t>
-  </si>
-  <si>
-    <t>HALIMA</t>
-  </si>
-  <si>
-    <t>boubkeurhalima97sba@gmail,com</t>
-  </si>
-  <si>
-    <t>06 74 50 65 01</t>
-  </si>
-  <si>
-    <t>BOUKHARI</t>
-  </si>
-  <si>
-    <t>SOUMIA</t>
-  </si>
-  <si>
-    <t>boukhari_sf@yahoo,com</t>
-  </si>
-  <si>
-    <t>BOULARAF</t>
-  </si>
-  <si>
-    <t>AICHA</t>
-  </si>
-  <si>
-    <t>douaaboularaf@gmail,com</t>
-  </si>
-  <si>
-    <t>CHIKHI</t>
-  </si>
-  <si>
-    <t>NAWEL</t>
-  </si>
-  <si>
-    <t>chikhi nawel75@yahoo,fr</t>
-  </si>
-  <si>
-    <t>06 75 33 80 01</t>
-  </si>
-  <si>
-    <t>DELLOUM</t>
-  </si>
-  <si>
-    <t>AMIRA</t>
-  </si>
-  <si>
-    <t>amirad elloum28@ gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 54 96 88 33 </t>
-  </si>
-  <si>
-    <t>DJELLOULI</t>
-  </si>
-  <si>
-    <t>YOUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
-  </si>
-  <si>
-    <t>ABDERRAHMANE</t>
-  </si>
-  <si>
-    <t>djellouli7abderrahmane@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 80 29 68 02 </t>
-  </si>
-  <si>
-    <t>DJIZIRI</t>
-  </si>
-  <si>
-    <t>soumiadjiziri22@gmail,com</t>
-  </si>
-  <si>
-    <t>DRICI</t>
-  </si>
-  <si>
-    <t>LAMIA</t>
-  </si>
-  <si>
-    <t>Lamia_du22@hotmail,com</t>
-  </si>
-  <si>
-    <t>DRIF</t>
-  </si>
-  <si>
-    <t>FAIZA</t>
-  </si>
-  <si>
-    <t>ELGHODASSE</t>
-  </si>
-  <si>
-    <t>ABDEL MADJID</t>
-  </si>
-  <si>
-    <t>elghodasseabdelmadjid@gmail,com</t>
-  </si>
-  <si>
-    <t>FENTAZY</t>
-  </si>
-  <si>
-    <t>BELKISSE</t>
-  </si>
-  <si>
-    <t>fantazibelkisse,13@gmail,com</t>
-  </si>
-  <si>
-    <t>FEZAZI</t>
-  </si>
-  <si>
-    <t>KHADIDJA</t>
-  </si>
-  <si>
-    <t>khadidjafezazi90@gmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06660791 28 </t>
-  </si>
-  <si>
-    <t>GHALEM</t>
-  </si>
-  <si>
-    <t>ABDELHAK</t>
-  </si>
-  <si>
-    <t>ghalem,abdelhak@yahoo,com</t>
-  </si>
-  <si>
-    <t>HADER</t>
-  </si>
-  <si>
-    <t>aer,hader91@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 41 0044 75 </t>
-  </si>
-  <si>
-    <t>HAMMAR</t>
-  </si>
-  <si>
-    <t>MEHDI</t>
-  </si>
-  <si>
-    <t>protoboy9999@gmail,com</t>
-  </si>
-  <si>
-    <t>KADA ZAIR</t>
-  </si>
-  <si>
-    <t>IKRAM</t>
-  </si>
-  <si>
-    <t>ikram,kadazair@gmail,com</t>
-  </si>
-  <si>
-    <t>KADRI</t>
-  </si>
-  <si>
-    <t>RANIA</t>
-  </si>
-  <si>
-    <t>kadrirania51@gmail,com</t>
-  </si>
-  <si>
-    <t>KHELEF</t>
-  </si>
-  <si>
-    <t>KADDA</t>
-  </si>
-  <si>
-    <t>LATRECHE</t>
-  </si>
-  <si>
-    <t>MOKHTAR</t>
-  </si>
-  <si>
-    <t>m_latreche@yahoo,com</t>
-  </si>
-  <si>
-    <t>LAYATI</t>
-  </si>
-  <si>
-    <t>TAYEB MEHDI</t>
-  </si>
-  <si>
-    <t>layatimedi@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06964431 32   </t>
-  </si>
-  <si>
-    <t>LOUSDAD</t>
-  </si>
-  <si>
-    <t>AYMEN</t>
-  </si>
-  <si>
-    <t>lousdadaymen,aziz@gmail,com</t>
-  </si>
-  <si>
-    <t>MAHKOUKA</t>
-  </si>
-  <si>
-    <t>ZAZA</t>
-  </si>
-  <si>
-    <t>mahkouka,zaza@gmail,com</t>
-  </si>
-  <si>
-    <t>MANSOURI</t>
-  </si>
-  <si>
-    <t>ABDERRAZAK</t>
-  </si>
-  <si>
-    <t>MECHETTEM</t>
-  </si>
-  <si>
-    <t>KHALIDA</t>
-  </si>
-  <si>
-    <t>khalidamet4@gmail,com</t>
-  </si>
-  <si>
-    <t>MEKHALEF</t>
-  </si>
-  <si>
-    <t>mekhalefleila@gmail,com</t>
-  </si>
-  <si>
-    <t>MERADJAH</t>
-  </si>
-  <si>
-    <t>IBRAHIM</t>
-  </si>
-  <si>
-    <t>MESLEM</t>
-  </si>
-  <si>
-    <t>MEHADJIA</t>
-  </si>
-  <si>
-    <t>mehadjiameslem@gmail,com</t>
-  </si>
-  <si>
-    <t>MESTARI</t>
-  </si>
-  <si>
-    <t>WAHIBA</t>
-  </si>
-  <si>
-    <t>wahibaelmestarii@gmail,com</t>
-  </si>
-  <si>
-    <t>FETHI</t>
-  </si>
-  <si>
-    <t>fethi22miloua@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0664 31 52 76 </t>
-  </si>
-  <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>KHELIFA</t>
-  </si>
-  <si>
-    <t>khelifa-mir@outlook,fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 69 59 78 39 </t>
-  </si>
-  <si>
-    <t>MOKADEM</t>
-  </si>
-  <si>
-    <t>AMINA</t>
-  </si>
-  <si>
-    <t>mokeddem,amina2222@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06564287 15 </t>
-  </si>
-  <si>
-    <t>MOULAY</t>
-  </si>
-  <si>
-    <t>MILOUD</t>
-  </si>
-  <si>
-    <t>mmiloud@yahoo,fr</t>
-  </si>
-  <si>
-    <t>NEFAHA</t>
-  </si>
-  <si>
-    <t>ABOUBAKR</t>
-  </si>
-  <si>
-    <t>Boba1620@hotmail,com</t>
-  </si>
-  <si>
-    <t>REDJALA</t>
-  </si>
-  <si>
-    <t>MAJDA</t>
-  </si>
-  <si>
-    <t>majdaredjala1492@gmail.com</t>
-  </si>
-  <si>
-    <t>05 53 64 47 91</t>
-  </si>
-  <si>
-    <t>SACI</t>
-  </si>
-  <si>
-    <t>sacihamza40@gmail,com</t>
-  </si>
-  <si>
-    <t>TURKI</t>
-  </si>
-  <si>
-    <t>BILAL MEROUANE</t>
-  </si>
-  <si>
-    <t>turkibilal22@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 55 20 68 65 </t>
-  </si>
-  <si>
-    <t>ZAREB</t>
-  </si>
-  <si>
-    <t>zarebmohamedamine@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 74 68 05 35 </t>
-  </si>
-  <si>
-    <t>ZERDANI</t>
-  </si>
-  <si>
-    <t>medzerdani@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 60 15 22 65 </t>
-  </si>
-  <si>
-    <t>ZIANI</t>
-  </si>
-  <si>
-    <t>DJAMEL</t>
-  </si>
-  <si>
-    <t>LARBI</t>
-  </si>
-  <si>
-    <t>larbi,zidi6@gmail,com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 92 12 03 38 </t>
-  </si>
-  <si>
-    <t>RAIS</t>
-  </si>
-  <si>
-    <t>ABDELMAJID</t>
-  </si>
-  <si>
-    <t>amrais@yahoo.com</t>
-  </si>
-  <si>
-    <t>REGUIG</t>
-  </si>
-  <si>
-    <t>ABDELDJALIL</t>
-  </si>
-  <si>
-    <t>abdeldjalil.reguig@outlook.com</t>
-  </si>
-  <si>
-    <t>CYCLE</t>
-  </si>
-  <si>
-    <t>PROMOTION</t>
-  </si>
-  <si>
-    <t>HORAIRE</t>
-  </si>
-  <si>
-    <t>RÉPARTITION (GROUPES / SALLES)</t>
-  </si>
-  <si>
-    <t>INGÉNIEUR</t>
-  </si>
-  <si>
-    <t>ING1</t>
-  </si>
-  <si>
-    <t>13h30 – 15h30</t>
-  </si>
-  <si>
-    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
-  </si>
-  <si>
-    <t>ING2</t>
-  </si>
-  <si>
-    <t>11h00 – 13h00</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08 BIS</t>
-  </si>
-  <si>
-    <t>ING3-EI</t>
-  </si>
-  <si>
-    <t>08h30 – 10h30</t>
-  </si>
-  <si>
-    <t>Promotion entière : SN</t>
-  </si>
-  <si>
-    <t>ING3-TM</t>
-  </si>
-  <si>
-    <t>Promotion entière : A10</t>
-  </si>
-  <si>
-    <t>ING4-CI</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 14</t>
-  </si>
-  <si>
-    <t>LICENCE</t>
-  </si>
-  <si>
-    <t>L2ELT</t>
-  </si>
-  <si>
-    <t>G1: A8 / G2: A9 / G3: A12</t>
-  </si>
-  <si>
-    <t>L3ELT</t>
-  </si>
-  <si>
-    <t>MASTER / MCIL</t>
-  </si>
-  <si>
-    <t>MCIL1</t>
-  </si>
-  <si>
-    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
-  </si>
-  <si>
-    <t>MCIL2</t>
-  </si>
-  <si>
-    <t>G1+G2: A10, G3: S02, G4: S06</t>
-  </si>
-  <si>
-    <t>MCIL3</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 01</t>
-  </si>
-  <si>
-    <t>M1CE</t>
-  </si>
-  <si>
-    <t>M1ER</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 06</t>
-  </si>
-  <si>
-    <t>M1ME</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08</t>
-  </si>
-  <si>
-    <t>M1MCIL</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 02</t>
-  </si>
-  <si>
-    <t>M1RE</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 04</t>
-  </si>
-  <si>
-    <t>abbasmohammed@gmail.com</t>
-  </si>
-  <si>
-    <t>zoulikhaabed3@gmail.com</t>
-  </si>
-  <si>
-    <t>aliaissani97@gmail.com</t>
-  </si>
-  <si>
-    <t>meriembelabed5@gmail.com</t>
-  </si>
-  <si>
-    <t>ri123hab@gmail.com</t>
-  </si>
-  <si>
-    <t>lakhdar_belhallouche@hotmail.fr</t>
-  </si>
-  <si>
-    <t>sarrabencella@gmail.com</t>
-  </si>
-  <si>
-    <t>bendida65@gmail.com</t>
-  </si>
-  <si>
-    <t>bkbhbb22@gmail.com</t>
-  </si>
-  <si>
-    <t>l.benmessaoud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>rawnakritedj@gmail.com</t>
-  </si>
-  <si>
-    <t>berhenen@yahoo.fr</t>
-  </si>
-  <si>
-    <t>boubkeurhalima97sba@gmail.com</t>
-  </si>
-  <si>
-    <t>boukhari_sf@yahoo.com</t>
-  </si>
-  <si>
-    <t>douaaboularaf@gmail.com</t>
-  </si>
-  <si>
-    <t>chikhi nawel75@yahoo.fr</t>
-  </si>
-  <si>
-    <t>amirad elloum28@ gmail.com</t>
-  </si>
-  <si>
-    <t>djellouli7abderrahmane@gmail.com</t>
-  </si>
-  <si>
-    <t>soumiadjiziri22@gmail.com</t>
-  </si>
-  <si>
-    <t>Lamia_du22@hotmail.com</t>
-  </si>
-  <si>
-    <t>elghodasseabdelmadjid@gmail.com</t>
-  </si>
-  <si>
-    <t>fantazibelkisse.13@gmail.com</t>
-  </si>
-  <si>
-    <t>ghalem.abdelhak@yahoo.com</t>
-  </si>
-  <si>
-    <t>aer.hader91@gmail.com</t>
-  </si>
-  <si>
-    <t>protoboy9999@gmail.com</t>
-  </si>
-  <si>
-    <t>ikram.kadazair@gmail.com</t>
-  </si>
-  <si>
-    <t>kadrirania51@gmail.com</t>
-  </si>
-  <si>
-    <t>m_latreche@yahoo.com</t>
-  </si>
-  <si>
-    <t>layatimedi@gmail.com</t>
-  </si>
-  <si>
-    <t>lousdadaymen.aziz@gmail.com</t>
-  </si>
-  <si>
-    <t>mahkouka.zaza@gmail.com</t>
-  </si>
-  <si>
-    <t>khalidamet4@gmail.com</t>
-  </si>
-  <si>
-    <t>mekhalefleila@gmail.com</t>
-  </si>
-  <si>
-    <t>mehadjiameslem@gmail.com</t>
-  </si>
-  <si>
-    <t>wahibaelmestarii@gmail.com</t>
-  </si>
-  <si>
-    <t>fethi22miloua@gmail.com</t>
-  </si>
-  <si>
-    <t>khelifa-mir@outlook.fr</t>
-  </si>
-  <si>
-    <t>mokeddem.amina2222@gmail.com</t>
-  </si>
-  <si>
-    <t>mmiloud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>Boba1620@hotmail.com</t>
-  </si>
-  <si>
-    <t>sacihamza40@gmail.com</t>
-  </si>
-  <si>
-    <t>turkibilal22@gmail.com</t>
-  </si>
-  <si>
-    <t>zarebmohamedamine@gmail.com</t>
-  </si>
-  <si>
-    <t>medzerdani@gmail.com</t>
-  </si>
-  <si>
-    <t>larbi.zidi6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2480,8 +2354,8 @@
   <sheetPr/>
   <dimension ref="A1:G1193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4587,20 +4461,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="1:7">
@@ -4609,20 +4483,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" ht="15.75" spans="1:7">
@@ -4631,20 +4505,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" ht="15.75" spans="1:7">
@@ -4653,17 +4527,17 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G103" s="13"/>
     </row>
@@ -4673,17 +4547,17 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G104" s="13"/>
     </row>
@@ -4693,20 +4567,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" ht="15.75" spans="1:7">
@@ -4715,7 +4589,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
@@ -4725,7 +4599,7 @@
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -4735,20 +4609,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" ht="15.75" spans="1:7">
@@ -4757,7 +4631,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>127</v>
@@ -4767,10 +4641,10 @@
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" ht="15.75" spans="1:7">
@@ -4779,7 +4653,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>127</v>
@@ -4789,10 +4663,10 @@
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" ht="15.75" spans="1:7">
@@ -4801,10 +4675,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>154</v>
@@ -4819,29 +4693,29 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>151</v>
+        <v>324</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" ht="15.75" spans="1:7">
       <c r="A112" s="19"/>
       <c r="B112" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>9</v>
@@ -4850,24 +4724,24 @@
         <v>10</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G112" s="13"/>
     </row>
     <row r="113" ht="15.75" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G113" s="13"/>
     </row>
@@ -12441,42 +12315,42 @@
   <hyperlinks>
     <hyperlink ref="F17" r:id="rId1" display="bentaallah65@yahoo.fr"/>
     <hyperlink ref="F23" r:id="rId2" display="djeriri_youcef@yahoo.fr"/>
-    <hyperlink ref="F54" r:id="rId3" display="abbasmohammed@gmail,com"/>
-    <hyperlink ref="F56" r:id="rId4" display="zoulikhaabed3@gmail,com"/>
-    <hyperlink ref="F90" r:id="rId5" display="m_latreche@yahoo,com"/>
-    <hyperlink ref="F104" r:id="rId6" display="Boba1620@hotmail,com"/>
-    <hyperlink ref="F86" r:id="rId7" display="protoboy9999@gmail,com"/>
-    <hyperlink ref="F99" r:id="rId8" display="wahibaelmestarii@gmail,com"/>
-    <hyperlink ref="F96" r:id="rId9" display="mekhalefleila@gmail,com"/>
-    <hyperlink ref="F64" r:id="rId10" display="sarrabencella@gmail,com"/>
-    <hyperlink ref="F103" r:id="rId11" display="mmiloud@yahoo,fr"/>
-    <hyperlink ref="F109" r:id="rId12" display="medzerdani@gmail,com"/>
-    <hyperlink ref="F77" r:id="rId13" display="soumiadjiziri22@gmail,com"/>
-    <hyperlink ref="F63" r:id="rId14" display="lakhdar_belhallouche@hotmail,fr"/>
-    <hyperlink ref="F57" r:id="rId15" display="aliaissani97@gmail,com"/>
-    <hyperlink ref="F61" r:id="rId16" display="meriembelabed5@gmail,com"/>
+    <hyperlink ref="F54" r:id="rId3" display="abbasmohammed@gmail.com"/>
+    <hyperlink ref="F56" r:id="rId4" display="zoulikhaabed3@gmail.com"/>
+    <hyperlink ref="F90" r:id="rId5" display="m_latreche@yahoo.com"/>
+    <hyperlink ref="F104" r:id="rId6" display="Boba1620@hotmail.com"/>
+    <hyperlink ref="F86" r:id="rId7" display="protoboy9999@gmail.com"/>
+    <hyperlink ref="F99" r:id="rId8" display="wahibaelmestarii@gmail.com"/>
+    <hyperlink ref="F96" r:id="rId9" display="mekhalefleila@gmail.com"/>
+    <hyperlink ref="F64" r:id="rId10" display="sarrabencella@gmail.com"/>
+    <hyperlink ref="F103" r:id="rId11" display="mmiloud@yahoo.fr"/>
+    <hyperlink ref="F109" r:id="rId12" display="medzerdani@gmail.com"/>
+    <hyperlink ref="F77" r:id="rId13" display="soumiadjiziri22@gmail.com"/>
+    <hyperlink ref="F63" r:id="rId14" display="lakhdar_belhallouche@hotmail.fr"/>
+    <hyperlink ref="F57" r:id="rId15" display="aliaissani97@gmail.com"/>
+    <hyperlink ref="F61" r:id="rId16" display="meriembelabed5@gmail.com"/>
     <hyperlink ref="F58" r:id="rId17" display="arab4abdelmajid@gmail"/>
-    <hyperlink ref="F98" r:id="rId18" display="mehadjiameslem@gmail,com"/>
-    <hyperlink ref="F72" r:id="rId19" display="douaaboularaf@gmail,com"/>
-    <hyperlink ref="F71" r:id="rId20" display="boukhari_sf@yahoo,com"/>
-    <hyperlink ref="F68" r:id="rId21" display="rawnakritedj@gmail,com"/>
-    <hyperlink ref="F88" r:id="rId22" display="kadrirania51@gmail,com"/>
-    <hyperlink ref="F108" r:id="rId23" display="zarebmohamedamine@gmail,com"/>
-    <hyperlink ref="F95" r:id="rId24" display="khalidamet4@gmail,com"/>
-    <hyperlink ref="F80" r:id="rId25" display="elghodasseabdelmadjid@gmail,com"/>
-    <hyperlink ref="F106" r:id="rId26" display="sacihamza40@gmail,com"/>
-    <hyperlink ref="F78" r:id="rId27" display="Lamia_du22@hotmail,com"/>
-    <hyperlink ref="F91" r:id="rId28" display="layatimedi@gmail,com"/>
-    <hyperlink ref="F70" r:id="rId29" display="boubkeurhalima97sba@gmail,com"/>
-    <hyperlink ref="F62" r:id="rId30" display="ri123hab@gmail,com"/>
-    <hyperlink ref="F69" r:id="rId31" display="berhenen@yahoo,fr"/>
+    <hyperlink ref="F98" r:id="rId18" display="mehadjiameslem@gmail.com"/>
+    <hyperlink ref="F72" r:id="rId19" display="douaaboularaf@gmail.com"/>
+    <hyperlink ref="F71" r:id="rId20" display="boukhari_sf@yahoo.com"/>
+    <hyperlink ref="F68" r:id="rId21" display="rawnakritedj@gmail.com"/>
+    <hyperlink ref="F88" r:id="rId22" display="kadrirania51@gmail.com"/>
+    <hyperlink ref="F108" r:id="rId23" display="zarebmohamedamine@gmail.com"/>
+    <hyperlink ref="F95" r:id="rId24" display="khalidamet4@gmail.com"/>
+    <hyperlink ref="F80" r:id="rId25" display="elghodasseabdelmadjid@gmail.com"/>
+    <hyperlink ref="F106" r:id="rId26" display="sacihamza40@gmail.com"/>
+    <hyperlink ref="F78" r:id="rId27" display="Lamia_du22@hotmail.com"/>
+    <hyperlink ref="F91" r:id="rId28" display="layatimedi@gmail.com"/>
+    <hyperlink ref="F70" r:id="rId29" display="boubkeurhalima97sba@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId30" display="ri123hab@gmail.com"/>
+    <hyperlink ref="F69" r:id="rId31" display="berhenen@yahoo.fr"/>
     <hyperlink ref="F82" r:id="rId32" display="khadidjafezazi90@gmail"/>
-    <hyperlink ref="F65" r:id="rId33" display="bendida65@gmail,com"/>
-    <hyperlink ref="F100" r:id="rId34" display="fethi22miloua@gmail,com"/>
-    <hyperlink ref="F107" r:id="rId35" display="turkibilal22@gmail,com"/>
-    <hyperlink ref="F66" r:id="rId36" display="bkbhbb22@gmail,com"/>
-    <hyperlink ref="F101" r:id="rId37" display="khelifa-mir@outlook,fr"/>
-    <hyperlink ref="F76" r:id="rId38" display="djellouli7abderrahmane@gmail,com"/>
+    <hyperlink ref="F65" r:id="rId33" display="bendida65@gmail.com"/>
+    <hyperlink ref="F100" r:id="rId34" display="fethi22miloua@gmail.com"/>
+    <hyperlink ref="F107" r:id="rId35" display="turkibilal22@gmail.com"/>
+    <hyperlink ref="F66" r:id="rId36" display="bkbhbb22@gmail.com"/>
+    <hyperlink ref="F101" r:id="rId37" display="khelifa-mir@outlook.fr"/>
+    <hyperlink ref="F76" r:id="rId38" display="djellouli7abderrahmane@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12504,202 +12378,202 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="29"/>
       <c r="B3" s="26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
       <c r="A4" s="29"/>
       <c r="B4" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="29"/>
       <c r="B5" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>344</v>
-      </c>
       <c r="D5" s="28" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="26" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="31" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="34" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="34" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="34" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>344</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:4">
       <c r="A13" s="29"/>
       <c r="B13" s="34" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="29"/>
       <c r="B14" s="34" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="29"/>
       <c r="B15" s="34" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="29"/>
       <c r="B16" s="34" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="656" ht="15.75"/>
@@ -14782,8 +14656,8 @@
   <sheetPr/>
   <dimension ref="A1:G1193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -15763,7 +15637,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>129</v>
+        <v>372</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>130</v>
@@ -15969,7 +15843,7 @@
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>370</v>
+        <v>155</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -16007,7 +15881,7 @@
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17" t="s">
-        <v>371</v>
+        <v>160</v>
       </c>
       <c r="G56" s="13"/>
     </row>
@@ -16027,7 +15901,7 @@
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17" t="s">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -16107,7 +15981,7 @@
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -16127,7 +16001,7 @@
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>374</v>
+        <v>177</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>178</v>
@@ -16149,7 +16023,7 @@
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -16169,7 +16043,7 @@
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="17" t="s">
-        <v>376</v>
+        <v>184</v>
       </c>
       <c r="G64" s="13"/>
     </row>
@@ -16189,7 +16063,7 @@
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
-        <v>377</v>
+        <v>186</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>187</v>
@@ -16211,7 +16085,7 @@
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
-        <v>378</v>
+        <v>190</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>191</v>
@@ -16233,7 +16107,7 @@
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>379</v>
+        <v>194</v>
       </c>
       <c r="G67" s="13"/>
     </row>
@@ -16253,7 +16127,7 @@
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>380</v>
+        <v>197</v>
       </c>
       <c r="G68" s="13"/>
     </row>
@@ -16273,7 +16147,7 @@
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
-        <v>381</v>
+        <v>200</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>201</v>
@@ -16295,7 +16169,7 @@
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
-        <v>382</v>
+        <v>204</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>205</v>
@@ -16317,7 +16191,7 @@
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="17" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="G71" s="13"/>
     </row>
@@ -16337,7 +16211,7 @@
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>384</v>
+        <v>211</v>
       </c>
       <c r="G72" s="13"/>
     </row>
@@ -16357,7 +16231,7 @@
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
-        <v>385</v>
+        <v>214</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>215</v>
@@ -16379,7 +16253,7 @@
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="18" t="s">
-        <v>386</v>
+        <v>218</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>219</v>
@@ -16421,7 +16295,7 @@
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
-        <v>387</v>
+        <v>224</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>225</v>
@@ -16443,7 +16317,7 @@
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>388</v>
+        <v>227</v>
       </c>
       <c r="G77" s="13"/>
     </row>
@@ -16463,7 +16337,7 @@
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -16501,7 +16375,7 @@
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="G80" s="13"/>
     </row>
@@ -16521,7 +16395,7 @@
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>391</v>
+        <v>238</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -16581,7 +16455,7 @@
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>392</v>
+        <v>245</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -16601,7 +16475,7 @@
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="18" t="s">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>248</v>
@@ -16623,7 +16497,7 @@
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>394</v>
+        <v>251</v>
       </c>
       <c r="G86" s="13"/>
     </row>
@@ -16643,7 +16517,7 @@
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="G87" s="13"/>
     </row>
@@ -16663,7 +16537,7 @@
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>396</v>
+        <v>257</v>
       </c>
       <c r="G88" s="13"/>
     </row>
@@ -16701,7 +16575,7 @@
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>397</v>
+        <v>262</v>
       </c>
       <c r="G90" s="13"/>
     </row>
@@ -16721,7 +16595,7 @@
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
-        <v>398</v>
+        <v>265</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>266</v>
@@ -16743,7 +16617,7 @@
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="G92" s="13"/>
     </row>
@@ -16763,7 +16637,7 @@
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="18" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="G93" s="13"/>
     </row>
@@ -16801,7 +16675,7 @@
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>401</v>
+        <v>277</v>
       </c>
       <c r="G95" s="13"/>
     </row>
@@ -16821,7 +16695,7 @@
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>402</v>
+        <v>279</v>
       </c>
       <c r="G96" s="13"/>
     </row>
@@ -16859,7 +16733,7 @@
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>403</v>
+        <v>284</v>
       </c>
       <c r="G98" s="13"/>
     </row>
@@ -16879,7 +16753,7 @@
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>404</v>
+        <v>287</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -16892,17 +16766,17 @@
         <v>104</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" ht="15.75" spans="1:7">
@@ -16911,20 +16785,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="17" t="s">
-        <v>406</v>
+        <v>294</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" ht="15.75" spans="1:7">
@@ -16933,20 +16807,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
-        <v>407</v>
+        <v>298</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" ht="15.75" spans="1:7">
@@ -16955,17 +16829,17 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="G103" s="13"/>
     </row>
@@ -16975,17 +16849,17 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="G104" s="13"/>
     </row>
@@ -16995,20 +16869,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" ht="15.75" spans="1:7">
@@ -17017,7 +16891,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
@@ -17027,7 +16901,7 @@
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>410</v>
+        <v>311</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -17037,20 +16911,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>411</v>
+        <v>314</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" ht="15.75" spans="1:7">
@@ -17059,7 +16933,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>127</v>
@@ -17069,10 +16943,10 @@
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>412</v>
+        <v>317</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" ht="15.75" spans="1:7">
@@ -17081,7 +16955,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>127</v>
@@ -17091,10 +16965,10 @@
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" ht="15.75" spans="1:7">
@@ -17103,10 +16977,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>154</v>
@@ -17124,26 +16998,26 @@
         <v>151</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>154</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" ht="15.75" spans="1:7">
       <c r="A112" s="19"/>
       <c r="B112" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D112" s="21" t="s">
         <v>9</v>
@@ -17152,24 +17026,24 @@
         <v>10</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G112" s="13"/>
     </row>
     <row r="113" ht="15.75" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="21"/>
       <c r="F113" s="12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G113" s="13"/>
     </row>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -900,7 +900,7 @@
     <t>wahibaelmestarii@gmail.com</t>
   </si>
   <si>
-    <t>MILOUA-2</t>
+    <t>FETHIMILOUA</t>
   </si>
   <si>
     <t>FETHI</t>
@@ -2351,11 +2351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2392,7 +2392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="15.75" hidden="1" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" spans="1:7">
+    <row r="11" ht="15.75" hidden="1" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3177,7 +3177,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" spans="1:7">
+    <row r="51" ht="15.75" hidden="1" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" spans="1:7">
+    <row r="52" ht="15.75" hidden="1" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3563,7 +3563,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3645,7 +3645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="1:7">
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3663,7 +3663,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3705,7 +3705,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" ht="15.75" spans="1:7">
+    <row r="63" ht="15.75" hidden="1" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3767,7 +3767,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="1:7">
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3789,7 +3789,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" ht="15.75" spans="1:7">
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" ref="A68:A111" si="1">A67+1</f>
         <v>67</v>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3851,7 +3851,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" ht="15.75" spans="1:7">
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3873,7 +3873,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" ht="15.75" spans="1:7">
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3935,7 +3935,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" ht="15.75" spans="1:7">
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3957,7 +3957,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="1:7">
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3999,7 +3999,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" ht="15.75" spans="1:7">
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4057,7 +4057,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4119,7 +4119,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:7">
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4137,7 +4137,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" spans="1:7">
+    <row r="85" ht="15.75" hidden="1" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4179,7 +4179,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:7">
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4199,7 +4199,7 @@
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4257,7 +4257,7 @@
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4277,7 +4277,7 @@
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4299,7 +4299,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="92" ht="15.75" spans="1:7">
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4357,7 +4357,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4415,7 +4415,7 @@
       <c r="F97" s="15"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4477,7 +4477,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="101" ht="15.75" spans="1:7">
+    <row r="101" ht="15.75" hidden="1" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4499,7 +4499,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" ht="15.75" spans="1:7">
+    <row r="102" ht="15.75" hidden="1" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4521,7 +4521,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" ht="15.75" spans="1:7">
+    <row r="103" ht="15.75" hidden="1" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" spans="1:7">
+    <row r="104" ht="15.75" hidden="1" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" spans="1:7">
+    <row r="105" ht="15.75" hidden="1" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4583,7 +4583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" ht="15.75" spans="1:7">
+    <row r="106" ht="15.75" hidden="1" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" spans="1:7">
+    <row r="107" ht="15.75" hidden="1" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4625,7 +4625,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" ht="15.75" spans="1:7">
+    <row r="108" ht="15.75" hidden="1" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4647,7 +4647,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" ht="15.75" spans="1:7">
+    <row r="109" ht="15.75" hidden="1" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4669,7 +4669,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" ht="15.75" spans="1:7">
+    <row r="110" ht="15.75" hidden="1" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4687,7 +4687,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" spans="1:7">
+    <row r="111" ht="15.75" hidden="1" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4709,7 +4709,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" ht="15.75" spans="1:7">
+    <row r="112" ht="15.75" hidden="1" spans="1:7">
       <c r="A112" s="19"/>
       <c r="B112" s="20" t="s">
         <v>328</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" spans="1:7">
+    <row r="113" ht="15.75" hidden="1" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
         <v>331</v>
@@ -12307,6 +12307,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F113" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MILOUA-2"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A1:F113">
       <sortCondition ref="D1:D109"/>
     </sortState>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="374">
   <si>
     <t>N°</t>
   </si>
@@ -78,1078 +78,1081 @@
     <t>WESSIM</t>
   </si>
   <si>
+    <t>aksa86wessim@gmail.com</t>
+  </si>
+  <si>
+    <t>ARDJOUN</t>
+  </si>
+  <si>
+    <t>SID AHMED</t>
+  </si>
+  <si>
+    <t>ardjoun.s.e.m@gmail.com</t>
+  </si>
+  <si>
+    <t>AYAD</t>
+  </si>
+  <si>
+    <t>ABDELGHANI</t>
+  </si>
+  <si>
+    <t>ayad_abdelghani@yahoo.fr</t>
+  </si>
+  <si>
+    <t>AZAIZ</t>
+  </si>
+  <si>
+    <t>AHMED</t>
+  </si>
+  <si>
+    <t>ahazaiz2011@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BADIS</t>
+  </si>
+  <si>
+    <t>KARIMA</t>
+  </si>
+  <si>
+    <t>MCB</t>
+  </si>
+  <si>
+    <t>karis483@hotmail.fr</t>
+  </si>
+  <si>
+    <t>BAHLIL</t>
+  </si>
+  <si>
+    <t>MOUNIR</t>
+  </si>
+  <si>
+    <t>bahlilmounir@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BECHEKIR</t>
+  </si>
+  <si>
+    <t>SEYFEDDINE</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>seyfeddine.electrotechnique@gmail.com</t>
+  </si>
+  <si>
+    <t>BELLEBNA</t>
+  </si>
+  <si>
+    <t>YASSINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yassinebellebna@yahoo.fr </t>
+  </si>
+  <si>
+    <t>BENAISSA</t>
+  </si>
+  <si>
+    <t>ABDELKADER</t>
+  </si>
+  <si>
+    <t>aek_benaissa@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENBALIL</t>
+  </si>
+  <si>
+    <t>NADJAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nn.nn.phy.chi@gmail.com </t>
+  </si>
+  <si>
+    <t>BENDAOUD</t>
+  </si>
+  <si>
+    <t>ABDELBER</t>
+  </si>
+  <si>
+    <t>babdelber22@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENDIMERAD</t>
+  </si>
+  <si>
+    <t>SALAH EDDINE</t>
+  </si>
+  <si>
+    <t>s_bendimerad@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENGRIT</t>
+  </si>
+  <si>
+    <t>MALIKA</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>malikabengrit@gmail.com</t>
+  </si>
+  <si>
+    <t>BENHAMIDA</t>
+  </si>
+  <si>
+    <t>FARID</t>
+  </si>
+  <si>
+    <t>farid.benhamida@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENTAALLAH</t>
+  </si>
+  <si>
+    <t>ABDERRAHIM</t>
+  </si>
+  <si>
+    <t>bentaallah65@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BERMAKI</t>
+  </si>
+  <si>
+    <t>HAMZA</t>
+  </si>
+  <si>
+    <t>bermaki.hamza@gmail.com</t>
+  </si>
+  <si>
+    <t>BOUKHOULDA</t>
+  </si>
+  <si>
+    <t>FODIL</t>
+  </si>
+  <si>
+    <t>boukhoulda.fodil@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BOUNOUA</t>
+  </si>
+  <si>
+    <t>HOURIA</t>
+  </si>
+  <si>
+    <t>hsemmach@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BRAHAMI</t>
+  </si>
+  <si>
+    <t>MOSTEFA</t>
+  </si>
+  <si>
+    <t>mbrahami@yahoo.com</t>
+  </si>
+  <si>
+    <t>NADJIB</t>
+  </si>
+  <si>
+    <t>nadjbrahami@gmail.com</t>
+  </si>
+  <si>
+    <t>DJERIRI</t>
+  </si>
+  <si>
+    <t>YOUCEF</t>
+  </si>
+  <si>
+    <t>djeriri_youcef@yahoo.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djeriri_youcef@yahoo.fr </t>
+  </si>
+  <si>
+    <t>FELLAH</t>
+  </si>
+  <si>
+    <t>mkfellah@gmail.com</t>
+  </si>
+  <si>
+    <t>GHEZAL</t>
+  </si>
+  <si>
+    <t>FATIHA</t>
+  </si>
+  <si>
+    <t>nour73_fac@yahoo.fr</t>
+  </si>
+  <si>
+    <t>HADJERI</t>
+  </si>
+  <si>
+    <t>SAMIR</t>
+  </si>
+  <si>
+    <t>shadjeri2@yahoo.fr</t>
+  </si>
+  <si>
+    <t>HANAFI</t>
+  </si>
+  <si>
+    <t>SALAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sal_hanafi@outlook.com </t>
+  </si>
+  <si>
+    <t>HASSANI</t>
+  </si>
+  <si>
+    <t>NAIMA</t>
+  </si>
+  <si>
+    <t>naimahassani69@yahoo.fr</t>
+  </si>
+  <si>
+    <t>JBILOU</t>
+  </si>
+  <si>
+    <t>MOKHTARIA</t>
+  </si>
+  <si>
+    <t>harmel71@yahoo.fr</t>
+  </si>
+  <si>
+    <t>KHATIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">med_khatir@yahoo.fr </t>
+  </si>
+  <si>
+    <t>LALEDJ</t>
+  </si>
+  <si>
+    <t>NADJET</t>
+  </si>
+  <si>
+    <t>nadjet_69@hotmail.fr</t>
+  </si>
+  <si>
+    <t>MAAMMAR</t>
+  </si>
+  <si>
+    <t>mohamed.maammar@gmail.com</t>
+  </si>
+  <si>
+    <t>MASSOUM</t>
+  </si>
+  <si>
+    <t>ahmassoum@yahoo.fr</t>
+  </si>
+  <si>
+    <t>MILOUA</t>
+  </si>
+  <si>
+    <t>milouafarid@gmail.com</t>
+  </si>
+  <si>
+    <t>MILOUDI</t>
+  </si>
+  <si>
+    <t>HOUCINE</t>
+  </si>
+  <si>
+    <t>el.houcine@yahoo.fr</t>
+  </si>
+  <si>
+    <t>MIMOUNI</t>
+  </si>
+  <si>
+    <t>CHAHINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mimounichahinez@gmail.com </t>
+  </si>
+  <si>
+    <t>NACERI</t>
+  </si>
+  <si>
+    <t>ABDELLATIF</t>
+  </si>
+  <si>
+    <t>abdnaceri@yahoo.fr</t>
+  </si>
+  <si>
+    <t>NASSOUR</t>
+  </si>
+  <si>
+    <t>KAMEL</t>
+  </si>
+  <si>
+    <t>nass_ka@yahoo.fr</t>
+  </si>
+  <si>
+    <t>NEMMICH</t>
+  </si>
+  <si>
+    <t>SAID</t>
+  </si>
+  <si>
+    <t>nemmichsaid@gmail.com</t>
+  </si>
+  <si>
+    <t>OUKLI</t>
+  </si>
+  <si>
+    <t>MIMOUNA</t>
+  </si>
+  <si>
+    <t>mounaoukli@yahoo.fr</t>
+  </si>
+  <si>
+    <t>RAMI</t>
+  </si>
+  <si>
+    <t>abc_rim20052003@yahoo.fr</t>
+  </si>
+  <si>
+    <t>REZOUG</t>
+  </si>
+  <si>
+    <t>MOHAMMED</t>
+  </si>
+  <si>
+    <t>rezoug.med@gmail.com</t>
+  </si>
+  <si>
+    <t>SAHALI</t>
+  </si>
+  <si>
+    <t>YAMINA</t>
+  </si>
+  <si>
+    <t>ya_sahali@yahoo.fr</t>
+  </si>
+  <si>
+    <t>SEMMAH</t>
+  </si>
+  <si>
+    <t>ABDELHAFID</t>
+  </si>
+  <si>
+    <t>hafid.semmah@yahoo.fr</t>
+  </si>
+  <si>
+    <t>TABET DERRAZ</t>
+  </si>
+  <si>
+    <t>HIND</t>
+  </si>
+  <si>
+    <t>htabet05@yahoo.fr</t>
+  </si>
+  <si>
+    <t>TILMATINE</t>
+  </si>
+  <si>
+    <t>AMAR</t>
+  </si>
+  <si>
+    <t>atilmatine@gmail.com</t>
+  </si>
+  <si>
+    <t>TOUHAMI</t>
+  </si>
+  <si>
+    <t>SEDDIK</t>
+  </si>
+  <si>
+    <t>seddik.touhami@gmail.com</t>
+  </si>
+  <si>
+    <t>ZEBLAH</t>
+  </si>
+  <si>
+    <t>azeblah@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ZENASNI</t>
+  </si>
+  <si>
+    <t>MERIEM</t>
+  </si>
+  <si>
+    <t>zenasnimeriem29@gmail.com</t>
+  </si>
+  <si>
+    <t>MOUNYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zenasni_mounya@yahoo.fr </t>
+  </si>
+  <si>
+    <t>ZIDI</t>
+  </si>
+  <si>
+    <t>sbzidi@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ABBES</t>
+  </si>
+  <si>
+    <t>Vacataire</t>
+  </si>
+  <si>
+    <t>abbasmohammed@gmail.com</t>
+  </si>
+  <si>
+    <t>ABDELLI</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>ABED</t>
+  </si>
+  <si>
+    <t>ZOULIKHA</t>
+  </si>
+  <si>
+    <t>zoulikhaabed3@gmail.com</t>
+  </si>
+  <si>
+    <t>AISSANI</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>aliaissani97@gmail.com</t>
+  </si>
+  <si>
+    <t>ARAB</t>
+  </si>
+  <si>
+    <t>ABDELMADJID</t>
+  </si>
+  <si>
+    <t>arab4abdelmajid@gmail</t>
+  </si>
+  <si>
+    <t>AREZKI</t>
+  </si>
+  <si>
+    <t>MOUFOK</t>
+  </si>
+  <si>
+    <t>mohamedmoufak308</t>
+  </si>
+  <si>
+    <t>06 97 05 81 64</t>
+  </si>
+  <si>
+    <t>AZZA</t>
+  </si>
+  <si>
+    <t>ROMAISSA FATIMA ZOHRA</t>
+  </si>
+  <si>
+    <t>BELABED</t>
+  </si>
+  <si>
+    <t>meriembelabed5@gmail.com</t>
+  </si>
+  <si>
+    <t>BELHABRI</t>
+  </si>
+  <si>
+    <t>RIHAB</t>
+  </si>
+  <si>
+    <t>ri123hab@gmail.com</t>
+  </si>
+  <si>
+    <t>05540755 89</t>
+  </si>
+  <si>
+    <t>BELHALOUCHE</t>
+  </si>
+  <si>
+    <t>LAKHDAR</t>
+  </si>
+  <si>
+    <t>lakhdar_belhallouche@hotmail.fr</t>
+  </si>
+  <si>
+    <t>BENCELLA</t>
+  </si>
+  <si>
+    <t>SARRA</t>
+  </si>
+  <si>
+    <t>sarrabencella@gmail.com</t>
+  </si>
+  <si>
+    <t>BENDIDA</t>
+  </si>
+  <si>
+    <t>bendida65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 50 59 52 24 </t>
+  </si>
+  <si>
+    <t>BENKABOU</t>
+  </si>
+  <si>
+    <t>MOHAMED EL HABIB</t>
+  </si>
+  <si>
+    <t>bkbhbb22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 62 15 65 63 </t>
+  </si>
+  <si>
+    <t>BENMASOUD</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>l.benmessaoud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENSALEM</t>
+  </si>
+  <si>
+    <t>RITEDJ INES</t>
+  </si>
+  <si>
+    <t>rawnakritedj@gmail.com</t>
+  </si>
+  <si>
+    <t>BERROUNA</t>
+  </si>
+  <si>
+    <t>HANANEEL</t>
+  </si>
+  <si>
+    <t>berhenen@yahoo.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 71 74 58 06 </t>
+  </si>
+  <si>
+    <t>BOUBKEUR</t>
+  </si>
+  <si>
+    <t>HALIMA</t>
+  </si>
+  <si>
+    <t>boubkeurhalima97sba@gmail.com</t>
+  </si>
+  <si>
+    <t>06 74 50 65 01</t>
+  </si>
+  <si>
+    <t>BOUKHARI</t>
+  </si>
+  <si>
+    <t>SOUMIA</t>
+  </si>
+  <si>
+    <t>boukhari_sf@yahoo.com</t>
+  </si>
+  <si>
+    <t>BOULARAF</t>
+  </si>
+  <si>
+    <t>AICHA</t>
+  </si>
+  <si>
+    <t>douaaboularaf@gmail.com</t>
+  </si>
+  <si>
+    <t>CHIKHI</t>
+  </si>
+  <si>
+    <t>NAWEL</t>
+  </si>
+  <si>
+    <t>chikhi nawel75@yahoo.fr</t>
+  </si>
+  <si>
+    <t>06 75 33 80 01</t>
+  </si>
+  <si>
+    <t>DELLOUM</t>
+  </si>
+  <si>
+    <t>AMIRA</t>
+  </si>
+  <si>
+    <t>amirad elloum28@ gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 54 96 88 33 </t>
+  </si>
+  <si>
+    <t>DJELLOULI</t>
+  </si>
+  <si>
+    <t>YOUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
+  </si>
+  <si>
+    <t>ABDERRAHMANE</t>
+  </si>
+  <si>
+    <t>djellouli7abderrahmane@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 80 29 68 02 </t>
+  </si>
+  <si>
+    <t>DJIZIRI</t>
+  </si>
+  <si>
+    <t>soumiadjiziri22@gmail.com</t>
+  </si>
+  <si>
+    <t>DRICI</t>
+  </si>
+  <si>
+    <t>LAMIA</t>
+  </si>
+  <si>
+    <t>Lamia_du22@hotmail.com</t>
+  </si>
+  <si>
+    <t>DRIF</t>
+  </si>
+  <si>
+    <t>FAIZA</t>
+  </si>
+  <si>
+    <t>ELGHODASSE</t>
+  </si>
+  <si>
+    <t>ABDEL MADJID</t>
+  </si>
+  <si>
+    <t>elghodasseabdelmadjid@gmail.com</t>
+  </si>
+  <si>
+    <t>FENTAZY</t>
+  </si>
+  <si>
+    <t>BELKISSE</t>
+  </si>
+  <si>
+    <t>fantazibelkisse.13@gmail.com</t>
+  </si>
+  <si>
+    <t>FEZAZI</t>
+  </si>
+  <si>
+    <t>KHADIDJA</t>
+  </si>
+  <si>
+    <t>khadidjafezazi90@gmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06660791 28 </t>
+  </si>
+  <si>
+    <t>GHALEM</t>
+  </si>
+  <si>
+    <t>ABDELHAK</t>
+  </si>
+  <si>
+    <t>ghalem.abdelhak@yahoo.com</t>
+  </si>
+  <si>
+    <t>HADER</t>
+  </si>
+  <si>
+    <t>aer.hader91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 41 0044 75 </t>
+  </si>
+  <si>
+    <t>HAMMAR</t>
+  </si>
+  <si>
+    <t>MEHDI</t>
+  </si>
+  <si>
+    <t>protoboy9999@gmail.com</t>
+  </si>
+  <si>
+    <t>KADA ZAIR</t>
+  </si>
+  <si>
+    <t>IKRAM</t>
+  </si>
+  <si>
+    <t>ikram.kadazair@gmail.com</t>
+  </si>
+  <si>
+    <t>KADRI</t>
+  </si>
+  <si>
+    <t>RANIA</t>
+  </si>
+  <si>
+    <t>kadrirania51@gmail.com</t>
+  </si>
+  <si>
+    <t>KHELEF</t>
+  </si>
+  <si>
+    <t>KADDA</t>
+  </si>
+  <si>
+    <t>LATRECHE</t>
+  </si>
+  <si>
+    <t>MOKHTAR</t>
+  </si>
+  <si>
+    <t>m_latreche@yahoo.com</t>
+  </si>
+  <si>
+    <t>LAYATI</t>
+  </si>
+  <si>
+    <t>TAYEB MEHDI</t>
+  </si>
+  <si>
+    <t>layatimedi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06964431 32   </t>
+  </si>
+  <si>
+    <t>LOUSDAD</t>
+  </si>
+  <si>
+    <t>AYMEN</t>
+  </si>
+  <si>
+    <t>lousdadaymen.aziz@gmail.com</t>
+  </si>
+  <si>
+    <t>MAHKOUKA</t>
+  </si>
+  <si>
+    <t>ZAZA</t>
+  </si>
+  <si>
+    <t>mahkouka.zaza@gmail.com</t>
+  </si>
+  <si>
+    <t>MANSOURI</t>
+  </si>
+  <si>
+    <t>ABDERRAZAK</t>
+  </si>
+  <si>
+    <t>MECHETTEM</t>
+  </si>
+  <si>
+    <t>KHALIDA</t>
+  </si>
+  <si>
+    <t>khalidamet4@gmail.com</t>
+  </si>
+  <si>
+    <t>MEKHALEF</t>
+  </si>
+  <si>
+    <t>mekhalefleila@gmail.com</t>
+  </si>
+  <si>
+    <t>MERADJAH</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>MESLEM</t>
+  </si>
+  <si>
+    <t>MEHADJIA</t>
+  </si>
+  <si>
+    <t>mehadjiameslem@gmail.com</t>
+  </si>
+  <si>
+    <t>MESTARI</t>
+  </si>
+  <si>
+    <t>WAHIBA</t>
+  </si>
+  <si>
+    <t>wahibaelmestarii@gmail.com</t>
+  </si>
+  <si>
+    <t>FETHIMILOUA</t>
+  </si>
+  <si>
+    <t>FETHI</t>
+  </si>
+  <si>
+    <t>fethi22miloua@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0664 31 52 76 </t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>KHELIFA</t>
+  </si>
+  <si>
+    <t>khelifa-mir@outlook.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 69 59 78 39 </t>
+  </si>
+  <si>
+    <t>MOKADEM</t>
+  </si>
+  <si>
+    <t>AMINA</t>
+  </si>
+  <si>
+    <t>mokeddem.amina2222@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06564287 15 </t>
+  </si>
+  <si>
+    <t>MOULAY</t>
+  </si>
+  <si>
+    <t>MILOUD</t>
+  </si>
+  <si>
+    <t>mmiloud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>NEFAHA</t>
+  </si>
+  <si>
+    <t>ABOUBAKR</t>
+  </si>
+  <si>
+    <t>Boba1620@hotmail.com</t>
+  </si>
+  <si>
+    <t>REDJALA</t>
+  </si>
+  <si>
+    <t>MAJDA</t>
+  </si>
+  <si>
+    <t>majdaredjala1492@gmail.com</t>
+  </si>
+  <si>
+    <t>05 53 64 47 91</t>
+  </si>
+  <si>
+    <t>SACI</t>
+  </si>
+  <si>
+    <t>sacihamza40@gmail.com</t>
+  </si>
+  <si>
+    <t>TURKI</t>
+  </si>
+  <si>
+    <t>BILAL MEROUANE</t>
+  </si>
+  <si>
+    <t>turkibilal22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 55 20 68 65 </t>
+  </si>
+  <si>
+    <t>ZAREB</t>
+  </si>
+  <si>
+    <t>zarebmohamedamine@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 74 68 05 35 </t>
+  </si>
+  <si>
+    <t>ZERDANI</t>
+  </si>
+  <si>
+    <t>medzerdani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 60 15 22 65 </t>
+  </si>
+  <si>
+    <t>ZIANI</t>
+  </si>
+  <si>
+    <t>DJAMEL</t>
+  </si>
+  <si>
+    <t>ZIDI-2</t>
+  </si>
+  <si>
+    <t>LARBI</t>
+  </si>
+  <si>
+    <t>larbi.zidi6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 92 12 03 38 </t>
+  </si>
+  <si>
+    <t>RAIS</t>
+  </si>
+  <si>
+    <t>ABDELMAJID</t>
+  </si>
+  <si>
+    <t>amrais@yahoo.com</t>
+  </si>
+  <si>
+    <t>REGUIG</t>
+  </si>
+  <si>
+    <t>ABDELDJALIL</t>
+  </si>
+  <si>
+    <t>abdeldjalil.reguig@outlook.com</t>
+  </si>
+  <si>
+    <t>CYCLE</t>
+  </si>
+  <si>
+    <t>PROMOTION</t>
+  </si>
+  <si>
+    <t>HORAIRE</t>
+  </si>
+  <si>
+    <t>RÉPARTITION (GROUPES / SALLES)</t>
+  </si>
+  <si>
+    <t>INGÉNIEUR</t>
+  </si>
+  <si>
+    <t>ING1</t>
+  </si>
+  <si>
+    <t>13h30 – 15h30</t>
+  </si>
+  <si>
+    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
+  </si>
+  <si>
+    <t>ING2</t>
+  </si>
+  <si>
+    <t>11h00 – 13h00</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08 BIS</t>
+  </si>
+  <si>
+    <t>ING3-EI</t>
+  </si>
+  <si>
+    <t>08h30 – 10h30</t>
+  </si>
+  <si>
+    <t>Promotion entière : SN</t>
+  </si>
+  <si>
+    <t>ING3-TM</t>
+  </si>
+  <si>
+    <t>Promotion entière : A10</t>
+  </si>
+  <si>
+    <t>ING4-CI</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 14</t>
+  </si>
+  <si>
+    <t>LICENCE</t>
+  </si>
+  <si>
+    <t>L2ELT</t>
+  </si>
+  <si>
+    <t>G1: A8 / G2: A9 / G3: A12</t>
+  </si>
+  <si>
+    <t>L3ELT</t>
+  </si>
+  <si>
+    <t>MASTER / MCIL</t>
+  </si>
+  <si>
+    <t>MCIL1</t>
+  </si>
+  <si>
+    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
+  </si>
+  <si>
+    <t>MCIL2</t>
+  </si>
+  <si>
+    <t>G1+G2: A10, G3: S02, G4: S06</t>
+  </si>
+  <si>
+    <t>MCIL3</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 01</t>
+  </si>
+  <si>
+    <t>M1CE</t>
+  </si>
+  <si>
+    <t>M1ER</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 06</t>
+  </si>
+  <si>
+    <t>M1ME</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08</t>
+  </si>
+  <si>
+    <t>M1MCIL</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 02</t>
+  </si>
+  <si>
+    <t>M1RE</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 04</t>
+  </si>
+  <si>
     <t>wpierlo@hotmail.fr</t>
-  </si>
-  <si>
-    <t>ARDJOUN</t>
-  </si>
-  <si>
-    <t>SID AHMED</t>
-  </si>
-  <si>
-    <t>ardjoun.s.e.m@gmail.com</t>
-  </si>
-  <si>
-    <t>AYAD</t>
-  </si>
-  <si>
-    <t>ABDELGHANI</t>
-  </si>
-  <si>
-    <t>ayad_abdelghani@yahoo.fr</t>
-  </si>
-  <si>
-    <t>AZAIZ</t>
-  </si>
-  <si>
-    <t>AHMED</t>
-  </si>
-  <si>
-    <t>ahazaiz2011@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BADIS</t>
-  </si>
-  <si>
-    <t>KARIMA</t>
-  </si>
-  <si>
-    <t>MCB</t>
-  </si>
-  <si>
-    <t>karis483@hotmail.fr</t>
-  </si>
-  <si>
-    <t>BAHLIL</t>
-  </si>
-  <si>
-    <t>MOUNIR</t>
-  </si>
-  <si>
-    <t>bahlilmounir@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BECHEKIR</t>
-  </si>
-  <si>
-    <t>SEYFEDDINE</t>
-  </si>
-  <si>
-    <t>MCA</t>
-  </si>
-  <si>
-    <t>seyfeddine.electrotechnique@gmail.com</t>
-  </si>
-  <si>
-    <t>BELLEBNA</t>
-  </si>
-  <si>
-    <t>YASSINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yassinebellebna@yahoo.fr </t>
-  </si>
-  <si>
-    <t>BENAISSA</t>
-  </si>
-  <si>
-    <t>ABDELKADER</t>
-  </si>
-  <si>
-    <t>aek_benaissa@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENBALIL</t>
-  </si>
-  <si>
-    <t>NADJAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nn.nn.phy.chi@gmail.com </t>
-  </si>
-  <si>
-    <t>BENDAOUD</t>
-  </si>
-  <si>
-    <t>ABDELBER</t>
-  </si>
-  <si>
-    <t>babdelber22@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENDIMERAD</t>
-  </si>
-  <si>
-    <t>SALAH EDDINE</t>
-  </si>
-  <si>
-    <t>s_bendimerad@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENGRIT</t>
-  </si>
-  <si>
-    <t>MALIKA</t>
-  </si>
-  <si>
-    <t>MAA</t>
-  </si>
-  <si>
-    <t>malikabengrit@gmail.com</t>
-  </si>
-  <si>
-    <t>BENHAMIDA</t>
-  </si>
-  <si>
-    <t>FARID</t>
-  </si>
-  <si>
-    <t>farid.benhamida@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENTAALLAH</t>
-  </si>
-  <si>
-    <t>ABDERRAHIM</t>
-  </si>
-  <si>
-    <t>bentaallah65@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BERMAKI</t>
-  </si>
-  <si>
-    <t>HAMZA</t>
-  </si>
-  <si>
-    <t>bermaki.hamza@gmail.com</t>
-  </si>
-  <si>
-    <t>BOUKHOULDA</t>
-  </si>
-  <si>
-    <t>FODIL</t>
-  </si>
-  <si>
-    <t>boukhoulda.fodil@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BOUNOUA</t>
-  </si>
-  <si>
-    <t>HOURIA</t>
-  </si>
-  <si>
-    <t>hsemmach@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BRAHAMI</t>
-  </si>
-  <si>
-    <t>MOSTEFA</t>
-  </si>
-  <si>
-    <t>mbrahami@yahoo.com</t>
-  </si>
-  <si>
-    <t>NADJIB</t>
-  </si>
-  <si>
-    <t>nadjbrahami@gmail.com</t>
-  </si>
-  <si>
-    <t>DJERIRI</t>
-  </si>
-  <si>
-    <t>YOUCEF</t>
-  </si>
-  <si>
-    <t>djeriri_youcef@yahoo.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djeriri_youcef@yahoo.fr </t>
-  </si>
-  <si>
-    <t>FELLAH</t>
-  </si>
-  <si>
-    <t>mkfellah@gmail.com</t>
-  </si>
-  <si>
-    <t>GHEZAL</t>
-  </si>
-  <si>
-    <t>FATIHA</t>
-  </si>
-  <si>
-    <t>nour73_fac@yahoo.fr</t>
-  </si>
-  <si>
-    <t>HADJERI</t>
-  </si>
-  <si>
-    <t>SAMIR</t>
-  </si>
-  <si>
-    <t>shadjeri2@yahoo.fr</t>
-  </si>
-  <si>
-    <t>HANAFI</t>
-  </si>
-  <si>
-    <t>SALAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sal_hanafi@outlook.com </t>
-  </si>
-  <si>
-    <t>HASSANI</t>
-  </si>
-  <si>
-    <t>NAIMA</t>
-  </si>
-  <si>
-    <t>naimahassani69@yahoo.fr</t>
-  </si>
-  <si>
-    <t>JBILOU</t>
-  </si>
-  <si>
-    <t>MOKHTARIA</t>
-  </si>
-  <si>
-    <t>harmel71@yahoo.fr</t>
-  </si>
-  <si>
-    <t>KHATIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">med_khatir@yahoo.fr </t>
-  </si>
-  <si>
-    <t>LALEDJ</t>
-  </si>
-  <si>
-    <t>NADJET</t>
-  </si>
-  <si>
-    <t>nadjet_69@hotmail.fr</t>
-  </si>
-  <si>
-    <t>MAAMMAR</t>
-  </si>
-  <si>
-    <t>mohamed.maammar@gmail.com</t>
-  </si>
-  <si>
-    <t>MASSOUM</t>
-  </si>
-  <si>
-    <t>ahmassoum@yahoo.fr</t>
-  </si>
-  <si>
-    <t>MILOUA</t>
-  </si>
-  <si>
-    <t>milouafarid@gmail.com</t>
-  </si>
-  <si>
-    <t>MILOUDI</t>
-  </si>
-  <si>
-    <t>HOUCINE</t>
-  </si>
-  <si>
-    <t>el.houcine@yahoo.fr</t>
-  </si>
-  <si>
-    <t>MIMOUNI</t>
-  </si>
-  <si>
-    <t>CHAHINEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mimounichahinez@gmail.com </t>
-  </si>
-  <si>
-    <t>NACERI</t>
-  </si>
-  <si>
-    <t>ABDELLATIF</t>
-  </si>
-  <si>
-    <t>abdnaceri@yahoo.fr</t>
-  </si>
-  <si>
-    <t>NASSOUR</t>
-  </si>
-  <si>
-    <t>KAMEL</t>
-  </si>
-  <si>
-    <t>nass_ka@yahoo.fr</t>
-  </si>
-  <si>
-    <t>NEMMICH</t>
-  </si>
-  <si>
-    <t>SAID</t>
-  </si>
-  <si>
-    <t>nemmichsaid@gmail.com</t>
-  </si>
-  <si>
-    <t>OUKLI</t>
-  </si>
-  <si>
-    <t>MIMOUNA</t>
-  </si>
-  <si>
-    <t>mounaoukli@yahoo.fr</t>
-  </si>
-  <si>
-    <t>RAMI</t>
-  </si>
-  <si>
-    <t>abc_rim20052003@yahoo.fr</t>
-  </si>
-  <si>
-    <t>REZOUG</t>
-  </si>
-  <si>
-    <t>MOHAMMED</t>
-  </si>
-  <si>
-    <t>rezoug.med@gmail.com</t>
-  </si>
-  <si>
-    <t>SAHALI</t>
-  </si>
-  <si>
-    <t>YAMINA</t>
-  </si>
-  <si>
-    <t>ya_sahali@yahoo.fr</t>
-  </si>
-  <si>
-    <t>SEMMAH</t>
-  </si>
-  <si>
-    <t>ABDELHAFID</t>
-  </si>
-  <si>
-    <t>hafid.semmah@yahoo.fr</t>
-  </si>
-  <si>
-    <t>TABET DERRAZ</t>
-  </si>
-  <si>
-    <t>HIND</t>
-  </si>
-  <si>
-    <t>htabet05@yahoo.fr</t>
-  </si>
-  <si>
-    <t>TILMATINE</t>
-  </si>
-  <si>
-    <t>AMAR</t>
-  </si>
-  <si>
-    <t>atilmatine@gmail.com</t>
-  </si>
-  <si>
-    <t>TOUHAMI</t>
-  </si>
-  <si>
-    <t>SEDDIK</t>
-  </si>
-  <si>
-    <t>seddik.touhami@gmail.com</t>
-  </si>
-  <si>
-    <t>ZEBLAH</t>
-  </si>
-  <si>
-    <t>azeblah@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ZENASNI</t>
-  </si>
-  <si>
-    <t>MERIEM</t>
-  </si>
-  <si>
-    <t>zenasnimeriem29@gmail.com</t>
-  </si>
-  <si>
-    <t>MOUNYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenasni_mounya@yahoo.fr </t>
-  </si>
-  <si>
-    <t>ZIDI</t>
-  </si>
-  <si>
-    <t>sbzidi@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ABBES</t>
-  </si>
-  <si>
-    <t>Vacataire</t>
-  </si>
-  <si>
-    <t>abbasmohammed@gmail.com</t>
-  </si>
-  <si>
-    <t>ABDELLI</t>
-  </si>
-  <si>
-    <t>MAMA</t>
-  </si>
-  <si>
-    <t>ABED</t>
-  </si>
-  <si>
-    <t>ZOULIKHA</t>
-  </si>
-  <si>
-    <t>zoulikhaabed3@gmail.com</t>
-  </si>
-  <si>
-    <t>AISSANI</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>aliaissani97@gmail.com</t>
-  </si>
-  <si>
-    <t>ARAB</t>
-  </si>
-  <si>
-    <t>ABDELMADJID</t>
-  </si>
-  <si>
-    <t>arab4abdelmajid@gmail</t>
-  </si>
-  <si>
-    <t>AREZKI</t>
-  </si>
-  <si>
-    <t>MOUFOK</t>
-  </si>
-  <si>
-    <t>mohamedmoufak308</t>
-  </si>
-  <si>
-    <t>06 97 05 81 64</t>
-  </si>
-  <si>
-    <t>AZZA</t>
-  </si>
-  <si>
-    <t>ROMAISSA FATIMA ZOHRA</t>
-  </si>
-  <si>
-    <t>BELABED</t>
-  </si>
-  <si>
-    <t>meriembelabed5@gmail.com</t>
-  </si>
-  <si>
-    <t>BELHABRI</t>
-  </si>
-  <si>
-    <t>RIHAB</t>
-  </si>
-  <si>
-    <t>ri123hab@gmail.com</t>
-  </si>
-  <si>
-    <t>05540755 89</t>
-  </si>
-  <si>
-    <t>BELHALOUCHE</t>
-  </si>
-  <si>
-    <t>LAKHDAR</t>
-  </si>
-  <si>
-    <t>lakhdar_belhallouche@hotmail.fr</t>
-  </si>
-  <si>
-    <t>BENCELLA</t>
-  </si>
-  <si>
-    <t>SARRA</t>
-  </si>
-  <si>
-    <t>sarrabencella@gmail.com</t>
-  </si>
-  <si>
-    <t>BENDIDA</t>
-  </si>
-  <si>
-    <t>bendida65@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 50 59 52 24 </t>
-  </si>
-  <si>
-    <t>BENKABOU</t>
-  </si>
-  <si>
-    <t>MOHAMED EL HABIB</t>
-  </si>
-  <si>
-    <t>bkbhbb22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 62 15 65 63 </t>
-  </si>
-  <si>
-    <t>BENMASOUD</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>l.benmessaoud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENSALEM</t>
-  </si>
-  <si>
-    <t>RITEDJ INES</t>
-  </si>
-  <si>
-    <t>rawnakritedj@gmail.com</t>
-  </si>
-  <si>
-    <t>BERROUNA</t>
-  </si>
-  <si>
-    <t>HANANEEL</t>
-  </si>
-  <si>
-    <t>berhenen@yahoo.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 71 74 58 06 </t>
-  </si>
-  <si>
-    <t>BOUBKEUR</t>
-  </si>
-  <si>
-    <t>HALIMA</t>
-  </si>
-  <si>
-    <t>boubkeurhalima97sba@gmail.com</t>
-  </si>
-  <si>
-    <t>06 74 50 65 01</t>
-  </si>
-  <si>
-    <t>BOUKHARI</t>
-  </si>
-  <si>
-    <t>SOUMIA</t>
-  </si>
-  <si>
-    <t>boukhari_sf@yahoo.com</t>
-  </si>
-  <si>
-    <t>BOULARAF</t>
-  </si>
-  <si>
-    <t>AICHA</t>
-  </si>
-  <si>
-    <t>douaaboularaf@gmail.com</t>
-  </si>
-  <si>
-    <t>CHIKHI</t>
-  </si>
-  <si>
-    <t>NAWEL</t>
-  </si>
-  <si>
-    <t>chikhi nawel75@yahoo.fr</t>
-  </si>
-  <si>
-    <t>06 75 33 80 01</t>
-  </si>
-  <si>
-    <t>DELLOUM</t>
-  </si>
-  <si>
-    <t>AMIRA</t>
-  </si>
-  <si>
-    <t>amirad elloum28@ gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 54 96 88 33 </t>
-  </si>
-  <si>
-    <t>DJELLOULI</t>
-  </si>
-  <si>
-    <t>YOUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
-  </si>
-  <si>
-    <t>ABDERRAHMANE</t>
-  </si>
-  <si>
-    <t>djellouli7abderrahmane@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 80 29 68 02 </t>
-  </si>
-  <si>
-    <t>DJIZIRI</t>
-  </si>
-  <si>
-    <t>soumiadjiziri22@gmail.com</t>
-  </si>
-  <si>
-    <t>DRICI</t>
-  </si>
-  <si>
-    <t>LAMIA</t>
-  </si>
-  <si>
-    <t>Lamia_du22@hotmail.com</t>
-  </si>
-  <si>
-    <t>DRIF</t>
-  </si>
-  <si>
-    <t>FAIZA</t>
-  </si>
-  <si>
-    <t>ELGHODASSE</t>
-  </si>
-  <si>
-    <t>ABDEL MADJID</t>
-  </si>
-  <si>
-    <t>elghodasseabdelmadjid@gmail.com</t>
-  </si>
-  <si>
-    <t>FENTAZY</t>
-  </si>
-  <si>
-    <t>BELKISSE</t>
-  </si>
-  <si>
-    <t>fantazibelkisse.13@gmail.com</t>
-  </si>
-  <si>
-    <t>FEZAZI</t>
-  </si>
-  <si>
-    <t>KHADIDJA</t>
-  </si>
-  <si>
-    <t>khadidjafezazi90@gmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06660791 28 </t>
-  </si>
-  <si>
-    <t>GHALEM</t>
-  </si>
-  <si>
-    <t>ABDELHAK</t>
-  </si>
-  <si>
-    <t>ghalem.abdelhak@yahoo.com</t>
-  </si>
-  <si>
-    <t>HADER</t>
-  </si>
-  <si>
-    <t>aer.hader91@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 41 0044 75 </t>
-  </si>
-  <si>
-    <t>HAMMAR</t>
-  </si>
-  <si>
-    <t>MEHDI</t>
-  </si>
-  <si>
-    <t>protoboy9999@gmail.com</t>
-  </si>
-  <si>
-    <t>KADA ZAIR</t>
-  </si>
-  <si>
-    <t>IKRAM</t>
-  </si>
-  <si>
-    <t>ikram.kadazair@gmail.com</t>
-  </si>
-  <si>
-    <t>KADRI</t>
-  </si>
-  <si>
-    <t>RANIA</t>
-  </si>
-  <si>
-    <t>kadrirania51@gmail.com</t>
-  </si>
-  <si>
-    <t>KHELEF</t>
-  </si>
-  <si>
-    <t>KADDA</t>
-  </si>
-  <si>
-    <t>LATRECHE</t>
-  </si>
-  <si>
-    <t>MOKHTAR</t>
-  </si>
-  <si>
-    <t>m_latreche@yahoo.com</t>
-  </si>
-  <si>
-    <t>LAYATI</t>
-  </si>
-  <si>
-    <t>TAYEB MEHDI</t>
-  </si>
-  <si>
-    <t>layatimedi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06964431 32   </t>
-  </si>
-  <si>
-    <t>LOUSDAD</t>
-  </si>
-  <si>
-    <t>AYMEN</t>
-  </si>
-  <si>
-    <t>lousdadaymen.aziz@gmail.com</t>
-  </si>
-  <si>
-    <t>MAHKOUKA</t>
-  </si>
-  <si>
-    <t>ZAZA</t>
-  </si>
-  <si>
-    <t>mahkouka.zaza@gmail.com</t>
-  </si>
-  <si>
-    <t>MANSOURI</t>
-  </si>
-  <si>
-    <t>ABDERRAZAK</t>
-  </si>
-  <si>
-    <t>MECHETTEM</t>
-  </si>
-  <si>
-    <t>KHALIDA</t>
-  </si>
-  <si>
-    <t>khalidamet4@gmail.com</t>
-  </si>
-  <si>
-    <t>MEKHALEF</t>
-  </si>
-  <si>
-    <t>mekhalefleila@gmail.com</t>
-  </si>
-  <si>
-    <t>MERADJAH</t>
-  </si>
-  <si>
-    <t>IBRAHIM</t>
-  </si>
-  <si>
-    <t>MESLEM</t>
-  </si>
-  <si>
-    <t>MEHADJIA</t>
-  </si>
-  <si>
-    <t>mehadjiameslem@gmail.com</t>
-  </si>
-  <si>
-    <t>MESTARI</t>
-  </si>
-  <si>
-    <t>WAHIBA</t>
-  </si>
-  <si>
-    <t>wahibaelmestarii@gmail.com</t>
-  </si>
-  <si>
-    <t>FETHIMILOUA</t>
-  </si>
-  <si>
-    <t>FETHI</t>
-  </si>
-  <si>
-    <t>fethi22miloua@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0664 31 52 76 </t>
-  </si>
-  <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>KHELIFA</t>
-  </si>
-  <si>
-    <t>khelifa-mir@outlook.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 69 59 78 39 </t>
-  </si>
-  <si>
-    <t>MOKADEM</t>
-  </si>
-  <si>
-    <t>AMINA</t>
-  </si>
-  <si>
-    <t>mokeddem.amina2222@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06564287 15 </t>
-  </si>
-  <si>
-    <t>MOULAY</t>
-  </si>
-  <si>
-    <t>MILOUD</t>
-  </si>
-  <si>
-    <t>mmiloud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>NEFAHA</t>
-  </si>
-  <si>
-    <t>ABOUBAKR</t>
-  </si>
-  <si>
-    <t>Boba1620@hotmail.com</t>
-  </si>
-  <si>
-    <t>REDJALA</t>
-  </si>
-  <si>
-    <t>MAJDA</t>
-  </si>
-  <si>
-    <t>majdaredjala1492@gmail.com</t>
-  </si>
-  <si>
-    <t>05 53 64 47 91</t>
-  </si>
-  <si>
-    <t>SACI</t>
-  </si>
-  <si>
-    <t>sacihamza40@gmail.com</t>
-  </si>
-  <si>
-    <t>TURKI</t>
-  </si>
-  <si>
-    <t>BILAL MEROUANE</t>
-  </si>
-  <si>
-    <t>turkibilal22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 55 20 68 65 </t>
-  </si>
-  <si>
-    <t>ZAREB</t>
-  </si>
-  <si>
-    <t>zarebmohamedamine@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 74 68 05 35 </t>
-  </si>
-  <si>
-    <t>ZERDANI</t>
-  </si>
-  <si>
-    <t>medzerdani@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 60 15 22 65 </t>
-  </si>
-  <si>
-    <t>ZIANI</t>
-  </si>
-  <si>
-    <t>DJAMEL</t>
-  </si>
-  <si>
-    <t>ZIDI-2</t>
-  </si>
-  <si>
-    <t>LARBI</t>
-  </si>
-  <si>
-    <t>larbi.zidi6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 92 12 03 38 </t>
-  </si>
-  <si>
-    <t>RAIS</t>
-  </si>
-  <si>
-    <t>ABDELMAJID</t>
-  </si>
-  <si>
-    <t>amrais@yahoo.com</t>
-  </si>
-  <si>
-    <t>REGUIG</t>
-  </si>
-  <si>
-    <t>ABDELDJALIL</t>
-  </si>
-  <si>
-    <t>abdeldjalil.reguig@outlook.com</t>
-  </si>
-  <si>
-    <t>CYCLE</t>
-  </si>
-  <si>
-    <t>PROMOTION</t>
-  </si>
-  <si>
-    <t>HORAIRE</t>
-  </si>
-  <si>
-    <t>RÉPARTITION (GROUPES / SALLES)</t>
-  </si>
-  <si>
-    <t>INGÉNIEUR</t>
-  </si>
-  <si>
-    <t>ING1</t>
-  </si>
-  <si>
-    <t>13h30 – 15h30</t>
-  </si>
-  <si>
-    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
-  </si>
-  <si>
-    <t>ING2</t>
-  </si>
-  <si>
-    <t>11h00 – 13h00</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08 BIS</t>
-  </si>
-  <si>
-    <t>ING3-EI</t>
-  </si>
-  <si>
-    <t>08h30 – 10h30</t>
-  </si>
-  <si>
-    <t>Promotion entière : SN</t>
-  </si>
-  <si>
-    <t>ING3-TM</t>
-  </si>
-  <si>
-    <t>Promotion entière : A10</t>
-  </si>
-  <si>
-    <t>ING4-CI</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 14</t>
-  </si>
-  <si>
-    <t>LICENCE</t>
-  </si>
-  <si>
-    <t>L2ELT</t>
-  </si>
-  <si>
-    <t>G1: A8 / G2: A9 / G3: A12</t>
-  </si>
-  <si>
-    <t>L3ELT</t>
-  </si>
-  <si>
-    <t>MASTER / MCIL</t>
-  </si>
-  <si>
-    <t>MCIL1</t>
-  </si>
-  <si>
-    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
-  </si>
-  <si>
-    <t>MCIL2</t>
-  </si>
-  <si>
-    <t>G1+G2: A10, G3: S02, G4: S06</t>
-  </si>
-  <si>
-    <t>MCIL3</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 01</t>
-  </si>
-  <si>
-    <t>M1CE</t>
-  </si>
-  <si>
-    <t>M1ER</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 06</t>
-  </si>
-  <si>
-    <t>M1ME</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08</t>
-  </si>
-  <si>
-    <t>M1MCIL</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 02</t>
-  </si>
-  <si>
-    <t>M1RE</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 04</t>
   </si>
   <si>
     <t>SEHALI</t>
@@ -2351,11 +2354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G1193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2392,7 +2395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" hidden="1" spans="1:7">
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2413,7 +2416,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" hidden="1" spans="1:7">
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
@@ -2435,7 +2438,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" hidden="1" spans="1:7">
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2457,7 +2460,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" hidden="1" spans="1:7">
+    <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2479,7 +2482,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" hidden="1" spans="1:7">
+    <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2501,7 +2504,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" hidden="1" spans="1:7">
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" hidden="1" spans="1:7">
+    <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2545,7 +2548,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" hidden="1" spans="1:7">
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2567,7 +2570,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" hidden="1" spans="1:7">
+    <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" hidden="1" spans="1:7">
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2611,7 +2614,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" hidden="1" spans="1:7">
+    <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2631,7 +2634,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" hidden="1" spans="1:7">
+    <row r="13" ht="15.75" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2653,7 +2656,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" hidden="1" spans="1:7">
+    <row r="14" ht="15.75" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2675,7 +2678,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" hidden="1" spans="1:7">
+    <row r="15" ht="15.75" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2697,7 +2700,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" hidden="1" spans="1:7">
+    <row r="16" ht="15.75" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2719,7 +2722,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" hidden="1" spans="1:7">
+    <row r="17" ht="15.75" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2741,7 +2744,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" hidden="1" spans="1:7">
+    <row r="18" ht="15.75" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2763,7 +2766,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" hidden="1" spans="1:7">
+    <row r="19" ht="15.75" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2785,7 +2788,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" hidden="1" spans="1:7">
+    <row r="20" ht="15.75" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2807,7 +2810,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" hidden="1" spans="1:7">
+    <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2829,7 +2832,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" hidden="1" spans="1:7">
+    <row r="22" ht="15.75" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2851,7 +2854,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" hidden="1" spans="1:7">
+    <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2873,7 +2876,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" hidden="1" spans="1:7">
+    <row r="24" ht="15.75" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2895,7 +2898,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" hidden="1" spans="1:7">
+    <row r="25" ht="15.75" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2917,7 +2920,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" hidden="1" spans="1:7">
+    <row r="26" ht="15.75" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2939,7 +2942,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" hidden="1" spans="1:7">
+    <row r="27" ht="15.75" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2961,7 +2964,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" hidden="1" spans="1:7">
+    <row r="28" ht="15.75" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2983,7 +2986,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" hidden="1" spans="1:7">
+    <row r="29" ht="15.75" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3005,7 +3008,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" hidden="1" spans="1:7">
+    <row r="30" ht="15.75" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3027,7 +3030,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" hidden="1" spans="1:7">
+    <row r="31" ht="15.75" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3049,7 +3052,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" hidden="1" spans="1:7">
+    <row r="32" ht="15.75" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3069,7 +3072,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" hidden="1" spans="1:7">
+    <row r="33" ht="15.75" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3091,7 +3094,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" hidden="1" spans="1:7">
+    <row r="34" ht="15.75" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:7">
+    <row r="35" ht="15.75" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" hidden="1" spans="1:7">
+    <row r="36" ht="15.75" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3157,7 +3160,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" hidden="1" spans="1:7">
+    <row r="37" ht="15.75" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3177,7 +3180,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" hidden="1" spans="1:7">
+    <row r="38" ht="15.75" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3197,7 +3200,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" hidden="1" spans="1:7">
+    <row r="39" ht="15.75" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3219,7 +3222,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" hidden="1" spans="1:7">
+    <row r="40" ht="15.75" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3241,7 +3244,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" hidden="1" spans="1:7">
+    <row r="41" ht="15.75" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3263,7 +3266,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" hidden="1" spans="1:7">
+    <row r="42" ht="15.75" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3285,7 +3288,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" hidden="1" spans="1:7">
+    <row r="43" ht="15.75" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3307,7 +3310,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" hidden="1" spans="1:7">
+    <row r="44" ht="15.75" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3329,7 +3332,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" hidden="1" spans="1:7">
+    <row r="45" ht="15.75" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" hidden="1" spans="1:7">
+    <row r="46" ht="15.75" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3373,7 +3376,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" hidden="1" spans="1:7">
+    <row r="47" ht="15.75" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3395,7 +3398,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" hidden="1" spans="1:7">
+    <row r="48" ht="15.75" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" hidden="1" spans="1:7">
+    <row r="49" ht="15.75" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3439,7 +3442,7 @@
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" hidden="1" spans="1:7">
+    <row r="50" ht="15.75" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3461,7 +3464,7 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" hidden="1" spans="1:7">
+    <row r="51" ht="15.75" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3481,7 +3484,7 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" hidden="1" spans="1:7">
+    <row r="52" ht="15.75" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3503,7 +3506,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" hidden="1" spans="1:7">
+    <row r="53" ht="15.75" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3525,7 +3528,7 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" hidden="1" spans="1:7">
+    <row r="54" ht="15.75" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3545,7 +3548,7 @@
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" hidden="1" spans="1:7">
+    <row r="55" ht="15.75" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3563,7 +3566,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" hidden="1" spans="1:7">
+    <row r="56" ht="15.75" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3583,7 +3586,7 @@
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" hidden="1" spans="1:7">
+    <row r="57" ht="15.75" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3603,7 +3606,7 @@
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" hidden="1" spans="1:7">
+    <row r="58" ht="15.75" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3623,7 +3626,7 @@
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" hidden="1" spans="1:7">
+    <row r="59" ht="15.75" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3645,7 +3648,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" ht="15.75" hidden="1" spans="1:7">
+    <row r="60" ht="15.75" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3663,7 +3666,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" hidden="1" spans="1:7">
+    <row r="61" ht="15.75" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3683,7 +3686,7 @@
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" hidden="1" spans="1:7">
+    <row r="62" ht="15.75" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3705,7 +3708,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" ht="15.75" hidden="1" spans="1:7">
+    <row r="63" ht="15.75" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3725,7 +3728,7 @@
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" hidden="1" spans="1:7">
+    <row r="64" ht="15.75" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3745,7 +3748,7 @@
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" hidden="1" spans="1:7">
+    <row r="65" ht="15.75" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3767,7 +3770,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" ht="15.75" hidden="1" spans="1:7">
+    <row r="66" ht="15.75" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3789,7 +3792,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="67" ht="15.75" hidden="1" spans="1:7">
+    <row r="67" ht="15.75" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3809,7 +3812,7 @@
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" hidden="1" spans="1:7">
+    <row r="68" ht="15.75" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" ref="A68:A111" si="1">A67+1</f>
         <v>67</v>
@@ -3829,7 +3832,7 @@
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" hidden="1" spans="1:7">
+    <row r="69" ht="15.75" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3851,7 +3854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" ht="15.75" hidden="1" spans="1:7">
+    <row r="70" ht="15.75" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3873,7 +3876,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="71" ht="15.75" hidden="1" spans="1:7">
+    <row r="71" ht="15.75" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3893,7 +3896,7 @@
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" hidden="1" spans="1:7">
+    <row r="72" ht="15.75" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3913,7 +3916,7 @@
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" hidden="1" spans="1:7">
+    <row r="73" ht="15.75" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3935,7 +3938,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" ht="15.75" hidden="1" spans="1:7">
+    <row r="74" ht="15.75" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3957,7 +3960,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" ht="15.75" hidden="1" spans="1:7">
+    <row r="75" ht="15.75" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -3977,7 +3980,7 @@
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" hidden="1" spans="1:7">
+    <row r="76" ht="15.75" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -3999,7 +4002,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" ht="15.75" hidden="1" spans="1:7">
+    <row r="77" ht="15.75" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" hidden="1" spans="1:7">
+    <row r="78" ht="15.75" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4039,7 +4042,7 @@
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" hidden="1" spans="1:7">
+    <row r="79" ht="15.75" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4057,7 +4060,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" hidden="1" spans="1:7">
+    <row r="80" ht="15.75" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" hidden="1" spans="1:7">
+    <row r="81" ht="15.75" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4097,7 +4100,7 @@
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" hidden="1" spans="1:7">
+    <row r="82" ht="15.75" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4119,7 +4122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" ht="15.75" hidden="1" spans="1:7">
+    <row r="83" ht="15.75" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4137,7 +4140,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" hidden="1" spans="1:7">
+    <row r="84" ht="15.75" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" hidden="1" spans="1:7">
+    <row r="85" ht="15.75" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4179,7 +4182,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" ht="15.75" hidden="1" spans="1:7">
+    <row r="86" ht="15.75" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" hidden="1" spans="1:7">
+    <row r="87" ht="15.75" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4219,7 +4222,7 @@
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" hidden="1" spans="1:7">
+    <row r="88" ht="15.75" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4239,7 +4242,7 @@
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" hidden="1" spans="1:7">
+    <row r="89" ht="15.75" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4257,7 +4260,7 @@
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" hidden="1" spans="1:7">
+    <row r="90" ht="15.75" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4277,7 +4280,7 @@
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" hidden="1" spans="1:7">
+    <row r="91" ht="15.75" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4299,7 +4302,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="92" ht="15.75" hidden="1" spans="1:7">
+    <row r="92" ht="15.75" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4319,7 +4322,7 @@
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" hidden="1" spans="1:7">
+    <row r="93" ht="15.75" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4339,7 +4342,7 @@
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" hidden="1" spans="1:7">
+    <row r="94" ht="15.75" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4357,7 +4360,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" hidden="1" spans="1:7">
+    <row r="95" ht="15.75" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" hidden="1" spans="1:7">
+    <row r="96" ht="15.75" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4397,7 +4400,7 @@
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" hidden="1" spans="1:7">
+    <row r="97" ht="15.75" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4415,7 +4418,7 @@
       <c r="F97" s="15"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" hidden="1" spans="1:7">
+    <row r="98" ht="15.75" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4435,7 +4438,7 @@
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" hidden="1" spans="1:7">
+    <row r="99" ht="15.75" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4477,7 +4480,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="101" ht="15.75" hidden="1" spans="1:7">
+    <row r="101" ht="15.75" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4499,7 +4502,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" ht="15.75" hidden="1" spans="1:7">
+    <row r="102" ht="15.75" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4521,7 +4524,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" ht="15.75" hidden="1" spans="1:7">
+    <row r="103" ht="15.75" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4541,7 +4544,7 @@
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" hidden="1" spans="1:7">
+    <row r="104" ht="15.75" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4561,7 +4564,7 @@
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" hidden="1" spans="1:7">
+    <row r="105" ht="15.75" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4583,7 +4586,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" ht="15.75" hidden="1" spans="1:7">
+    <row r="106" ht="15.75" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4603,7 +4606,7 @@
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" hidden="1" spans="1:7">
+    <row r="107" ht="15.75" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4625,7 +4628,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" ht="15.75" hidden="1" spans="1:7">
+    <row r="108" ht="15.75" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4647,7 +4650,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" ht="15.75" hidden="1" spans="1:7">
+    <row r="109" ht="15.75" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4669,7 +4672,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" ht="15.75" hidden="1" spans="1:7">
+    <row r="110" ht="15.75" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4687,7 +4690,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" hidden="1" spans="1:7">
+    <row r="111" ht="15.75" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4709,7 +4712,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" ht="15.75" hidden="1" spans="1:7">
+    <row r="112" ht="15.75" spans="1:7">
       <c r="A112" s="19"/>
       <c r="B112" s="20" t="s">
         <v>328</v>
@@ -4728,7 +4731,7 @@
       </c>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" hidden="1" spans="1:7">
+    <row r="113" ht="15.75" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
         <v>331</v>
@@ -12307,11 +12310,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F113" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="MILOUA-2"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A1:F113">
       <sortCondition ref="D1:D109"/>
     </sortState>
@@ -14738,7 +14736,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -15642,7 +15640,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>130</v>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Permanents-Vacataires" sheetId="7" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Feuille3" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permanents-Vacataires'!$A$1:$F$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permanents-Vacataires'!$A$1:$F$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Répartiion pour Examen'!$A$1:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuille3!$A$1:$G$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuille3!$A$1:$G$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="375">
   <si>
     <t>N°</t>
   </si>
@@ -1018,6 +1018,9 @@
   </si>
   <si>
     <t xml:space="preserve">07 92 12 03 38 </t>
+  </si>
+  <si>
+    <t>Permanentt</t>
   </si>
   <si>
     <t>RAIS</t>
@@ -2355,10 +2358,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1193"/>
+  <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3814,7 +3817,7 @@
     </row>
     <row r="68" ht="15.75" spans="1:7">
       <c r="A68" s="9">
-        <f t="shared" ref="A68:A111" si="1">A67+1</f>
+        <f t="shared" ref="A68:A112" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -4713,47 +4716,60 @@
       </c>
     </row>
     <row r="112" ht="15.75" spans="1:7">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20" t="s">
+      <c r="A112" s="9">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>330</v>
-      </c>
+      <c r="E112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" s="12"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" ht="15.75" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="21"/>
+      <c r="E113" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="F113" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" ht="15.75" spans="1:7">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
+      <c r="D114" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115"/>
@@ -12308,9 +12324,16 @@
       <c r="D1193"/>
       <c r="E1193"/>
     </row>
+    <row r="1194" spans="1:5">
+      <c r="A1194"/>
+      <c r="B1194"/>
+      <c r="C1194"/>
+      <c r="D1194"/>
+      <c r="E1194"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F113" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:F113">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F114" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:F114">
       <sortCondition ref="D1:D109"/>
     </sortState>
     <extLst/>
@@ -12381,202 +12404,202 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="29"/>
       <c r="B3" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
       <c r="A4" s="29"/>
       <c r="B4" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="29"/>
       <c r="B5" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>355</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="34" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="34" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:4">
       <c r="A13" s="29"/>
       <c r="B13" s="34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="29"/>
       <c r="B14" s="34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="29"/>
       <c r="B15" s="34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="29"/>
       <c r="B16" s="34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="656" ht="15.75"/>
@@ -14657,13 +14680,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1193"/>
+  <dimension ref="A1:H1194"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.2857142857143" style="2" customWidth="1"/>
@@ -14736,7 +14759,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G3" s="13"/>
     </row>
@@ -15640,7 +15663,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>130</v>
@@ -17015,46 +17038,63 @@
       </c>
     </row>
     <row r="112" ht="15.75" spans="1:7">
-      <c r="A112" s="19"/>
-      <c r="B112" s="20" t="s">
+      <c r="A112" s="9">
+        <f>A111+1</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>330</v>
-      </c>
+      <c r="E112" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" s="11"/>
       <c r="G112" s="13"/>
     </row>
     <row r="113" ht="15.75" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="21"/>
+      <c r="E113" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="F113" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" ht="15.75" spans="1:7">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" customFormat="1" spans="6:6">
-      <c r="F114" s="2"/>
-    </row>
-    <row r="115" customFormat="1" spans="6:6">
-      <c r="F115" s="2"/>
+      <c r="D114" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="21"/>
+      <c r="F114" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" customFormat="1" spans="8:8">
+      <c r="H115" s="12"/>
     </row>
     <row r="116" customFormat="1" spans="6:6">
       <c r="F116" s="2"/>
@@ -20290,8 +20330,11 @@
     <row r="1193" customFormat="1" spans="6:6">
       <c r="F1193" s="2"/>
     </row>
+    <row r="1194" customFormat="1" spans="6:6">
+      <c r="F1194" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G113" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G114" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="376">
   <si>
     <t>N°</t>
   </si>
@@ -243,13 +243,16 @@
     <t>hsemmach@yahoo.fr</t>
   </si>
   <si>
-    <t>BRAHAMI</t>
+    <t>M.BRAHAMI</t>
   </si>
   <si>
     <t>MOSTEFA</t>
   </si>
   <si>
     <t>mbrahami@yahoo.com</t>
+  </si>
+  <si>
+    <t>MN.BRAHAMI</t>
   </si>
   <si>
     <t>NADJIB</t>
@@ -2357,11 +2360,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:F112"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2398,7 +2401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="15.75" hidden="1" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2419,7 +2422,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
@@ -2441,7 +2444,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2463,7 +2466,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2485,7 +2488,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2507,7 +2510,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2529,7 +2532,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2551,7 +2554,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2573,7 +2576,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2595,7 +2598,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" spans="1:7">
+    <row r="11" ht="15.75" hidden="1" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2617,7 +2620,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2637,7 +2640,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2659,7 +2662,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2681,7 +2684,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2703,7 +2706,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2725,7 +2728,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2747,7 +2750,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2769,7 +2772,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2791,7 +2794,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2841,10 +2844,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>9</v>
@@ -2853,20 +2856,20 @@
         <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>9</v>
@@ -2875,20 +2878,20 @@
         <v>33</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>9</v>
@@ -2897,17 +2900,17 @@
         <v>33</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>8</v>
@@ -2919,20 +2922,20 @@
         <v>10</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>9</v>
@@ -2941,20 +2944,20 @@
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>9</v>
@@ -2963,20 +2966,20 @@
         <v>10</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>9</v>
@@ -2985,20 +2988,20 @@
         <v>33</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>9</v>
@@ -3007,20 +3010,20 @@
         <v>33</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>9</v>
@@ -3029,17 +3032,17 @@
         <v>33</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>8</v>
@@ -3051,37 +3054,37 @@
         <v>10</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>8</v>
@@ -3093,17 +3096,17 @@
         <v>33</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>22</v>
@@ -3115,17 +3118,17 @@
         <v>10</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>55</v>
@@ -3137,20 +3140,20 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>9</v>
@@ -3159,17 +3162,17 @@
         <v>10</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>8</v>
@@ -3183,36 +3186,36 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>9</v>
@@ -3221,20 +3224,20 @@
         <v>10</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>9</v>
@@ -3243,20 +3246,20 @@
         <v>10</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>9</v>
@@ -3265,20 +3268,20 @@
         <v>10</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>9</v>
@@ -3287,17 +3290,17 @@
         <v>10</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>39</v>
@@ -3309,20 +3312,20 @@
         <v>10</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>9</v>
@@ -3331,20 +3334,20 @@
         <v>10</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>9</v>
@@ -3353,20 +3356,20 @@
         <v>52</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>9</v>
@@ -3375,20 +3378,20 @@
         <v>10</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>9</v>
@@ -3397,20 +3400,20 @@
         <v>10</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>9</v>
@@ -3419,20 +3422,20 @@
         <v>10</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>9</v>
@@ -3441,17 +3444,17 @@
         <v>33</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>39</v>
@@ -3463,40 +3466,40 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" spans="1:7">
+    <row r="51" ht="15.75" hidden="1" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" spans="1:7">
+    <row r="52" ht="15.75" hidden="1" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>9</v>
@@ -3505,17 +3508,17 @@
         <v>33</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>16</v>
@@ -3527,1207 +3530,1207 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="1:7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" hidden="1" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="1:7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" ref="A68:A112" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="1:7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" spans="1:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" spans="1:7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" spans="1:7">
+    <row r="85" ht="15.75" hidden="1" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" spans="1:7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="15"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" ht="15.75" spans="1:7">
+    <row r="100" ht="15.75" hidden="1" spans="1:7">
       <c r="A100" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" hidden="1" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" hidden="1" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" hidden="1" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" spans="1:7">
+    <row r="104" ht="15.75" hidden="1" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" spans="1:7">
+    <row r="105" ht="15.75" hidden="1" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" hidden="1" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" spans="1:7">
+    <row r="107" ht="15.75" hidden="1" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" spans="1:7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" hidden="1" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" hidden="1" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" hidden="1" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="15"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" spans="1:7">
+    <row r="111" ht="15.75" hidden="1" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" hidden="1" spans="1:7">
       <c r="A112" s="9">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>33</v>
@@ -4735,13 +4738,13 @@
       <c r="F112" s="12"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" spans="1:7">
+    <row r="113" ht="15.75" hidden="1" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>9</v>
@@ -4750,24 +4753,24 @@
         <v>10</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" ht="15.75" spans="1:7">
+    <row r="114" ht="15.75" hidden="1" spans="1:7">
       <c r="A114" s="19"/>
       <c r="B114" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G114" s="13"/>
     </row>
@@ -12333,6 +12336,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F114" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="BRAHAMI"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A1:F114">
       <sortCondition ref="D1:D109"/>
     </sortState>
@@ -12404,202 +12412,202 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="29"/>
       <c r="B3" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
       <c r="A4" s="29"/>
       <c r="B4" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="29"/>
       <c r="B5" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="29"/>
       <c r="B6" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="29"/>
       <c r="B8" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>356</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
       <c r="A9" s="32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
       <c r="A10" s="29"/>
       <c r="B10" s="34" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="29"/>
       <c r="B11" s="34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:4">
       <c r="A12" s="29"/>
       <c r="B12" s="34" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:4">
       <c r="A13" s="29"/>
       <c r="B13" s="34" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="29"/>
       <c r="B14" s="34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="29"/>
       <c r="B15" s="34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="29"/>
       <c r="B16" s="34" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="656" ht="15.75"/>
@@ -14679,10 +14687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -14720,7 +14728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="15.75" hidden="1" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -14741,7 +14749,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
@@ -14759,11 +14767,11 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14785,7 +14793,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14807,7 +14815,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14829,7 +14837,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14851,7 +14859,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14873,7 +14881,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14895,7 +14903,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14917,7 +14925,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" spans="1:7">
+    <row r="11" ht="15.75" hidden="1" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14939,7 +14947,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14959,7 +14967,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14981,7 +14989,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15003,7 +15011,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15025,7 +15033,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -15047,7 +15055,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15069,7 +15077,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15091,7 +15099,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15113,7 +15121,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15163,10 +15171,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>9</v>
@@ -15175,20 +15183,20 @@
         <v>33</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>9</v>
@@ -15197,20 +15205,20 @@
         <v>33</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>9</v>
@@ -15219,17 +15227,17 @@
         <v>33</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>8</v>
@@ -15241,20 +15249,20 @@
         <v>10</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>9</v>
@@ -15263,20 +15271,20 @@
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>9</v>
@@ -15285,20 +15293,20 @@
         <v>10</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>9</v>
@@ -15307,20 +15315,20 @@
         <v>33</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>9</v>
@@ -15329,20 +15337,20 @@
         <v>33</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>9</v>
@@ -15351,17 +15359,17 @@
         <v>33</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>8</v>
@@ -15373,37 +15381,37 @@
         <v>10</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>8</v>
@@ -15415,17 +15423,17 @@
         <v>33</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>22</v>
@@ -15437,17 +15445,17 @@
         <v>10</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>55</v>
@@ -15459,20 +15467,20 @@
         <v>10</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>9</v>
@@ -15481,17 +15489,17 @@
         <v>10</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>8</v>
@@ -15505,36 +15513,36 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>9</v>
@@ -15543,20 +15551,20 @@
         <v>10</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>9</v>
@@ -15565,20 +15573,20 @@
         <v>10</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>9</v>
@@ -15587,20 +15595,20 @@
         <v>10</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>9</v>
@@ -15609,17 +15617,17 @@
         <v>10</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>39</v>
@@ -15631,20 +15639,20 @@
         <v>10</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>9</v>
@@ -15653,20 +15661,20 @@
         <v>10</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>9</v>
@@ -15675,20 +15683,20 @@
         <v>52</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>9</v>
@@ -15697,20 +15705,20 @@
         <v>10</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>9</v>
@@ -15719,20 +15727,20 @@
         <v>10</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>9</v>
@@ -15741,20 +15749,20 @@
         <v>10</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>9</v>
@@ -15763,17 +15771,17 @@
         <v>33</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>39</v>
@@ -15785,40 +15793,40 @@
         <v>10</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" spans="1:7">
+    <row r="51" ht="15.75" hidden="1" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" spans="1:7">
+    <row r="52" ht="15.75" hidden="1" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>9</v>
@@ -15827,17 +15835,17 @@
         <v>33</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>16</v>
@@ -15849,1207 +15857,1207 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E58" s="16"/>
       <c r="F58" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="1:7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" hidden="1" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" spans="1:7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="1:7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="9">
-        <f t="shared" ref="A67:A111" si="1">A66+1</f>
+        <f t="shared" ref="A67:A112" si="1">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" spans="1:7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="1:7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" spans="1:7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E74" s="16"/>
       <c r="F74" s="18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" spans="1:7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" spans="1:7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" spans="1:7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" spans="1:7">
+    <row r="85" ht="15.75" hidden="1" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" spans="1:7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="15"/>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" ht="15.75" spans="1:7">
+    <row r="100" ht="15.75" hidden="1" spans="1:7">
       <c r="A100" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" hidden="1" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E101" s="16"/>
       <c r="F101" s="17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" hidden="1" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" hidden="1" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" spans="1:7">
+    <row r="104" ht="15.75" hidden="1" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" spans="1:7">
+    <row r="105" ht="15.75" hidden="1" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" hidden="1" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" spans="1:7">
+    <row r="107" ht="15.75" hidden="1" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" spans="1:7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" hidden="1" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" hidden="1" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" hidden="1" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="15"/>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" spans="1:7">
+    <row r="111" ht="15.75" hidden="1" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" spans="1:7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" hidden="1" spans="1:7">
       <c r="A112" s="9">
-        <f>A111+1</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>33</v>
@@ -17057,13 +17065,13 @@
       <c r="F112" s="11"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" spans="1:7">
+    <row r="113" ht="15.75" hidden="1" spans="1:7">
       <c r="A113" s="19"/>
       <c r="B113" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D113" s="21" t="s">
         <v>9</v>
@@ -17072,24 +17080,24 @@
         <v>10</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" ht="15.75" spans="1:7">
+    <row r="114" ht="15.75" hidden="1" spans="1:7">
       <c r="A114" s="19"/>
       <c r="B114" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D114" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G114" s="13"/>
     </row>
@@ -20335,6 +20343,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G114" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="BRAHAMI"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Permanents-Vacataires" sheetId="7" r:id="rId1"/>
@@ -2363,8 +2363,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:7">
+    <row r="35" ht="15.75" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" ht="15.75" hidden="1" spans="1:7">
+    <row r="100" ht="15.75" spans="1:7">
       <c r="A100" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -12338,7 +12338,8 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F114" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="BRAHAMI"/>
+        <filter val="MILOUA"/>
+        <filter val="FETHIMILOUA"/>
       </filters>
     </filterColumn>
     <sortState ref="A1:F114">
@@ -14690,8 +14691,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -15143,7 +15144,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15165,7 +15166,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -15449,7 +15450,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:7">
+    <row r="35" ht="15.75" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -16791,13 +16792,13 @@
       </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" ht="15.75" hidden="1" spans="1:7">
+    <row r="100" ht="15.75" spans="1:7">
       <c r="A100" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>290</v>
@@ -20345,7 +20346,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G114" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="BRAHAMI"/>
+        <filter val="MILOUA"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -903,7 +903,7 @@
     <t>wahibaelmestarii@gmail.com</t>
   </si>
   <si>
-    <t>FETHIMILOUA</t>
+    <t>FETHI.M</t>
   </si>
   <si>
     <t>FETHI</t>
@@ -2363,8 +2363,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3333,7 +3333,7 @@
       <c r="E44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="14" t="s">
         <v>129</v>
       </c>
       <c r="G44" s="13"/>
@@ -12338,7 +12338,6 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F114" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="MILOUA"/>
         <filter val="FETHIMILOUA"/>
       </filters>
     </filterColumn>
@@ -12386,6 +12385,7 @@
     <hyperlink ref="F66" r:id="rId36" display="bkbhbb22@gmail.com"/>
     <hyperlink ref="F101" r:id="rId37" display="khelifa-mir@outlook.fr"/>
     <hyperlink ref="F76" r:id="rId38" display="djellouli7abderrahmane@gmail.com"/>
+    <hyperlink ref="F44" r:id="rId39" display="rezoug.med@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -14692,7 +14692,7 @@
   <dimension ref="A1:H1194"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -20346,7 +20346,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G114" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="MILOUA"/>
+        <filter val="FETHIMILOUA"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -2363,8 +2363,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -12338,7 +12338,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F114" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="FETHIMILOUA"/>
+        <filter val="FETHI.M"/>
       </filters>
     </filterColumn>
     <sortState ref="A1:F114">

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Feuille3" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permanents-Vacataires'!$A$1:$F$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permanents-Vacataires'!$A$1:$F$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Répartiion pour Examen'!$A$1:$D$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuille3!$A$1:$G$114</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="384">
   <si>
     <t>N°</t>
   </si>
@@ -537,7 +537,10 @@
     <t>ABDELMADJID</t>
   </si>
   <si>
-    <t>arab4abdelmajid@gmail</t>
+    <t>Doctorat</t>
+  </si>
+  <si>
+    <t>arab4abdelmadjid@gmail.com</t>
   </si>
   <si>
     <t>AREZKI</t>
@@ -591,6 +594,9 @@
     <t>SARRA</t>
   </si>
   <si>
+    <t>Master</t>
+  </si>
+  <si>
     <t>sarrabencella@gmail.com</t>
   </si>
   <si>
@@ -663,7 +669,7 @@
     <t>SOUMIA</t>
   </si>
   <si>
-    <t>boukhari_sf@yahoo.com</t>
+    <t>boukharisoumiafarah@gmail.com</t>
   </si>
   <si>
     <t>BOULARAF</t>
@@ -693,7 +699,7 @@
     <t>AMIRA</t>
   </si>
   <si>
-    <t>amirad elloum28@ gmail.com</t>
+    <t>amiradelloum28@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">05 54 96 88 33 </t>
@@ -813,12 +819,15 @@
     <t>kadrirania51@gmail.com</t>
   </si>
   <si>
-    <t>KHELEF</t>
+    <t>KHELLAF</t>
   </si>
   <si>
     <t>KADDA</t>
   </si>
   <si>
+    <t>khellafkadda1234@gmail.com</t>
+  </si>
+  <si>
     <t>LATRECHE</t>
   </si>
   <si>
@@ -885,6 +894,9 @@
     <t>IBRAHIM</t>
   </si>
   <si>
+    <t>ibrahimmeradjah72@gmail.com</t>
+  </si>
+  <si>
     <t>MESLEM</t>
   </si>
   <si>
@@ -1011,6 +1023,9 @@
     <t>DJAMEL</t>
   </si>
   <si>
+    <t>ziani_djamel@yahoo.fr</t>
+  </si>
+  <si>
     <t>ZIDI-2</t>
   </si>
   <si>
@@ -1026,6 +1041,21 @@
     <t>Permanentt</t>
   </si>
   <si>
+    <t>Abdelhamid</t>
+  </si>
+  <si>
+    <t>bensalemabdelhamid7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drouni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wassila Abir </t>
+  </si>
+  <si>
+    <t>Wassila.drouni@gmail.com</t>
+  </si>
+  <si>
     <t>RAIS</t>
   </si>
   <si>
@@ -1156,12 +1186,6 @@
   </si>
   <si>
     <t>Promotion entière : S 04</t>
-  </si>
-  <si>
-    <t>wpierlo@hotmail.fr</t>
-  </si>
-  <si>
-    <t>SEHALI</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1966,6 +1990,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1975,6 +2002,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2360,11 +2388,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2401,7 +2429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" hidden="1" spans="1:7">
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2422,7 +2450,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" hidden="1" spans="1:7">
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
@@ -2444,7 +2472,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" hidden="1" spans="1:7">
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2466,7 +2494,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" hidden="1" spans="1:7">
+    <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2488,7 +2516,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" hidden="1" spans="1:7">
+    <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2510,7 +2538,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" hidden="1" spans="1:7">
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2532,7 +2560,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" hidden="1" spans="1:7">
+    <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2554,7 +2582,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" hidden="1" spans="1:7">
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2576,7 +2604,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" hidden="1" spans="1:7">
+    <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2598,7 +2626,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" hidden="1" spans="1:7">
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2620,7 +2648,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" hidden="1" spans="1:7">
+    <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2640,7 +2668,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" hidden="1" spans="1:7">
+    <row r="13" ht="15.75" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2662,7 +2690,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" hidden="1" spans="1:7">
+    <row r="14" ht="15.75" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2684,7 +2712,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" hidden="1" spans="1:7">
+    <row r="15" ht="15.75" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2706,7 +2734,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" hidden="1" spans="1:7">
+    <row r="16" ht="15.75" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2728,7 +2756,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" hidden="1" spans="1:7">
+    <row r="17" ht="15.75" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2750,7 +2778,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" hidden="1" spans="1:7">
+    <row r="18" ht="15.75" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2772,7 +2800,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" hidden="1" spans="1:7">
+    <row r="19" ht="15.75" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2794,7 +2822,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" hidden="1" spans="1:7">
+    <row r="20" ht="15.75" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2816,7 +2844,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" hidden="1" spans="1:7">
+    <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2838,7 +2866,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" hidden="1" spans="1:7">
+    <row r="22" ht="15.75" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2860,7 +2888,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" hidden="1" spans="1:7">
+    <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2882,7 +2910,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" hidden="1" spans="1:7">
+    <row r="24" ht="15.75" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2904,7 +2932,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" hidden="1" spans="1:7">
+    <row r="25" ht="15.75" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2926,7 +2954,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" hidden="1" spans="1:7">
+    <row r="26" ht="15.75" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2948,7 +2976,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" hidden="1" spans="1:7">
+    <row r="27" ht="15.75" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2970,7 +2998,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" hidden="1" spans="1:7">
+    <row r="28" ht="15.75" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2992,7 +3020,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" hidden="1" spans="1:7">
+    <row r="29" ht="15.75" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3014,7 +3042,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" hidden="1" spans="1:7">
+    <row r="30" ht="15.75" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3036,7 +3064,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" hidden="1" spans="1:7">
+    <row r="31" ht="15.75" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3058,7 +3086,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" hidden="1" spans="1:7">
+    <row r="32" ht="15.75" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3078,7 +3106,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" hidden="1" spans="1:7">
+    <row r="33" ht="15.75" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3100,7 +3128,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" hidden="1" spans="1:7">
+    <row r="34" ht="15.75" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3122,7 +3150,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:7">
+    <row r="35" ht="15.75" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3144,7 +3172,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" hidden="1" spans="1:7">
+    <row r="36" ht="15.75" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3166,7 +3194,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" hidden="1" spans="1:7">
+    <row r="37" ht="15.75" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3186,7 +3214,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" hidden="1" spans="1:7">
+    <row r="38" ht="15.75" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3206,7 +3234,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" hidden="1" spans="1:7">
+    <row r="39" ht="15.75" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3228,7 +3256,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" hidden="1" spans="1:7">
+    <row r="40" ht="15.75" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3250,7 +3278,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" hidden="1" spans="1:7">
+    <row r="41" ht="15.75" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3272,7 +3300,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" hidden="1" spans="1:7">
+    <row r="42" ht="15.75" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3294,7 +3322,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" hidden="1" spans="1:7">
+    <row r="43" ht="15.75" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3316,7 +3344,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" hidden="1" spans="1:7">
+    <row r="44" ht="15.75" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3338,7 +3366,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" hidden="1" spans="1:7">
+    <row r="45" ht="15.75" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3360,7 +3388,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" hidden="1" spans="1:7">
+    <row r="46" ht="15.75" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3382,7 +3410,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" hidden="1" spans="1:7">
+    <row r="47" ht="15.75" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3404,7 +3432,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" hidden="1" spans="1:7">
+    <row r="48" ht="15.75" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3426,7 +3454,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" hidden="1" spans="1:7">
+    <row r="49" ht="15.75" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3448,7 +3476,7 @@
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" hidden="1" spans="1:7">
+    <row r="50" ht="15.75" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3470,7 +3498,7 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" hidden="1" spans="1:7">
+    <row r="51" ht="15.75" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3490,7 +3518,7 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" hidden="1" spans="1:7">
+    <row r="52" ht="15.75" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3512,7 +3540,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" hidden="1" spans="1:7">
+    <row r="53" ht="15.75" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3534,7 +3562,7 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" hidden="1" spans="1:7">
+    <row r="54" ht="15.75" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3554,7 +3582,7 @@
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" hidden="1" spans="1:7">
+    <row r="55" ht="15.75" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3572,7 +3600,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" hidden="1" spans="1:7">
+    <row r="56" ht="15.75" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3592,7 +3620,7 @@
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" hidden="1" spans="1:7">
+    <row r="57" ht="15.75" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3612,7 +3640,7 @@
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" hidden="1" spans="1:7">
+    <row r="58" ht="15.75" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3626,44 +3654,46 @@
       <c r="D58" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F58" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" hidden="1" spans="1:7">
+    <row r="59" ht="15.75" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" hidden="1" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>155</v>
@@ -3672,13 +3702,13 @@
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" hidden="1" spans="1:7">
+    <row r="61" ht="15.75" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>148</v>
@@ -3688,79 +3718,81 @@
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" hidden="1" spans="1:7">
+    <row r="62" ht="15.75" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" hidden="1" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" hidden="1" spans="1:7">
+    <row r="64" ht="15.75" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F64" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" hidden="1" spans="1:7">
+    <row r="65" ht="15.75" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
@@ -3770,294 +3802,298 @@
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" hidden="1" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" hidden="1" spans="1:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" hidden="1" spans="1:7">
+    <row r="68" ht="15.75" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" ref="A68:A112" si="1">A67+1</f>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" hidden="1" spans="1:7">
+    <row r="69" ht="15.75" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" hidden="1" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" hidden="1" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F71" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" hidden="1" spans="1:7">
+    <row r="72" ht="15.75" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" hidden="1" spans="1:7">
+    <row r="73" ht="15.75" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" hidden="1" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F74" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" hidden="1" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" hidden="1" spans="1:7">
+    <row r="76" ht="15.75" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" hidden="1" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" hidden="1" spans="1:7">
+    <row r="78" ht="15.75" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" hidden="1" spans="1:7">
+    <row r="79" ht="15.75" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>155</v>
@@ -4066,78 +4102,78 @@
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" hidden="1" spans="1:7">
+    <row r="80" ht="15.75" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" hidden="1" spans="1:7">
+    <row r="81" ht="15.75" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" hidden="1" spans="1:7">
+    <row r="82" ht="15.75" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" hidden="1" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>155</v>
@@ -4146,218 +4182,226 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" hidden="1" spans="1:7">
+    <row r="84" ht="15.75" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" hidden="1" spans="1:7">
+    <row r="85" ht="15.75" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F85" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" hidden="1" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" hidden="1" spans="1:7">
+    <row r="87" ht="15.75" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" hidden="1" spans="1:7">
+    <row r="88" ht="15.75" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" hidden="1" spans="1:7">
+    <row r="89" ht="15.75" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="15"/>
+      <c r="E89" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>263</v>
+      </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" hidden="1" spans="1:7">
+    <row r="90" ht="15.75" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" hidden="1" spans="1:7">
+    <row r="91" ht="15.75" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" hidden="1" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" hidden="1" spans="1:7">
+    <row r="93" ht="15.75" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E93" s="16"/>
+      <c r="E93" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F93" s="18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" hidden="1" spans="1:7">
+    <row r="94" ht="15.75" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>155</v>
@@ -4366,101 +4410,105 @@
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" hidden="1" spans="1:7">
+    <row r="95" ht="15.75" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" hidden="1" spans="1:7">
+    <row r="96" ht="15.75" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" hidden="1" spans="1:7">
+    <row r="97" ht="15.75" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="15"/>
+      <c r="E97" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" hidden="1" spans="1:7">
+    <row r="98" ht="15.75" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" hidden="1" spans="1:7">
+    <row r="99" ht="15.75" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -4470,135 +4518,137 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" hidden="1" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E101" s="16"/>
+      <c r="E101" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F101" s="17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" hidden="1" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" hidden="1" spans="1:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" hidden="1" spans="1:7">
+    <row r="104" ht="15.75" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" hidden="1" spans="1:7">
+    <row r="105" ht="15.75" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" hidden="1" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
@@ -4608,39 +4658,39 @@
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" hidden="1" spans="1:7">
+    <row r="107" ht="15.75" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" hidden="1" spans="1:7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>128</v>
@@ -4650,19 +4700,19 @@
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" hidden="1" spans="1:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>128</v>
@@ -4672,53 +4722,57 @@
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" hidden="1" spans="1:7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="15"/>
+      <c r="E110" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" hidden="1" spans="1:7">
+    <row r="111" ht="15.75" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" hidden="1" spans="1:7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="1:7">
       <c r="A112" s="9">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4727,10 +4781,10 @@
         <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>33</v>
@@ -4738,55 +4792,85 @@
       <c r="F112" s="12"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" hidden="1" spans="1:7">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="21" t="s">
+    <row r="113" ht="15.75" spans="1:7">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" ht="15.75" spans="1:7">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" ht="15.75" spans="1:7">
+      <c r="A115" s="20"/>
+      <c r="B115" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E115" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" ht="15.75" hidden="1" spans="1:7">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" s="21" t="s">
+      <c r="F115" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" ht="15.75" spans="1:7">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
+      <c r="E116" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117"/>
@@ -12335,14 +12419,9 @@
       <c r="E1194"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F114" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="FETHI.M"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A1:F114">
-      <sortCondition ref="D1:D109"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F116" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:F116">
+      <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
   </autoFilter>
@@ -12363,29 +12442,27 @@
     <hyperlink ref="F63" r:id="rId14" display="lakhdar_belhallouche@hotmail.fr"/>
     <hyperlink ref="F57" r:id="rId15" display="aliaissani97@gmail.com"/>
     <hyperlink ref="F61" r:id="rId16" display="meriembelabed5@gmail.com"/>
-    <hyperlink ref="F58" r:id="rId17" display="arab4abdelmajid@gmail"/>
-    <hyperlink ref="F98" r:id="rId18" display="mehadjiameslem@gmail.com"/>
-    <hyperlink ref="F72" r:id="rId19" display="douaaboularaf@gmail.com"/>
-    <hyperlink ref="F71" r:id="rId20" display="boukhari_sf@yahoo.com"/>
-    <hyperlink ref="F68" r:id="rId21" display="rawnakritedj@gmail.com"/>
-    <hyperlink ref="F88" r:id="rId22" display="kadrirania51@gmail.com"/>
-    <hyperlink ref="F108" r:id="rId23" display="zarebmohamedamine@gmail.com"/>
-    <hyperlink ref="F95" r:id="rId24" display="khalidamet4@gmail.com"/>
-    <hyperlink ref="F80" r:id="rId25" display="elghodasseabdelmadjid@gmail.com"/>
-    <hyperlink ref="F106" r:id="rId26" display="sacihamza40@gmail.com"/>
-    <hyperlink ref="F78" r:id="rId27" display="Lamia_du22@hotmail.com"/>
-    <hyperlink ref="F91" r:id="rId28" display="layatimedi@gmail.com"/>
-    <hyperlink ref="F70" r:id="rId29" display="boubkeurhalima97sba@gmail.com"/>
-    <hyperlink ref="F62" r:id="rId30" display="ri123hab@gmail.com"/>
-    <hyperlink ref="F69" r:id="rId31" display="berhenen@yahoo.fr"/>
-    <hyperlink ref="F82" r:id="rId32" display="khadidjafezazi90@gmail"/>
-    <hyperlink ref="F65" r:id="rId33" display="bendida65@gmail.com"/>
-    <hyperlink ref="F100" r:id="rId34" display="fethi22miloua@gmail.com"/>
-    <hyperlink ref="F107" r:id="rId35" display="turkibilal22@gmail.com"/>
-    <hyperlink ref="F66" r:id="rId36" display="bkbhbb22@gmail.com"/>
-    <hyperlink ref="F101" r:id="rId37" display="khelifa-mir@outlook.fr"/>
-    <hyperlink ref="F76" r:id="rId38" display="djellouli7abderrahmane@gmail.com"/>
-    <hyperlink ref="F44" r:id="rId39" display="rezoug.med@gmail.com"/>
+    <hyperlink ref="F98" r:id="rId17" display="mehadjiameslem@gmail.com"/>
+    <hyperlink ref="F72" r:id="rId18" display="douaaboularaf@gmail.com"/>
+    <hyperlink ref="F68" r:id="rId19" display="rawnakritedj@gmail.com"/>
+    <hyperlink ref="F88" r:id="rId20" display="kadrirania51@gmail.com"/>
+    <hyperlink ref="F108" r:id="rId21" display="zarebmohamedamine@gmail.com"/>
+    <hyperlink ref="F95" r:id="rId22" display="khalidamet4@gmail.com"/>
+    <hyperlink ref="F80" r:id="rId23" display="elghodasseabdelmadjid@gmail.com"/>
+    <hyperlink ref="F106" r:id="rId24" display="sacihamza40@gmail.com"/>
+    <hyperlink ref="F78" r:id="rId25" display="Lamia_du22@hotmail.com"/>
+    <hyperlink ref="F91" r:id="rId26" display="layatimedi@gmail.com"/>
+    <hyperlink ref="F70" r:id="rId27" display="boubkeurhalima97sba@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId28" display="ri123hab@gmail.com"/>
+    <hyperlink ref="F69" r:id="rId29" display="berhenen@yahoo.fr"/>
+    <hyperlink ref="F82" r:id="rId30" display="khadidjafezazi90@gmail"/>
+    <hyperlink ref="F65" r:id="rId31" display="bendida65@gmail.com"/>
+    <hyperlink ref="F100" r:id="rId32" display="fethi22miloua@gmail.com"/>
+    <hyperlink ref="F107" r:id="rId33" display="turkibilal22@gmail.com"/>
+    <hyperlink ref="F66" r:id="rId34" display="bkbhbb22@gmail.com"/>
+    <hyperlink ref="F101" r:id="rId35" display="khelifa-mir@outlook.fr"/>
+    <hyperlink ref="F76" r:id="rId36" display="djellouli7abderrahmane@gmail.com"/>
+    <hyperlink ref="F44" r:id="rId37" display="rezoug.med@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12412,2269 +12489,2269 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>339</v>
+      <c r="A1" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>343</v>
+      <c r="A2" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
-      <c r="A3" s="29"/>
-      <c r="B3" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>346</v>
+      <c r="A3" s="31"/>
+      <c r="B3" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
-      <c r="A4" s="29"/>
-      <c r="B4" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>349</v>
+      <c r="A4" s="31"/>
+      <c r="B4" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>351</v>
+      <c r="A5" s="31"/>
+      <c r="B5" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:4">
+      <c r="A7" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="1:4">
+      <c r="A8" s="31"/>
+      <c r="B8" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="D9" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:4">
+      <c r="A10" s="31"/>
+      <c r="B10" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="D10" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="1:4">
+      <c r="A11" s="31"/>
+      <c r="B11" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="1:4">
+      <c r="A12" s="31"/>
+      <c r="B12" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="32" t="s">
+    <row r="13" ht="15.75" spans="1:4">
+      <c r="A13" s="31"/>
+      <c r="B13" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" spans="1:4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" spans="1:4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="1:4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>367</v>
+      <c r="D13" s="30" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>369</v>
+      <c r="A14" s="31"/>
+      <c r="B14" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>371</v>
+      <c r="A15" s="31"/>
+      <c r="B15" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>373</v>
+      <c r="A16" s="31"/>
+      <c r="B16" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="656" ht="15.75"/>
     <row r="657" ht="15.75" spans="1:4">
-      <c r="A657" s="35"/>
-      <c r="B657" s="35"/>
-      <c r="C657" s="35"/>
-      <c r="D657" s="35"/>
+      <c r="A657" s="37"/>
+      <c r="B657" s="37"/>
+      <c r="C657" s="37"/>
+      <c r="D657" s="37"/>
     </row>
     <row r="658" ht="15.75" spans="1:4">
-      <c r="A658" s="35"/>
-      <c r="B658" s="35"/>
-      <c r="C658" s="35"/>
-      <c r="D658" s="35"/>
+      <c r="A658" s="37"/>
+      <c r="B658" s="37"/>
+      <c r="C658" s="37"/>
+      <c r="D658" s="37"/>
     </row>
     <row r="659" ht="15.75" spans="1:4">
-      <c r="A659" s="35"/>
-      <c r="B659" s="35"/>
-      <c r="C659" s="35"/>
-      <c r="D659" s="35"/>
+      <c r="A659" s="37"/>
+      <c r="B659" s="37"/>
+      <c r="C659" s="37"/>
+      <c r="D659" s="37"/>
     </row>
     <row r="660" ht="15.75" spans="1:4">
-      <c r="A660" s="35"/>
-      <c r="B660" s="35"/>
-      <c r="C660" s="35"/>
-      <c r="D660" s="35"/>
+      <c r="A660" s="37"/>
+      <c r="B660" s="37"/>
+      <c r="C660" s="37"/>
+      <c r="D660" s="37"/>
     </row>
     <row r="661" ht="15.75" spans="1:4">
-      <c r="A661" s="35"/>
-      <c r="B661" s="35"/>
-      <c r="C661" s="35"/>
-      <c r="D661" s="35"/>
+      <c r="A661" s="37"/>
+      <c r="B661" s="37"/>
+      <c r="C661" s="37"/>
+      <c r="D661" s="37"/>
     </row>
     <row r="662" ht="15.75" spans="1:4">
-      <c r="A662" s="35"/>
-      <c r="B662" s="35"/>
-      <c r="C662" s="35"/>
-      <c r="D662" s="35"/>
+      <c r="A662" s="37"/>
+      <c r="B662" s="37"/>
+      <c r="C662" s="37"/>
+      <c r="D662" s="37"/>
     </row>
     <row r="663" ht="15.75" spans="1:4">
-      <c r="A663" s="35"/>
-      <c r="B663" s="35"/>
-      <c r="C663" s="35"/>
-      <c r="D663" s="35"/>
+      <c r="A663" s="37"/>
+      <c r="B663" s="37"/>
+      <c r="C663" s="37"/>
+      <c r="D663" s="37"/>
     </row>
     <row r="664" ht="15.75" spans="1:4">
-      <c r="A664" s="35"/>
-      <c r="B664" s="35"/>
-      <c r="C664" s="35"/>
-      <c r="D664" s="35"/>
+      <c r="A664" s="37"/>
+      <c r="B664" s="37"/>
+      <c r="C664" s="37"/>
+      <c r="D664" s="37"/>
     </row>
     <row r="665" ht="15.75" spans="1:4">
-      <c r="A665" s="35"/>
-      <c r="B665" s="35"/>
-      <c r="C665" s="35"/>
-      <c r="D665" s="35"/>
+      <c r="A665" s="37"/>
+      <c r="B665" s="37"/>
+      <c r="C665" s="37"/>
+      <c r="D665" s="37"/>
     </row>
     <row r="666" ht="15.75" spans="1:4">
-      <c r="A666" s="35"/>
-      <c r="B666" s="35"/>
-      <c r="C666" s="35"/>
-      <c r="D666" s="35"/>
+      <c r="A666" s="37"/>
+      <c r="B666" s="37"/>
+      <c r="C666" s="37"/>
+      <c r="D666" s="37"/>
     </row>
     <row r="667" ht="15.75" spans="1:4">
-      <c r="A667" s="35"/>
-      <c r="B667" s="35"/>
-      <c r="C667" s="35"/>
-      <c r="D667" s="35"/>
+      <c r="A667" s="37"/>
+      <c r="B667" s="37"/>
+      <c r="C667" s="37"/>
+      <c r="D667" s="37"/>
     </row>
     <row r="668" ht="15.75" spans="1:4">
-      <c r="A668" s="35"/>
-      <c r="B668" s="35"/>
-      <c r="C668" s="35"/>
-      <c r="D668" s="35"/>
+      <c r="A668" s="37"/>
+      <c r="B668" s="37"/>
+      <c r="C668" s="37"/>
+      <c r="D668" s="37"/>
     </row>
     <row r="669" ht="15.75" spans="1:4">
-      <c r="A669" s="35"/>
-      <c r="B669" s="35"/>
-      <c r="C669" s="35"/>
-      <c r="D669" s="35"/>
+      <c r="A669" s="37"/>
+      <c r="B669" s="37"/>
+      <c r="C669" s="37"/>
+      <c r="D669" s="37"/>
     </row>
     <row r="670" ht="15.75" spans="1:4">
-      <c r="A670" s="35"/>
-      <c r="B670" s="35"/>
-      <c r="C670" s="35"/>
-      <c r="D670" s="35"/>
+      <c r="A670" s="37"/>
+      <c r="B670" s="37"/>
+      <c r="C670" s="37"/>
+      <c r="D670" s="37"/>
     </row>
     <row r="671" ht="15.75" spans="1:4">
-      <c r="A671" s="35"/>
-      <c r="B671" s="35"/>
-      <c r="C671" s="35"/>
-      <c r="D671" s="35"/>
+      <c r="A671" s="37"/>
+      <c r="B671" s="37"/>
+      <c r="C671" s="37"/>
+      <c r="D671" s="37"/>
     </row>
     <row r="672" ht="15.75" spans="1:4">
-      <c r="A672" s="35"/>
-      <c r="B672" s="35"/>
-      <c r="C672" s="35"/>
-      <c r="D672" s="35"/>
+      <c r="A672" s="37"/>
+      <c r="B672" s="37"/>
+      <c r="C672" s="37"/>
+      <c r="D672" s="37"/>
     </row>
     <row r="673" ht="15.75" spans="1:4">
-      <c r="A673" s="35"/>
-      <c r="B673" s="35"/>
-      <c r="C673" s="35"/>
-      <c r="D673" s="35"/>
+      <c r="A673" s="37"/>
+      <c r="B673" s="37"/>
+      <c r="C673" s="37"/>
+      <c r="D673" s="37"/>
     </row>
     <row r="674" ht="15.75" spans="1:4">
-      <c r="A674" s="35"/>
-      <c r="B674" s="35"/>
-      <c r="C674" s="35"/>
-      <c r="D674" s="35"/>
+      <c r="A674" s="37"/>
+      <c r="B674" s="37"/>
+      <c r="C674" s="37"/>
+      <c r="D674" s="37"/>
     </row>
     <row r="675" ht="15.75" spans="1:4">
-      <c r="A675" s="35"/>
-      <c r="B675" s="35"/>
-      <c r="C675" s="35"/>
-      <c r="D675" s="35"/>
+      <c r="A675" s="37"/>
+      <c r="B675" s="37"/>
+      <c r="C675" s="37"/>
+      <c r="D675" s="37"/>
     </row>
     <row r="676" ht="15.75" spans="1:4">
-      <c r="A676" s="35"/>
-      <c r="B676" s="35"/>
-      <c r="C676" s="35"/>
-      <c r="D676" s="35"/>
+      <c r="A676" s="37"/>
+      <c r="B676" s="37"/>
+      <c r="C676" s="37"/>
+      <c r="D676" s="37"/>
     </row>
     <row r="677" ht="15.75" spans="1:4">
-      <c r="A677" s="35"/>
-      <c r="B677" s="35"/>
-      <c r="C677" s="35"/>
-      <c r="D677" s="35"/>
+      <c r="A677" s="37"/>
+      <c r="B677" s="37"/>
+      <c r="C677" s="37"/>
+      <c r="D677" s="37"/>
     </row>
     <row r="678" ht="15.75" spans="1:4">
-      <c r="A678" s="35"/>
-      <c r="B678" s="35"/>
-      <c r="C678" s="35"/>
-      <c r="D678" s="35"/>
+      <c r="A678" s="37"/>
+      <c r="B678" s="37"/>
+      <c r="C678" s="37"/>
+      <c r="D678" s="37"/>
     </row>
     <row r="679" ht="15.75" spans="1:4">
-      <c r="A679" s="35"/>
-      <c r="B679" s="35"/>
-      <c r="C679" s="35"/>
-      <c r="D679" s="35"/>
+      <c r="A679" s="37"/>
+      <c r="B679" s="37"/>
+      <c r="C679" s="37"/>
+      <c r="D679" s="37"/>
     </row>
     <row r="680" ht="15.75" spans="1:4">
-      <c r="A680" s="35"/>
-      <c r="B680" s="35"/>
-      <c r="C680" s="35"/>
-      <c r="D680" s="35"/>
+      <c r="A680" s="37"/>
+      <c r="B680" s="37"/>
+      <c r="C680" s="37"/>
+      <c r="D680" s="37"/>
     </row>
     <row r="681" ht="15.75" spans="1:4">
-      <c r="A681" s="35"/>
-      <c r="B681" s="35"/>
-      <c r="C681" s="35"/>
-      <c r="D681" s="35"/>
+      <c r="A681" s="37"/>
+      <c r="B681" s="37"/>
+      <c r="C681" s="37"/>
+      <c r="D681" s="37"/>
     </row>
     <row r="682" ht="15.75" spans="1:4">
-      <c r="A682" s="35"/>
-      <c r="B682" s="35"/>
-      <c r="C682" s="35"/>
-      <c r="D682" s="35"/>
+      <c r="A682" s="37"/>
+      <c r="B682" s="37"/>
+      <c r="C682" s="37"/>
+      <c r="D682" s="37"/>
     </row>
     <row r="683" ht="15.75" spans="1:4">
-      <c r="A683" s="35"/>
-      <c r="B683" s="35"/>
-      <c r="C683" s="35"/>
-      <c r="D683" s="35"/>
+      <c r="A683" s="37"/>
+      <c r="B683" s="37"/>
+      <c r="C683" s="37"/>
+      <c r="D683" s="37"/>
     </row>
     <row r="684" ht="15.75" spans="1:4">
-      <c r="A684" s="35"/>
-      <c r="B684" s="35"/>
-      <c r="C684" s="35"/>
-      <c r="D684" s="35"/>
+      <c r="A684" s="37"/>
+      <c r="B684" s="37"/>
+      <c r="C684" s="37"/>
+      <c r="D684" s="37"/>
     </row>
     <row r="685" ht="15.75" spans="1:4">
-      <c r="A685" s="35"/>
-      <c r="B685" s="35"/>
-      <c r="C685" s="35"/>
-      <c r="D685" s="35"/>
+      <c r="A685" s="37"/>
+      <c r="B685" s="37"/>
+      <c r="C685" s="37"/>
+      <c r="D685" s="37"/>
     </row>
     <row r="686" ht="15.75" spans="1:4">
-      <c r="A686" s="35"/>
-      <c r="B686" s="35"/>
-      <c r="C686" s="35"/>
-      <c r="D686" s="35"/>
+      <c r="A686" s="37"/>
+      <c r="B686" s="37"/>
+      <c r="C686" s="37"/>
+      <c r="D686" s="37"/>
     </row>
     <row r="687" ht="15.75" spans="1:4">
-      <c r="A687" s="35"/>
-      <c r="B687" s="35"/>
-      <c r="C687" s="35"/>
-      <c r="D687" s="35"/>
+      <c r="A687" s="37"/>
+      <c r="B687" s="37"/>
+      <c r="C687" s="37"/>
+      <c r="D687" s="37"/>
     </row>
     <row r="688" ht="15.75" spans="1:4">
-      <c r="A688" s="35"/>
-      <c r="B688" s="35"/>
-      <c r="C688" s="35"/>
-      <c r="D688" s="35"/>
+      <c r="A688" s="37"/>
+      <c r="B688" s="37"/>
+      <c r="C688" s="37"/>
+      <c r="D688" s="37"/>
     </row>
     <row r="689" ht="15.75" spans="1:4">
-      <c r="A689" s="35"/>
-      <c r="B689" s="35"/>
-      <c r="C689" s="35"/>
-      <c r="D689" s="35"/>
+      <c r="A689" s="37"/>
+      <c r="B689" s="37"/>
+      <c r="C689" s="37"/>
+      <c r="D689" s="37"/>
     </row>
     <row r="690" ht="15.75" spans="1:4">
-      <c r="A690" s="35"/>
-      <c r="B690" s="35"/>
-      <c r="C690" s="35"/>
-      <c r="D690" s="35"/>
+      <c r="A690" s="37"/>
+      <c r="B690" s="37"/>
+      <c r="C690" s="37"/>
+      <c r="D690" s="37"/>
     </row>
     <row r="691" ht="15.75" spans="1:4">
-      <c r="A691" s="35"/>
-      <c r="B691" s="35"/>
-      <c r="C691" s="35"/>
-      <c r="D691" s="35"/>
+      <c r="A691" s="37"/>
+      <c r="B691" s="37"/>
+      <c r="C691" s="37"/>
+      <c r="D691" s="37"/>
     </row>
     <row r="692" ht="15.75" spans="1:4">
-      <c r="A692" s="35"/>
-      <c r="B692" s="35"/>
-      <c r="C692" s="35"/>
-      <c r="D692" s="35"/>
+      <c r="A692" s="37"/>
+      <c r="B692" s="37"/>
+      <c r="C692" s="37"/>
+      <c r="D692" s="37"/>
     </row>
     <row r="693" ht="15.75" spans="1:4">
-      <c r="A693" s="35"/>
-      <c r="B693" s="35"/>
-      <c r="C693" s="35"/>
-      <c r="D693" s="35"/>
+      <c r="A693" s="37"/>
+      <c r="B693" s="37"/>
+      <c r="C693" s="37"/>
+      <c r="D693" s="37"/>
     </row>
     <row r="694" ht="15.75" spans="1:4">
-      <c r="A694" s="35"/>
-      <c r="B694" s="35"/>
-      <c r="C694" s="35"/>
-      <c r="D694" s="35"/>
+      <c r="A694" s="37"/>
+      <c r="B694" s="37"/>
+      <c r="C694" s="37"/>
+      <c r="D694" s="37"/>
     </row>
     <row r="695" ht="15.75" spans="1:4">
-      <c r="A695" s="35"/>
-      <c r="B695" s="35"/>
-      <c r="C695" s="35"/>
-      <c r="D695" s="35"/>
+      <c r="A695" s="37"/>
+      <c r="B695" s="37"/>
+      <c r="C695" s="37"/>
+      <c r="D695" s="37"/>
     </row>
     <row r="696" ht="15.75" spans="1:4">
-      <c r="A696" s="35"/>
-      <c r="B696" s="35"/>
-      <c r="C696" s="35"/>
-      <c r="D696" s="35"/>
+      <c r="A696" s="37"/>
+      <c r="B696" s="37"/>
+      <c r="C696" s="37"/>
+      <c r="D696" s="37"/>
     </row>
     <row r="697" ht="15.75" spans="1:4">
-      <c r="A697" s="35"/>
-      <c r="B697" s="35"/>
-      <c r="C697" s="35"/>
-      <c r="D697" s="35"/>
+      <c r="A697" s="37"/>
+      <c r="B697" s="37"/>
+      <c r="C697" s="37"/>
+      <c r="D697" s="37"/>
     </row>
     <row r="698" ht="15.75" spans="1:4">
-      <c r="A698" s="35"/>
-      <c r="B698" s="35"/>
-      <c r="C698" s="35"/>
-      <c r="D698" s="35"/>
+      <c r="A698" s="37"/>
+      <c r="B698" s="37"/>
+      <c r="C698" s="37"/>
+      <c r="D698" s="37"/>
     </row>
     <row r="699" ht="15.75" spans="1:4">
-      <c r="A699" s="35"/>
-      <c r="B699" s="35"/>
-      <c r="C699" s="35"/>
-      <c r="D699" s="35"/>
+      <c r="A699" s="37"/>
+      <c r="B699" s="37"/>
+      <c r="C699" s="37"/>
+      <c r="D699" s="37"/>
     </row>
     <row r="700" ht="15.75" spans="1:4">
-      <c r="A700" s="35"/>
-      <c r="B700" s="35"/>
-      <c r="C700" s="35"/>
-      <c r="D700" s="35"/>
+      <c r="A700" s="37"/>
+      <c r="B700" s="37"/>
+      <c r="C700" s="37"/>
+      <c r="D700" s="37"/>
     </row>
     <row r="701" ht="15.75" spans="1:4">
-      <c r="A701" s="35"/>
-      <c r="B701" s="35"/>
-      <c r="C701" s="35"/>
-      <c r="D701" s="35"/>
+      <c r="A701" s="37"/>
+      <c r="B701" s="37"/>
+      <c r="C701" s="37"/>
+      <c r="D701" s="37"/>
     </row>
     <row r="702" ht="15.75" spans="1:4">
-      <c r="A702" s="35"/>
-      <c r="B702" s="35"/>
-      <c r="C702" s="35"/>
-      <c r="D702" s="35"/>
+      <c r="A702" s="37"/>
+      <c r="B702" s="37"/>
+      <c r="C702" s="37"/>
+      <c r="D702" s="37"/>
     </row>
     <row r="703" ht="15.75" spans="1:4">
-      <c r="A703" s="35"/>
-      <c r="B703" s="35"/>
-      <c r="C703" s="35"/>
-      <c r="D703" s="35"/>
+      <c r="A703" s="37"/>
+      <c r="B703" s="37"/>
+      <c r="C703" s="37"/>
+      <c r="D703" s="37"/>
     </row>
     <row r="704" ht="15.75" spans="1:4">
-      <c r="A704" s="35"/>
-      <c r="B704" s="35"/>
-      <c r="C704" s="35"/>
-      <c r="D704" s="35"/>
+      <c r="A704" s="37"/>
+      <c r="B704" s="37"/>
+      <c r="C704" s="37"/>
+      <c r="D704" s="37"/>
     </row>
     <row r="705" ht="15.75" spans="1:4">
-      <c r="A705" s="35"/>
-      <c r="B705" s="35"/>
-      <c r="C705" s="35"/>
-      <c r="D705" s="35"/>
+      <c r="A705" s="37"/>
+      <c r="B705" s="37"/>
+      <c r="C705" s="37"/>
+      <c r="D705" s="37"/>
     </row>
     <row r="706" ht="15.75" spans="1:4">
-      <c r="A706" s="35"/>
-      <c r="B706" s="35"/>
-      <c r="C706" s="35"/>
-      <c r="D706" s="35"/>
+      <c r="A706" s="37"/>
+      <c r="B706" s="37"/>
+      <c r="C706" s="37"/>
+      <c r="D706" s="37"/>
     </row>
     <row r="707" ht="15.75" spans="1:4">
-      <c r="A707" s="35"/>
-      <c r="B707" s="35"/>
-      <c r="C707" s="35"/>
-      <c r="D707" s="35"/>
+      <c r="A707" s="37"/>
+      <c r="B707" s="37"/>
+      <c r="C707" s="37"/>
+      <c r="D707" s="37"/>
     </row>
     <row r="708" ht="15.75" spans="1:4">
-      <c r="A708" s="35"/>
-      <c r="B708" s="35"/>
-      <c r="C708" s="35"/>
-      <c r="D708" s="35"/>
+      <c r="A708" s="37"/>
+      <c r="B708" s="37"/>
+      <c r="C708" s="37"/>
+      <c r="D708" s="37"/>
     </row>
     <row r="709" ht="15.75" spans="1:4">
-      <c r="A709" s="35"/>
-      <c r="B709" s="35"/>
-      <c r="C709" s="35"/>
-      <c r="D709" s="35"/>
+      <c r="A709" s="37"/>
+      <c r="B709" s="37"/>
+      <c r="C709" s="37"/>
+      <c r="D709" s="37"/>
     </row>
     <row r="710" ht="15.75" spans="1:4">
-      <c r="A710" s="35"/>
-      <c r="B710" s="35"/>
-      <c r="C710" s="35"/>
-      <c r="D710" s="35"/>
+      <c r="A710" s="37"/>
+      <c r="B710" s="37"/>
+      <c r="C710" s="37"/>
+      <c r="D710" s="37"/>
     </row>
     <row r="711" ht="15.75" spans="1:4">
-      <c r="A711" s="35"/>
-      <c r="B711" s="35"/>
-      <c r="C711" s="35"/>
-      <c r="D711" s="35"/>
+      <c r="A711" s="37"/>
+      <c r="B711" s="37"/>
+      <c r="C711" s="37"/>
+      <c r="D711" s="37"/>
     </row>
     <row r="712" ht="15.75" spans="1:4">
-      <c r="A712" s="35"/>
-      <c r="B712" s="35"/>
-      <c r="C712" s="35"/>
-      <c r="D712" s="35"/>
+      <c r="A712" s="37"/>
+      <c r="B712" s="37"/>
+      <c r="C712" s="37"/>
+      <c r="D712" s="37"/>
     </row>
     <row r="713" ht="15.75" spans="1:4">
-      <c r="A713" s="35"/>
-      <c r="B713" s="35"/>
-      <c r="C713" s="35"/>
-      <c r="D713" s="35"/>
+      <c r="A713" s="37"/>
+      <c r="B713" s="37"/>
+      <c r="C713" s="37"/>
+      <c r="D713" s="37"/>
     </row>
     <row r="714" ht="15.75" spans="1:4">
-      <c r="A714" s="35"/>
-      <c r="B714" s="35"/>
-      <c r="C714" s="35"/>
-      <c r="D714" s="35"/>
+      <c r="A714" s="37"/>
+      <c r="B714" s="37"/>
+      <c r="C714" s="37"/>
+      <c r="D714" s="37"/>
     </row>
     <row r="715" ht="15.75" spans="1:4">
-      <c r="A715" s="35"/>
-      <c r="B715" s="35"/>
-      <c r="C715" s="35"/>
-      <c r="D715" s="35"/>
+      <c r="A715" s="37"/>
+      <c r="B715" s="37"/>
+      <c r="C715" s="37"/>
+      <c r="D715" s="37"/>
     </row>
     <row r="716" ht="15.75" spans="1:4">
-      <c r="A716" s="35"/>
-      <c r="B716" s="35"/>
-      <c r="C716" s="35"/>
-      <c r="D716" s="35"/>
+      <c r="A716" s="37"/>
+      <c r="B716" s="37"/>
+      <c r="C716" s="37"/>
+      <c r="D716" s="37"/>
     </row>
     <row r="717" ht="15.75" spans="1:4">
-      <c r="A717" s="35"/>
-      <c r="B717" s="35"/>
-      <c r="C717" s="35"/>
-      <c r="D717" s="35"/>
+      <c r="A717" s="37"/>
+      <c r="B717" s="37"/>
+      <c r="C717" s="37"/>
+      <c r="D717" s="37"/>
     </row>
     <row r="718" ht="15.75" spans="1:4">
-      <c r="A718" s="35"/>
-      <c r="B718" s="35"/>
-      <c r="C718" s="35"/>
-      <c r="D718" s="35"/>
+      <c r="A718" s="37"/>
+      <c r="B718" s="37"/>
+      <c r="C718" s="37"/>
+      <c r="D718" s="37"/>
     </row>
     <row r="719" ht="15.75" spans="1:4">
-      <c r="A719" s="35"/>
-      <c r="B719" s="35"/>
-      <c r="C719" s="35"/>
-      <c r="D719" s="35"/>
+      <c r="A719" s="37"/>
+      <c r="B719" s="37"/>
+      <c r="C719" s="37"/>
+      <c r="D719" s="37"/>
     </row>
     <row r="720" ht="15.75" spans="1:4">
-      <c r="A720" s="35"/>
-      <c r="B720" s="35"/>
-      <c r="C720" s="35"/>
-      <c r="D720" s="35"/>
+      <c r="A720" s="37"/>
+      <c r="B720" s="37"/>
+      <c r="C720" s="37"/>
+      <c r="D720" s="37"/>
     </row>
     <row r="721" ht="15.75" spans="1:4">
-      <c r="A721" s="35"/>
-      <c r="B721" s="35"/>
-      <c r="C721" s="35"/>
-      <c r="D721" s="35"/>
+      <c r="A721" s="37"/>
+      <c r="B721" s="37"/>
+      <c r="C721" s="37"/>
+      <c r="D721" s="37"/>
     </row>
     <row r="722" ht="15.75" spans="1:4">
-      <c r="A722" s="35"/>
-      <c r="B722" s="35"/>
-      <c r="C722" s="35"/>
-      <c r="D722" s="35"/>
+      <c r="A722" s="37"/>
+      <c r="B722" s="37"/>
+      <c r="C722" s="37"/>
+      <c r="D722" s="37"/>
     </row>
     <row r="723" ht="15.75" spans="1:4">
-      <c r="A723" s="35"/>
-      <c r="B723" s="35"/>
-      <c r="C723" s="35"/>
-      <c r="D723" s="35"/>
+      <c r="A723" s="37"/>
+      <c r="B723" s="37"/>
+      <c r="C723" s="37"/>
+      <c r="D723" s="37"/>
     </row>
     <row r="724" ht="15.75" spans="1:4">
-      <c r="A724" s="35"/>
-      <c r="B724" s="35"/>
-      <c r="C724" s="35"/>
-      <c r="D724" s="35"/>
+      <c r="A724" s="37"/>
+      <c r="B724" s="37"/>
+      <c r="C724" s="37"/>
+      <c r="D724" s="37"/>
     </row>
     <row r="725" ht="15.75" spans="1:4">
-      <c r="A725" s="35"/>
-      <c r="B725" s="35"/>
-      <c r="C725" s="35"/>
-      <c r="D725" s="35"/>
+      <c r="A725" s="37"/>
+      <c r="B725" s="37"/>
+      <c r="C725" s="37"/>
+      <c r="D725" s="37"/>
     </row>
     <row r="726" ht="15.75" spans="1:4">
-      <c r="A726" s="35"/>
-      <c r="B726" s="35"/>
-      <c r="C726" s="35"/>
-      <c r="D726" s="35"/>
+      <c r="A726" s="37"/>
+      <c r="B726" s="37"/>
+      <c r="C726" s="37"/>
+      <c r="D726" s="37"/>
     </row>
     <row r="727" ht="15.75" spans="1:4">
-      <c r="A727" s="35"/>
-      <c r="B727" s="35"/>
-      <c r="C727" s="35"/>
-      <c r="D727" s="35"/>
+      <c r="A727" s="37"/>
+      <c r="B727" s="37"/>
+      <c r="C727" s="37"/>
+      <c r="D727" s="37"/>
     </row>
     <row r="728" ht="15.75" spans="1:4">
-      <c r="A728" s="35"/>
-      <c r="B728" s="35"/>
-      <c r="C728" s="35"/>
-      <c r="D728" s="35"/>
+      <c r="A728" s="37"/>
+      <c r="B728" s="37"/>
+      <c r="C728" s="37"/>
+      <c r="D728" s="37"/>
     </row>
     <row r="729" ht="15.75" spans="1:4">
-      <c r="A729" s="35"/>
-      <c r="B729" s="35"/>
-      <c r="C729" s="35"/>
-      <c r="D729" s="35"/>
+      <c r="A729" s="37"/>
+      <c r="B729" s="37"/>
+      <c r="C729" s="37"/>
+      <c r="D729" s="37"/>
     </row>
     <row r="730" ht="15.75" spans="1:4">
-      <c r="A730" s="35"/>
-      <c r="B730" s="35"/>
-      <c r="C730" s="35"/>
-      <c r="D730" s="35"/>
+      <c r="A730" s="37"/>
+      <c r="B730" s="37"/>
+      <c r="C730" s="37"/>
+      <c r="D730" s="37"/>
     </row>
     <row r="731" ht="15.75" spans="1:4">
-      <c r="A731" s="35"/>
-      <c r="B731" s="35"/>
-      <c r="C731" s="35"/>
-      <c r="D731" s="35"/>
+      <c r="A731" s="37"/>
+      <c r="B731" s="37"/>
+      <c r="C731" s="37"/>
+      <c r="D731" s="37"/>
     </row>
     <row r="732" ht="15.75" spans="1:4">
-      <c r="A732" s="35"/>
-      <c r="B732" s="35"/>
-      <c r="C732" s="35"/>
-      <c r="D732" s="35"/>
+      <c r="A732" s="37"/>
+      <c r="B732" s="37"/>
+      <c r="C732" s="37"/>
+      <c r="D732" s="37"/>
     </row>
     <row r="733" ht="15.75" spans="1:4">
-      <c r="A733" s="35"/>
-      <c r="B733" s="35"/>
-      <c r="C733" s="35"/>
-      <c r="D733" s="35"/>
+      <c r="A733" s="37"/>
+      <c r="B733" s="37"/>
+      <c r="C733" s="37"/>
+      <c r="D733" s="37"/>
     </row>
     <row r="734" ht="15.75" spans="1:4">
-      <c r="A734" s="35"/>
-      <c r="B734" s="35"/>
-      <c r="C734" s="35"/>
-      <c r="D734" s="35"/>
+      <c r="A734" s="37"/>
+      <c r="B734" s="37"/>
+      <c r="C734" s="37"/>
+      <c r="D734" s="37"/>
     </row>
     <row r="735" ht="15.75" spans="1:4">
-      <c r="A735" s="35"/>
-      <c r="B735" s="35"/>
-      <c r="C735" s="35"/>
-      <c r="D735" s="35"/>
+      <c r="A735" s="37"/>
+      <c r="B735" s="37"/>
+      <c r="C735" s="37"/>
+      <c r="D735" s="37"/>
     </row>
     <row r="736" ht="15.75" spans="1:4">
-      <c r="A736" s="35"/>
-      <c r="B736" s="35"/>
-      <c r="C736" s="35"/>
-      <c r="D736" s="35"/>
+      <c r="A736" s="37"/>
+      <c r="B736" s="37"/>
+      <c r="C736" s="37"/>
+      <c r="D736" s="37"/>
     </row>
     <row r="737" ht="15.75" spans="1:4">
-      <c r="A737" s="35"/>
-      <c r="B737" s="35"/>
-      <c r="C737" s="35"/>
-      <c r="D737" s="35"/>
+      <c r="A737" s="37"/>
+      <c r="B737" s="37"/>
+      <c r="C737" s="37"/>
+      <c r="D737" s="37"/>
     </row>
     <row r="738" ht="15.75" spans="1:4">
-      <c r="A738" s="35"/>
-      <c r="B738" s="35"/>
-      <c r="C738" s="35"/>
-      <c r="D738" s="35"/>
+      <c r="A738" s="37"/>
+      <c r="B738" s="37"/>
+      <c r="C738" s="37"/>
+      <c r="D738" s="37"/>
     </row>
     <row r="739" ht="15.75" spans="1:4">
-      <c r="A739" s="35"/>
-      <c r="B739" s="35"/>
-      <c r="C739" s="35"/>
-      <c r="D739" s="35"/>
+      <c r="A739" s="37"/>
+      <c r="B739" s="37"/>
+      <c r="C739" s="37"/>
+      <c r="D739" s="37"/>
     </row>
     <row r="740" ht="15.75" spans="1:4">
-      <c r="A740" s="35"/>
-      <c r="B740" s="35"/>
-      <c r="C740" s="35"/>
-      <c r="D740" s="35"/>
+      <c r="A740" s="37"/>
+      <c r="B740" s="37"/>
+      <c r="C740" s="37"/>
+      <c r="D740" s="37"/>
     </row>
     <row r="741" ht="15.75" spans="1:4">
-      <c r="A741" s="35"/>
-      <c r="B741" s="35"/>
-      <c r="C741" s="35"/>
-      <c r="D741" s="35"/>
+      <c r="A741" s="37"/>
+      <c r="B741" s="37"/>
+      <c r="C741" s="37"/>
+      <c r="D741" s="37"/>
     </row>
     <row r="742" ht="15.75" spans="1:4">
-      <c r="A742" s="35"/>
-      <c r="B742" s="35"/>
-      <c r="C742" s="35"/>
-      <c r="D742" s="35"/>
+      <c r="A742" s="37"/>
+      <c r="B742" s="37"/>
+      <c r="C742" s="37"/>
+      <c r="D742" s="37"/>
     </row>
     <row r="743" ht="15.75" spans="1:4">
-      <c r="A743" s="35"/>
-      <c r="B743" s="35"/>
-      <c r="C743" s="35"/>
-      <c r="D743" s="35"/>
+      <c r="A743" s="37"/>
+      <c r="B743" s="37"/>
+      <c r="C743" s="37"/>
+      <c r="D743" s="37"/>
     </row>
     <row r="744" ht="15.75" spans="1:4">
-      <c r="A744" s="35"/>
-      <c r="B744" s="35"/>
-      <c r="C744" s="35"/>
-      <c r="D744" s="35"/>
+      <c r="A744" s="37"/>
+      <c r="B744" s="37"/>
+      <c r="C744" s="37"/>
+      <c r="D744" s="37"/>
     </row>
     <row r="745" ht="15.75" spans="1:4">
-      <c r="A745" s="35"/>
-      <c r="B745" s="35"/>
-      <c r="C745" s="35"/>
-      <c r="D745" s="35"/>
+      <c r="A745" s="37"/>
+      <c r="B745" s="37"/>
+      <c r="C745" s="37"/>
+      <c r="D745" s="37"/>
     </row>
     <row r="746" ht="15.75" spans="1:4">
-      <c r="A746" s="35"/>
-      <c r="B746" s="35"/>
-      <c r="C746" s="35"/>
-      <c r="D746" s="35"/>
+      <c r="A746" s="37"/>
+      <c r="B746" s="37"/>
+      <c r="C746" s="37"/>
+      <c r="D746" s="37"/>
     </row>
     <row r="747" ht="15.75" spans="1:4">
-      <c r="A747" s="35"/>
-      <c r="B747" s="35"/>
-      <c r="C747" s="35"/>
-      <c r="D747" s="35"/>
+      <c r="A747" s="37"/>
+      <c r="B747" s="37"/>
+      <c r="C747" s="37"/>
+      <c r="D747" s="37"/>
     </row>
     <row r="748" ht="15.75" spans="1:4">
-      <c r="A748" s="35"/>
-      <c r="B748" s="35"/>
-      <c r="C748" s="35"/>
-      <c r="D748" s="35"/>
+      <c r="A748" s="37"/>
+      <c r="B748" s="37"/>
+      <c r="C748" s="37"/>
+      <c r="D748" s="37"/>
     </row>
     <row r="749" ht="15.75" spans="1:4">
-      <c r="A749" s="35"/>
-      <c r="B749" s="35"/>
-      <c r="C749" s="35"/>
-      <c r="D749" s="35"/>
+      <c r="A749" s="37"/>
+      <c r="B749" s="37"/>
+      <c r="C749" s="37"/>
+      <c r="D749" s="37"/>
     </row>
     <row r="750" ht="15.75" spans="1:4">
-      <c r="A750" s="35"/>
-      <c r="B750" s="35"/>
-      <c r="C750" s="35"/>
-      <c r="D750" s="35"/>
+      <c r="A750" s="37"/>
+      <c r="B750" s="37"/>
+      <c r="C750" s="37"/>
+      <c r="D750" s="37"/>
     </row>
     <row r="751" ht="15.75" spans="1:4">
-      <c r="A751" s="35"/>
-      <c r="B751" s="35"/>
-      <c r="C751" s="35"/>
-      <c r="D751" s="35"/>
+      <c r="A751" s="37"/>
+      <c r="B751" s="37"/>
+      <c r="C751" s="37"/>
+      <c r="D751" s="37"/>
     </row>
     <row r="752" ht="15.75" spans="1:4">
-      <c r="A752" s="35"/>
-      <c r="B752" s="35"/>
-      <c r="C752" s="35"/>
-      <c r="D752" s="35"/>
+      <c r="A752" s="37"/>
+      <c r="B752" s="37"/>
+      <c r="C752" s="37"/>
+      <c r="D752" s="37"/>
     </row>
     <row r="753" ht="15.75" spans="1:4">
-      <c r="A753" s="35"/>
-      <c r="B753" s="35"/>
-      <c r="C753" s="35"/>
-      <c r="D753" s="35"/>
+      <c r="A753" s="37"/>
+      <c r="B753" s="37"/>
+      <c r="C753" s="37"/>
+      <c r="D753" s="37"/>
     </row>
     <row r="754" ht="15.75" spans="1:4">
-      <c r="A754" s="35"/>
-      <c r="B754" s="35"/>
-      <c r="C754" s="35"/>
-      <c r="D754" s="35"/>
+      <c r="A754" s="37"/>
+      <c r="B754" s="37"/>
+      <c r="C754" s="37"/>
+      <c r="D754" s="37"/>
     </row>
     <row r="755" ht="15.75" spans="1:4">
-      <c r="A755" s="35"/>
-      <c r="B755" s="35"/>
-      <c r="C755" s="35"/>
-      <c r="D755" s="35"/>
+      <c r="A755" s="37"/>
+      <c r="B755" s="37"/>
+      <c r="C755" s="37"/>
+      <c r="D755" s="37"/>
     </row>
     <row r="756" ht="15.75" spans="1:4">
-      <c r="A756" s="35"/>
-      <c r="B756" s="35"/>
-      <c r="C756" s="35"/>
-      <c r="D756" s="35"/>
+      <c r="A756" s="37"/>
+      <c r="B756" s="37"/>
+      <c r="C756" s="37"/>
+      <c r="D756" s="37"/>
     </row>
     <row r="757" ht="15.75" spans="1:4">
-      <c r="A757" s="35"/>
-      <c r="B757" s="35"/>
-      <c r="C757" s="35"/>
-      <c r="D757" s="35"/>
+      <c r="A757" s="37"/>
+      <c r="B757" s="37"/>
+      <c r="C757" s="37"/>
+      <c r="D757" s="37"/>
     </row>
     <row r="758" ht="15.75" spans="1:4">
-      <c r="A758" s="35"/>
-      <c r="B758" s="35"/>
-      <c r="C758" s="35"/>
-      <c r="D758" s="35"/>
+      <c r="A758" s="37"/>
+      <c r="B758" s="37"/>
+      <c r="C758" s="37"/>
+      <c r="D758" s="37"/>
     </row>
     <row r="759" ht="15.75" spans="1:4">
-      <c r="A759" s="35"/>
-      <c r="B759" s="35"/>
-      <c r="C759" s="35"/>
-      <c r="D759" s="35"/>
+      <c r="A759" s="37"/>
+      <c r="B759" s="37"/>
+      <c r="C759" s="37"/>
+      <c r="D759" s="37"/>
     </row>
     <row r="760" ht="15.75" spans="1:4">
-      <c r="A760" s="35"/>
-      <c r="B760" s="35"/>
-      <c r="C760" s="35"/>
-      <c r="D760" s="35"/>
+      <c r="A760" s="37"/>
+      <c r="B760" s="37"/>
+      <c r="C760" s="37"/>
+      <c r="D760" s="37"/>
     </row>
     <row r="761" ht="15.75" spans="1:4">
-      <c r="A761" s="35"/>
-      <c r="B761" s="35"/>
-      <c r="C761" s="35"/>
-      <c r="D761" s="35"/>
+      <c r="A761" s="37"/>
+      <c r="B761" s="37"/>
+      <c r="C761" s="37"/>
+      <c r="D761" s="37"/>
     </row>
     <row r="762" ht="15.75" spans="1:4">
-      <c r="A762" s="35"/>
-      <c r="B762" s="35"/>
-      <c r="C762" s="35"/>
-      <c r="D762" s="35"/>
+      <c r="A762" s="37"/>
+      <c r="B762" s="37"/>
+      <c r="C762" s="37"/>
+      <c r="D762" s="37"/>
     </row>
     <row r="763" ht="15.75" spans="1:4">
-      <c r="A763" s="35"/>
-      <c r="B763" s="35"/>
-      <c r="C763" s="35"/>
-      <c r="D763" s="35"/>
+      <c r="A763" s="37"/>
+      <c r="B763" s="37"/>
+      <c r="C763" s="37"/>
+      <c r="D763" s="37"/>
     </row>
     <row r="764" ht="15.75" spans="1:4">
-      <c r="A764" s="35"/>
-      <c r="B764" s="35"/>
-      <c r="C764" s="35"/>
-      <c r="D764" s="35"/>
+      <c r="A764" s="37"/>
+      <c r="B764" s="37"/>
+      <c r="C764" s="37"/>
+      <c r="D764" s="37"/>
     </row>
     <row r="765" ht="15.75" spans="1:4">
-      <c r="A765" s="35"/>
-      <c r="B765" s="35"/>
-      <c r="C765" s="35"/>
-      <c r="D765" s="35"/>
+      <c r="A765" s="37"/>
+      <c r="B765" s="37"/>
+      <c r="C765" s="37"/>
+      <c r="D765" s="37"/>
     </row>
     <row r="766" ht="15.75" spans="1:4">
-      <c r="A766" s="35"/>
-      <c r="B766" s="35"/>
-      <c r="C766" s="35"/>
-      <c r="D766" s="35"/>
+      <c r="A766" s="37"/>
+      <c r="B766" s="37"/>
+      <c r="C766" s="37"/>
+      <c r="D766" s="37"/>
     </row>
     <row r="767" ht="15.75" spans="1:4">
-      <c r="A767" s="35"/>
-      <c r="B767" s="35"/>
-      <c r="C767" s="35"/>
-      <c r="D767" s="35"/>
+      <c r="A767" s="37"/>
+      <c r="B767" s="37"/>
+      <c r="C767" s="37"/>
+      <c r="D767" s="37"/>
     </row>
     <row r="768" ht="15.75" spans="1:4">
-      <c r="A768" s="35"/>
-      <c r="B768" s="35"/>
-      <c r="C768" s="35"/>
-      <c r="D768" s="35"/>
+      <c r="A768" s="37"/>
+      <c r="B768" s="37"/>
+      <c r="C768" s="37"/>
+      <c r="D768" s="37"/>
     </row>
     <row r="769" ht="15.75" spans="1:4">
-      <c r="A769" s="35"/>
-      <c r="B769" s="35"/>
-      <c r="C769" s="35"/>
-      <c r="D769" s="35"/>
+      <c r="A769" s="37"/>
+      <c r="B769" s="37"/>
+      <c r="C769" s="37"/>
+      <c r="D769" s="37"/>
     </row>
     <row r="770" ht="15.75" spans="1:4">
-      <c r="A770" s="35"/>
-      <c r="B770" s="35"/>
-      <c r="C770" s="35"/>
-      <c r="D770" s="35"/>
+      <c r="A770" s="37"/>
+      <c r="B770" s="37"/>
+      <c r="C770" s="37"/>
+      <c r="D770" s="37"/>
     </row>
     <row r="771" ht="15.75" spans="1:4">
-      <c r="A771" s="35"/>
-      <c r="B771" s="35"/>
-      <c r="C771" s="35"/>
-      <c r="D771" s="35"/>
+      <c r="A771" s="37"/>
+      <c r="B771" s="37"/>
+      <c r="C771" s="37"/>
+      <c r="D771" s="37"/>
     </row>
     <row r="772" ht="15.75" spans="1:4">
-      <c r="A772" s="35"/>
-      <c r="B772" s="35"/>
-      <c r="C772" s="35"/>
-      <c r="D772" s="35"/>
+      <c r="A772" s="37"/>
+      <c r="B772" s="37"/>
+      <c r="C772" s="37"/>
+      <c r="D772" s="37"/>
     </row>
     <row r="773" ht="15.75" spans="1:4">
-      <c r="A773" s="35"/>
-      <c r="B773" s="35"/>
-      <c r="C773" s="35"/>
-      <c r="D773" s="35"/>
+      <c r="A773" s="37"/>
+      <c r="B773" s="37"/>
+      <c r="C773" s="37"/>
+      <c r="D773" s="37"/>
     </row>
     <row r="774" ht="15.75" spans="1:4">
-      <c r="A774" s="35"/>
-      <c r="B774" s="35"/>
-      <c r="C774" s="35"/>
-      <c r="D774" s="35"/>
+      <c r="A774" s="37"/>
+      <c r="B774" s="37"/>
+      <c r="C774" s="37"/>
+      <c r="D774" s="37"/>
     </row>
     <row r="775" ht="15.75" spans="1:4">
-      <c r="A775" s="35"/>
-      <c r="B775" s="35"/>
-      <c r="C775" s="35"/>
-      <c r="D775" s="35"/>
+      <c r="A775" s="37"/>
+      <c r="B775" s="37"/>
+      <c r="C775" s="37"/>
+      <c r="D775" s="37"/>
     </row>
     <row r="776" ht="15.75" spans="1:4">
-      <c r="A776" s="35"/>
-      <c r="B776" s="35"/>
-      <c r="C776" s="35"/>
-      <c r="D776" s="35"/>
+      <c r="A776" s="37"/>
+      <c r="B776" s="37"/>
+      <c r="C776" s="37"/>
+      <c r="D776" s="37"/>
     </row>
     <row r="777" ht="15.75" spans="1:4">
-      <c r="A777" s="35"/>
-      <c r="B777" s="35"/>
-      <c r="C777" s="35"/>
-      <c r="D777" s="35"/>
+      <c r="A777" s="37"/>
+      <c r="B777" s="37"/>
+      <c r="C777" s="37"/>
+      <c r="D777" s="37"/>
     </row>
     <row r="778" ht="15.75" spans="1:4">
-      <c r="A778" s="35"/>
-      <c r="B778" s="35"/>
-      <c r="C778" s="35"/>
-      <c r="D778" s="35"/>
+      <c r="A778" s="37"/>
+      <c r="B778" s="37"/>
+      <c r="C778" s="37"/>
+      <c r="D778" s="37"/>
     </row>
     <row r="779" ht="15.75" spans="1:4">
-      <c r="A779" s="35"/>
-      <c r="B779" s="35"/>
-      <c r="C779" s="35"/>
-      <c r="D779" s="35"/>
+      <c r="A779" s="37"/>
+      <c r="B779" s="37"/>
+      <c r="C779" s="37"/>
+      <c r="D779" s="37"/>
     </row>
     <row r="780" ht="15.75" spans="1:4">
-      <c r="A780" s="35"/>
-      <c r="B780" s="35"/>
-      <c r="C780" s="35"/>
-      <c r="D780" s="35"/>
+      <c r="A780" s="37"/>
+      <c r="B780" s="37"/>
+      <c r="C780" s="37"/>
+      <c r="D780" s="37"/>
     </row>
     <row r="781" ht="15.75" spans="1:4">
-      <c r="A781" s="35"/>
-      <c r="B781" s="35"/>
-      <c r="C781" s="35"/>
-      <c r="D781" s="35"/>
+      <c r="A781" s="37"/>
+      <c r="B781" s="37"/>
+      <c r="C781" s="37"/>
+      <c r="D781" s="37"/>
     </row>
     <row r="782" ht="15.75" spans="1:4">
-      <c r="A782" s="35"/>
-      <c r="B782" s="35"/>
-      <c r="C782" s="35"/>
-      <c r="D782" s="35"/>
+      <c r="A782" s="37"/>
+      <c r="B782" s="37"/>
+      <c r="C782" s="37"/>
+      <c r="D782" s="37"/>
     </row>
     <row r="783" ht="15.75" spans="1:4">
-      <c r="A783" s="35"/>
-      <c r="B783" s="35"/>
-      <c r="C783" s="35"/>
-      <c r="D783" s="35"/>
+      <c r="A783" s="37"/>
+      <c r="B783" s="37"/>
+      <c r="C783" s="37"/>
+      <c r="D783" s="37"/>
     </row>
     <row r="784" ht="15.75" spans="1:4">
-      <c r="A784" s="35"/>
-      <c r="B784" s="35"/>
-      <c r="C784" s="35"/>
-      <c r="D784" s="35"/>
+      <c r="A784" s="37"/>
+      <c r="B784" s="37"/>
+      <c r="C784" s="37"/>
+      <c r="D784" s="37"/>
     </row>
     <row r="785" ht="15.75" spans="1:4">
-      <c r="A785" s="35"/>
-      <c r="B785" s="35"/>
-      <c r="C785" s="35"/>
-      <c r="D785" s="35"/>
+      <c r="A785" s="37"/>
+      <c r="B785" s="37"/>
+      <c r="C785" s="37"/>
+      <c r="D785" s="37"/>
     </row>
     <row r="786" ht="15.75" spans="1:4">
-      <c r="A786" s="35"/>
-      <c r="B786" s="35"/>
-      <c r="C786" s="35"/>
-      <c r="D786" s="35"/>
+      <c r="A786" s="37"/>
+      <c r="B786" s="37"/>
+      <c r="C786" s="37"/>
+      <c r="D786" s="37"/>
     </row>
     <row r="787" ht="15.75" spans="1:4">
-      <c r="A787" s="35"/>
-      <c r="B787" s="35"/>
-      <c r="C787" s="35"/>
-      <c r="D787" s="35"/>
+      <c r="A787" s="37"/>
+      <c r="B787" s="37"/>
+      <c r="C787" s="37"/>
+      <c r="D787" s="37"/>
     </row>
     <row r="788" ht="15.75" spans="1:4">
-      <c r="A788" s="35"/>
-      <c r="B788" s="35"/>
-      <c r="C788" s="35"/>
-      <c r="D788" s="35"/>
+      <c r="A788" s="37"/>
+      <c r="B788" s="37"/>
+      <c r="C788" s="37"/>
+      <c r="D788" s="37"/>
     </row>
     <row r="789" ht="15.75" spans="1:4">
-      <c r="A789" s="35"/>
-      <c r="B789" s="35"/>
-      <c r="C789" s="35"/>
-      <c r="D789" s="35"/>
+      <c r="A789" s="37"/>
+      <c r="B789" s="37"/>
+      <c r="C789" s="37"/>
+      <c r="D789" s="37"/>
     </row>
     <row r="790" ht="15.75" spans="1:4">
-      <c r="A790" s="35"/>
-      <c r="B790" s="35"/>
-      <c r="C790" s="35"/>
-      <c r="D790" s="35"/>
+      <c r="A790" s="37"/>
+      <c r="B790" s="37"/>
+      <c r="C790" s="37"/>
+      <c r="D790" s="37"/>
     </row>
     <row r="791" ht="15.75" spans="1:4">
-      <c r="A791" s="35"/>
-      <c r="B791" s="35"/>
-      <c r="C791" s="35"/>
-      <c r="D791" s="35"/>
+      <c r="A791" s="37"/>
+      <c r="B791" s="37"/>
+      <c r="C791" s="37"/>
+      <c r="D791" s="37"/>
     </row>
     <row r="792" ht="15.75" spans="1:4">
-      <c r="A792" s="35"/>
-      <c r="B792" s="35"/>
-      <c r="C792" s="35"/>
-      <c r="D792" s="35"/>
+      <c r="A792" s="37"/>
+      <c r="B792" s="37"/>
+      <c r="C792" s="37"/>
+      <c r="D792" s="37"/>
     </row>
     <row r="793" ht="15.75" spans="1:4">
-      <c r="A793" s="35"/>
-      <c r="B793" s="35"/>
-      <c r="C793" s="35"/>
-      <c r="D793" s="35"/>
+      <c r="A793" s="37"/>
+      <c r="B793" s="37"/>
+      <c r="C793" s="37"/>
+      <c r="D793" s="37"/>
     </row>
     <row r="794" ht="15.75" spans="1:4">
-      <c r="A794" s="35"/>
-      <c r="B794" s="35"/>
-      <c r="C794" s="35"/>
-      <c r="D794" s="35"/>
+      <c r="A794" s="37"/>
+      <c r="B794" s="37"/>
+      <c r="C794" s="37"/>
+      <c r="D794" s="37"/>
     </row>
     <row r="795" ht="15.75" spans="1:4">
-      <c r="A795" s="35"/>
-      <c r="B795" s="35"/>
-      <c r="C795" s="35"/>
-      <c r="D795" s="35"/>
+      <c r="A795" s="37"/>
+      <c r="B795" s="37"/>
+      <c r="C795" s="37"/>
+      <c r="D795" s="37"/>
     </row>
     <row r="796" ht="15.75" spans="1:4">
-      <c r="A796" s="35"/>
-      <c r="B796" s="35"/>
-      <c r="C796" s="35"/>
-      <c r="D796" s="35"/>
+      <c r="A796" s="37"/>
+      <c r="B796" s="37"/>
+      <c r="C796" s="37"/>
+      <c r="D796" s="37"/>
     </row>
     <row r="797" ht="15.75" spans="1:4">
-      <c r="A797" s="35"/>
-      <c r="B797" s="35"/>
-      <c r="C797" s="35"/>
-      <c r="D797" s="35"/>
+      <c r="A797" s="37"/>
+      <c r="B797" s="37"/>
+      <c r="C797" s="37"/>
+      <c r="D797" s="37"/>
     </row>
     <row r="798" ht="15.75" spans="1:4">
-      <c r="A798" s="35"/>
-      <c r="B798" s="35"/>
-      <c r="C798" s="35"/>
-      <c r="D798" s="35"/>
+      <c r="A798" s="37"/>
+      <c r="B798" s="37"/>
+      <c r="C798" s="37"/>
+      <c r="D798" s="37"/>
     </row>
     <row r="799" ht="15.75" spans="1:4">
-      <c r="A799" s="35"/>
-      <c r="B799" s="35"/>
-      <c r="C799" s="35"/>
-      <c r="D799" s="35"/>
+      <c r="A799" s="37"/>
+      <c r="B799" s="37"/>
+      <c r="C799" s="37"/>
+      <c r="D799" s="37"/>
     </row>
     <row r="800" ht="15.75" spans="1:4">
-      <c r="A800" s="35"/>
-      <c r="B800" s="35"/>
-      <c r="C800" s="35"/>
-      <c r="D800" s="35"/>
+      <c r="A800" s="37"/>
+      <c r="B800" s="37"/>
+      <c r="C800" s="37"/>
+      <c r="D800" s="37"/>
     </row>
     <row r="801" ht="15.75" spans="1:4">
-      <c r="A801" s="35"/>
-      <c r="B801" s="35"/>
-      <c r="C801" s="35"/>
-      <c r="D801" s="35"/>
+      <c r="A801" s="37"/>
+      <c r="B801" s="37"/>
+      <c r="C801" s="37"/>
+      <c r="D801" s="37"/>
     </row>
     <row r="802" ht="15.75" spans="1:4">
-      <c r="A802" s="35"/>
-      <c r="B802" s="35"/>
-      <c r="C802" s="35"/>
-      <c r="D802" s="35"/>
+      <c r="A802" s="37"/>
+      <c r="B802" s="37"/>
+      <c r="C802" s="37"/>
+      <c r="D802" s="37"/>
     </row>
     <row r="803" ht="15.75" spans="1:4">
-      <c r="A803" s="35"/>
-      <c r="B803" s="35"/>
-      <c r="C803" s="35"/>
-      <c r="D803" s="35"/>
+      <c r="A803" s="37"/>
+      <c r="B803" s="37"/>
+      <c r="C803" s="37"/>
+      <c r="D803" s="37"/>
     </row>
     <row r="804" ht="15.75" spans="1:4">
-      <c r="A804" s="35"/>
-      <c r="B804" s="35"/>
-      <c r="C804" s="35"/>
-      <c r="D804" s="35"/>
+      <c r="A804" s="37"/>
+      <c r="B804" s="37"/>
+      <c r="C804" s="37"/>
+      <c r="D804" s="37"/>
     </row>
     <row r="805" ht="15.75" spans="1:4">
-      <c r="A805" s="35"/>
-      <c r="B805" s="35"/>
-      <c r="C805" s="35"/>
-      <c r="D805" s="35"/>
+      <c r="A805" s="37"/>
+      <c r="B805" s="37"/>
+      <c r="C805" s="37"/>
+      <c r="D805" s="37"/>
     </row>
     <row r="806" ht="15.75" spans="1:4">
-      <c r="A806" s="35"/>
-      <c r="B806" s="35"/>
-      <c r="C806" s="35"/>
-      <c r="D806" s="35"/>
+      <c r="A806" s="37"/>
+      <c r="B806" s="37"/>
+      <c r="C806" s="37"/>
+      <c r="D806" s="37"/>
     </row>
     <row r="807" ht="15.75" spans="1:4">
-      <c r="A807" s="35"/>
-      <c r="B807" s="35"/>
-      <c r="C807" s="35"/>
-      <c r="D807" s="35"/>
+      <c r="A807" s="37"/>
+      <c r="B807" s="37"/>
+      <c r="C807" s="37"/>
+      <c r="D807" s="37"/>
     </row>
     <row r="808" ht="15.75" spans="1:4">
-      <c r="A808" s="35"/>
-      <c r="B808" s="35"/>
-      <c r="C808" s="35"/>
-      <c r="D808" s="35"/>
+      <c r="A808" s="37"/>
+      <c r="B808" s="37"/>
+      <c r="C808" s="37"/>
+      <c r="D808" s="37"/>
     </row>
     <row r="809" ht="15.75" spans="1:4">
-      <c r="A809" s="35"/>
-      <c r="B809" s="35"/>
-      <c r="C809" s="35"/>
-      <c r="D809" s="35"/>
+      <c r="A809" s="37"/>
+      <c r="B809" s="37"/>
+      <c r="C809" s="37"/>
+      <c r="D809" s="37"/>
     </row>
     <row r="810" ht="15.75" spans="1:4">
-      <c r="A810" s="35"/>
-      <c r="B810" s="35"/>
-      <c r="C810" s="35"/>
-      <c r="D810" s="35"/>
+      <c r="A810" s="37"/>
+      <c r="B810" s="37"/>
+      <c r="C810" s="37"/>
+      <c r="D810" s="37"/>
     </row>
     <row r="811" ht="15.75" spans="1:4">
-      <c r="A811" s="35"/>
-      <c r="B811" s="35"/>
-      <c r="C811" s="35"/>
-      <c r="D811" s="35"/>
+      <c r="A811" s="37"/>
+      <c r="B811" s="37"/>
+      <c r="C811" s="37"/>
+      <c r="D811" s="37"/>
     </row>
     <row r="812" ht="15.75" spans="1:4">
-      <c r="A812" s="35"/>
-      <c r="B812" s="35"/>
-      <c r="C812" s="35"/>
-      <c r="D812" s="35"/>
+      <c r="A812" s="37"/>
+      <c r="B812" s="37"/>
+      <c r="C812" s="37"/>
+      <c r="D812" s="37"/>
     </row>
     <row r="813" ht="15.75" spans="1:4">
-      <c r="A813" s="35"/>
-      <c r="B813" s="35"/>
-      <c r="C813" s="35"/>
-      <c r="D813" s="35"/>
+      <c r="A813" s="37"/>
+      <c r="B813" s="37"/>
+      <c r="C813" s="37"/>
+      <c r="D813" s="37"/>
     </row>
     <row r="814" ht="15.75" spans="1:4">
-      <c r="A814" s="35"/>
-      <c r="B814" s="35"/>
-      <c r="C814" s="35"/>
-      <c r="D814" s="35"/>
+      <c r="A814" s="37"/>
+      <c r="B814" s="37"/>
+      <c r="C814" s="37"/>
+      <c r="D814" s="37"/>
     </row>
     <row r="815" ht="15.75" spans="1:4">
-      <c r="A815" s="35"/>
-      <c r="B815" s="35"/>
-      <c r="C815" s="35"/>
-      <c r="D815" s="35"/>
+      <c r="A815" s="37"/>
+      <c r="B815" s="37"/>
+      <c r="C815" s="37"/>
+      <c r="D815" s="37"/>
     </row>
     <row r="816" ht="15.75" spans="1:4">
-      <c r="A816" s="35"/>
-      <c r="B816" s="35"/>
-      <c r="C816" s="35"/>
-      <c r="D816" s="35"/>
+      <c r="A816" s="37"/>
+      <c r="B816" s="37"/>
+      <c r="C816" s="37"/>
+      <c r="D816" s="37"/>
     </row>
     <row r="817" ht="15.75" spans="1:4">
-      <c r="A817" s="35"/>
-      <c r="B817" s="35"/>
-      <c r="C817" s="35"/>
-      <c r="D817" s="35"/>
+      <c r="A817" s="37"/>
+      <c r="B817" s="37"/>
+      <c r="C817" s="37"/>
+      <c r="D817" s="37"/>
     </row>
     <row r="818" ht="15.75" spans="1:4">
-      <c r="A818" s="35"/>
-      <c r="B818" s="35"/>
-      <c r="C818" s="35"/>
-      <c r="D818" s="35"/>
+      <c r="A818" s="37"/>
+      <c r="B818" s="37"/>
+      <c r="C818" s="37"/>
+      <c r="D818" s="37"/>
     </row>
     <row r="819" ht="15.75" spans="1:4">
-      <c r="A819" s="35"/>
-      <c r="B819" s="35"/>
-      <c r="C819" s="35"/>
-      <c r="D819" s="35"/>
+      <c r="A819" s="37"/>
+      <c r="B819" s="37"/>
+      <c r="C819" s="37"/>
+      <c r="D819" s="37"/>
     </row>
     <row r="820" ht="15.75" spans="1:4">
-      <c r="A820" s="35"/>
-      <c r="B820" s="35"/>
-      <c r="C820" s="35"/>
-      <c r="D820" s="35"/>
+      <c r="A820" s="37"/>
+      <c r="B820" s="37"/>
+      <c r="C820" s="37"/>
+      <c r="D820" s="37"/>
     </row>
     <row r="821" ht="15.75" spans="1:4">
-      <c r="A821" s="35"/>
-      <c r="B821" s="35"/>
-      <c r="C821" s="35"/>
-      <c r="D821" s="35"/>
+      <c r="A821" s="37"/>
+      <c r="B821" s="37"/>
+      <c r="C821" s="37"/>
+      <c r="D821" s="37"/>
     </row>
     <row r="822" ht="15.75" spans="1:4">
-      <c r="A822" s="35"/>
-      <c r="B822" s="35"/>
-      <c r="C822" s="35"/>
-      <c r="D822" s="35"/>
+      <c r="A822" s="37"/>
+      <c r="B822" s="37"/>
+      <c r="C822" s="37"/>
+      <c r="D822" s="37"/>
     </row>
     <row r="823" ht="15.75" spans="1:4">
-      <c r="A823" s="35"/>
-      <c r="B823" s="35"/>
-      <c r="C823" s="35"/>
-      <c r="D823" s="35"/>
+      <c r="A823" s="37"/>
+      <c r="B823" s="37"/>
+      <c r="C823" s="37"/>
+      <c r="D823" s="37"/>
     </row>
     <row r="824" ht="15.75" spans="1:4">
-      <c r="A824" s="35"/>
-      <c r="B824" s="35"/>
-      <c r="C824" s="35"/>
-      <c r="D824" s="35"/>
+      <c r="A824" s="37"/>
+      <c r="B824" s="37"/>
+      <c r="C824" s="37"/>
+      <c r="D824" s="37"/>
     </row>
     <row r="825" ht="15.75" spans="1:4">
-      <c r="A825" s="35"/>
-      <c r="B825" s="35"/>
-      <c r="C825" s="35"/>
-      <c r="D825" s="35"/>
+      <c r="A825" s="37"/>
+      <c r="B825" s="37"/>
+      <c r="C825" s="37"/>
+      <c r="D825" s="37"/>
     </row>
     <row r="826" ht="15.75" spans="1:4">
-      <c r="A826" s="35"/>
-      <c r="B826" s="35"/>
-      <c r="C826" s="35"/>
-      <c r="D826" s="35"/>
+      <c r="A826" s="37"/>
+      <c r="B826" s="37"/>
+      <c r="C826" s="37"/>
+      <c r="D826" s="37"/>
     </row>
     <row r="827" ht="15.75" spans="1:4">
-      <c r="A827" s="35"/>
-      <c r="B827" s="35"/>
-      <c r="C827" s="35"/>
-      <c r="D827" s="35"/>
+      <c r="A827" s="37"/>
+      <c r="B827" s="37"/>
+      <c r="C827" s="37"/>
+      <c r="D827" s="37"/>
     </row>
     <row r="828" ht="15.75" spans="1:4">
-      <c r="A828" s="35"/>
-      <c r="B828" s="35"/>
-      <c r="C828" s="35"/>
-      <c r="D828" s="35"/>
+      <c r="A828" s="37"/>
+      <c r="B828" s="37"/>
+      <c r="C828" s="37"/>
+      <c r="D828" s="37"/>
     </row>
     <row r="829" ht="15.75" spans="1:4">
-      <c r="A829" s="35"/>
-      <c r="B829" s="35"/>
-      <c r="C829" s="35"/>
-      <c r="D829" s="35"/>
+      <c r="A829" s="37"/>
+      <c r="B829" s="37"/>
+      <c r="C829" s="37"/>
+      <c r="D829" s="37"/>
     </row>
     <row r="830" ht="15.75" spans="1:4">
-      <c r="A830" s="35"/>
-      <c r="B830" s="35"/>
-      <c r="C830" s="35"/>
-      <c r="D830" s="35"/>
+      <c r="A830" s="37"/>
+      <c r="B830" s="37"/>
+      <c r="C830" s="37"/>
+      <c r="D830" s="37"/>
     </row>
     <row r="831" ht="15.75" spans="1:4">
-      <c r="A831" s="35"/>
-      <c r="B831" s="35"/>
-      <c r="C831" s="35"/>
-      <c r="D831" s="35"/>
+      <c r="A831" s="37"/>
+      <c r="B831" s="37"/>
+      <c r="C831" s="37"/>
+      <c r="D831" s="37"/>
     </row>
     <row r="832" ht="15.75" spans="1:4">
-      <c r="A832" s="35"/>
-      <c r="B832" s="35"/>
-      <c r="C832" s="35"/>
-      <c r="D832" s="35"/>
+      <c r="A832" s="37"/>
+      <c r="B832" s="37"/>
+      <c r="C832" s="37"/>
+      <c r="D832" s="37"/>
     </row>
     <row r="833" ht="15.75" spans="1:4">
-      <c r="A833" s="35"/>
-      <c r="B833" s="35"/>
-      <c r="C833" s="35"/>
-      <c r="D833" s="35"/>
+      <c r="A833" s="37"/>
+      <c r="B833" s="37"/>
+      <c r="C833" s="37"/>
+      <c r="D833" s="37"/>
     </row>
     <row r="834" ht="15.75" spans="1:4">
-      <c r="A834" s="35"/>
-      <c r="B834" s="35"/>
-      <c r="C834" s="35"/>
-      <c r="D834" s="35"/>
+      <c r="A834" s="37"/>
+      <c r="B834" s="37"/>
+      <c r="C834" s="37"/>
+      <c r="D834" s="37"/>
     </row>
     <row r="835" ht="15.75" spans="1:4">
-      <c r="A835" s="35"/>
-      <c r="B835" s="35"/>
-      <c r="C835" s="35"/>
-      <c r="D835" s="35"/>
+      <c r="A835" s="37"/>
+      <c r="B835" s="37"/>
+      <c r="C835" s="37"/>
+      <c r="D835" s="37"/>
     </row>
     <row r="836" ht="15.75" spans="1:4">
-      <c r="A836" s="35"/>
-      <c r="B836" s="35"/>
-      <c r="C836" s="35"/>
-      <c r="D836" s="35"/>
+      <c r="A836" s="37"/>
+      <c r="B836" s="37"/>
+      <c r="C836" s="37"/>
+      <c r="D836" s="37"/>
     </row>
     <row r="837" ht="15.75" spans="1:4">
-      <c r="A837" s="35"/>
-      <c r="B837" s="35"/>
-      <c r="C837" s="35"/>
-      <c r="D837" s="35"/>
+      <c r="A837" s="37"/>
+      <c r="B837" s="37"/>
+      <c r="C837" s="37"/>
+      <c r="D837" s="37"/>
     </row>
     <row r="838" ht="15.75" spans="1:4">
-      <c r="A838" s="35"/>
-      <c r="B838" s="35"/>
-      <c r="C838" s="35"/>
-      <c r="D838" s="35"/>
+      <c r="A838" s="37"/>
+      <c r="B838" s="37"/>
+      <c r="C838" s="37"/>
+      <c r="D838" s="37"/>
     </row>
     <row r="839" ht="15.75" spans="1:4">
-      <c r="A839" s="35"/>
-      <c r="B839" s="35"/>
-      <c r="C839" s="35"/>
-      <c r="D839" s="35"/>
+      <c r="A839" s="37"/>
+      <c r="B839" s="37"/>
+      <c r="C839" s="37"/>
+      <c r="D839" s="37"/>
     </row>
     <row r="840" ht="15.75" spans="1:4">
-      <c r="A840" s="35"/>
-      <c r="B840" s="35"/>
-      <c r="C840" s="35"/>
-      <c r="D840" s="35"/>
+      <c r="A840" s="37"/>
+      <c r="B840" s="37"/>
+      <c r="C840" s="37"/>
+      <c r="D840" s="37"/>
     </row>
     <row r="841" ht="15.75" spans="1:4">
-      <c r="A841" s="35"/>
-      <c r="B841" s="35"/>
-      <c r="C841" s="35"/>
-      <c r="D841" s="35"/>
+      <c r="A841" s="37"/>
+      <c r="B841" s="37"/>
+      <c r="C841" s="37"/>
+      <c r="D841" s="37"/>
     </row>
     <row r="842" ht="15.75" spans="1:4">
-      <c r="A842" s="35"/>
-      <c r="B842" s="35"/>
-      <c r="C842" s="35"/>
-      <c r="D842" s="35"/>
+      <c r="A842" s="37"/>
+      <c r="B842" s="37"/>
+      <c r="C842" s="37"/>
+      <c r="D842" s="37"/>
     </row>
     <row r="843" ht="15.75" spans="1:4">
-      <c r="A843" s="35"/>
-      <c r="B843" s="35"/>
-      <c r="C843" s="35"/>
-      <c r="D843" s="35"/>
+      <c r="A843" s="37"/>
+      <c r="B843" s="37"/>
+      <c r="C843" s="37"/>
+      <c r="D843" s="37"/>
     </row>
     <row r="844" ht="15.75" spans="1:4">
-      <c r="A844" s="35"/>
-      <c r="B844" s="35"/>
-      <c r="C844" s="35"/>
-      <c r="D844" s="35"/>
+      <c r="A844" s="37"/>
+      <c r="B844" s="37"/>
+      <c r="C844" s="37"/>
+      <c r="D844" s="37"/>
     </row>
     <row r="845" ht="15.75" spans="1:4">
-      <c r="A845" s="35"/>
-      <c r="B845" s="35"/>
-      <c r="C845" s="35"/>
-      <c r="D845" s="35"/>
+      <c r="A845" s="37"/>
+      <c r="B845" s="37"/>
+      <c r="C845" s="37"/>
+      <c r="D845" s="37"/>
     </row>
     <row r="846" ht="15.75" spans="1:4">
-      <c r="A846" s="35"/>
-      <c r="B846" s="35"/>
-      <c r="C846" s="35"/>
-      <c r="D846" s="35"/>
+      <c r="A846" s="37"/>
+      <c r="B846" s="37"/>
+      <c r="C846" s="37"/>
+      <c r="D846" s="37"/>
     </row>
     <row r="847" ht="15.75" spans="1:4">
-      <c r="A847" s="35"/>
-      <c r="B847" s="35"/>
-      <c r="C847" s="35"/>
-      <c r="D847" s="35"/>
+      <c r="A847" s="37"/>
+      <c r="B847" s="37"/>
+      <c r="C847" s="37"/>
+      <c r="D847" s="37"/>
     </row>
     <row r="848" ht="15.75" spans="1:4">
-      <c r="A848" s="35"/>
-      <c r="B848" s="35"/>
-      <c r="C848" s="35"/>
-      <c r="D848" s="35"/>
+      <c r="A848" s="37"/>
+      <c r="B848" s="37"/>
+      <c r="C848" s="37"/>
+      <c r="D848" s="37"/>
     </row>
     <row r="849" ht="15.75" spans="1:4">
-      <c r="A849" s="35"/>
-      <c r="B849" s="35"/>
-      <c r="C849" s="35"/>
-      <c r="D849" s="35"/>
+      <c r="A849" s="37"/>
+      <c r="B849" s="37"/>
+      <c r="C849" s="37"/>
+      <c r="D849" s="37"/>
     </row>
     <row r="850" ht="15.75" spans="1:4">
-      <c r="A850" s="35"/>
-      <c r="B850" s="35"/>
-      <c r="C850" s="35"/>
-      <c r="D850" s="35"/>
+      <c r="A850" s="37"/>
+      <c r="B850" s="37"/>
+      <c r="C850" s="37"/>
+      <c r="D850" s="37"/>
     </row>
     <row r="851" ht="15.75" spans="1:4">
-      <c r="A851" s="35"/>
-      <c r="B851" s="35"/>
-      <c r="C851" s="35"/>
-      <c r="D851" s="35"/>
+      <c r="A851" s="37"/>
+      <c r="B851" s="37"/>
+      <c r="C851" s="37"/>
+      <c r="D851" s="37"/>
     </row>
     <row r="852" ht="15.75" spans="1:4">
-      <c r="A852" s="35"/>
-      <c r="B852" s="35"/>
-      <c r="C852" s="35"/>
-      <c r="D852" s="35"/>
+      <c r="A852" s="37"/>
+      <c r="B852" s="37"/>
+      <c r="C852" s="37"/>
+      <c r="D852" s="37"/>
     </row>
     <row r="853" ht="15.75" spans="1:4">
-      <c r="A853" s="35"/>
-      <c r="B853" s="35"/>
-      <c r="C853" s="35"/>
-      <c r="D853" s="35"/>
+      <c r="A853" s="37"/>
+      <c r="B853" s="37"/>
+      <c r="C853" s="37"/>
+      <c r="D853" s="37"/>
     </row>
     <row r="854" ht="15.75" spans="1:4">
-      <c r="A854" s="35"/>
-      <c r="B854" s="35"/>
-      <c r="C854" s="35"/>
-      <c r="D854" s="35"/>
+      <c r="A854" s="37"/>
+      <c r="B854" s="37"/>
+      <c r="C854" s="37"/>
+      <c r="D854" s="37"/>
     </row>
     <row r="855" ht="15.75" spans="1:4">
-      <c r="A855" s="35"/>
-      <c r="B855" s="35"/>
-      <c r="C855" s="35"/>
-      <c r="D855" s="35"/>
+      <c r="A855" s="37"/>
+      <c r="B855" s="37"/>
+      <c r="C855" s="37"/>
+      <c r="D855" s="37"/>
     </row>
     <row r="856" ht="15.75" spans="1:4">
-      <c r="A856" s="35"/>
-      <c r="B856" s="35"/>
-      <c r="C856" s="35"/>
-      <c r="D856" s="35"/>
+      <c r="A856" s="37"/>
+      <c r="B856" s="37"/>
+      <c r="C856" s="37"/>
+      <c r="D856" s="37"/>
     </row>
     <row r="857" ht="15.75" spans="1:4">
-      <c r="A857" s="35"/>
-      <c r="B857" s="35"/>
-      <c r="C857" s="35"/>
-      <c r="D857" s="35"/>
+      <c r="A857" s="37"/>
+      <c r="B857" s="37"/>
+      <c r="C857" s="37"/>
+      <c r="D857" s="37"/>
     </row>
     <row r="858" ht="15.75" spans="1:4">
-      <c r="A858" s="35"/>
-      <c r="B858" s="35"/>
-      <c r="C858" s="35"/>
-      <c r="D858" s="35"/>
+      <c r="A858" s="37"/>
+      <c r="B858" s="37"/>
+      <c r="C858" s="37"/>
+      <c r="D858" s="37"/>
     </row>
     <row r="859" ht="15.75" spans="1:4">
-      <c r="A859" s="35"/>
-      <c r="B859" s="35"/>
-      <c r="C859" s="35"/>
-      <c r="D859" s="35"/>
+      <c r="A859" s="37"/>
+      <c r="B859" s="37"/>
+      <c r="C859" s="37"/>
+      <c r="D859" s="37"/>
     </row>
     <row r="860" ht="15.75" spans="1:4">
-      <c r="A860" s="35"/>
-      <c r="B860" s="35"/>
-      <c r="C860" s="35"/>
-      <c r="D860" s="35"/>
+      <c r="A860" s="37"/>
+      <c r="B860" s="37"/>
+      <c r="C860" s="37"/>
+      <c r="D860" s="37"/>
     </row>
     <row r="861" ht="15.75" spans="1:4">
-      <c r="A861" s="35"/>
-      <c r="B861" s="35"/>
-      <c r="C861" s="35"/>
-      <c r="D861" s="35"/>
+      <c r="A861" s="37"/>
+      <c r="B861" s="37"/>
+      <c r="C861" s="37"/>
+      <c r="D861" s="37"/>
     </row>
     <row r="862" ht="15.75" spans="1:4">
-      <c r="A862" s="35"/>
-      <c r="B862" s="35"/>
-      <c r="C862" s="35"/>
-      <c r="D862" s="35"/>
+      <c r="A862" s="37"/>
+      <c r="B862" s="37"/>
+      <c r="C862" s="37"/>
+      <c r="D862" s="37"/>
     </row>
     <row r="863" ht="15.75" spans="1:4">
-      <c r="A863" s="35"/>
-      <c r="B863" s="35"/>
-      <c r="C863" s="35"/>
-      <c r="D863" s="35"/>
+      <c r="A863" s="37"/>
+      <c r="B863" s="37"/>
+      <c r="C863" s="37"/>
+      <c r="D863" s="37"/>
     </row>
     <row r="864" ht="15.75" spans="1:4">
-      <c r="A864" s="35"/>
-      <c r="B864" s="35"/>
-      <c r="C864" s="35"/>
-      <c r="D864" s="35"/>
+      <c r="A864" s="37"/>
+      <c r="B864" s="37"/>
+      <c r="C864" s="37"/>
+      <c r="D864" s="37"/>
     </row>
     <row r="865" ht="15.75" spans="1:4">
-      <c r="A865" s="35"/>
-      <c r="B865" s="35"/>
-      <c r="C865" s="35"/>
-      <c r="D865" s="35"/>
+      <c r="A865" s="37"/>
+      <c r="B865" s="37"/>
+      <c r="C865" s="37"/>
+      <c r="D865" s="37"/>
     </row>
     <row r="866" ht="15.75" spans="1:4">
-      <c r="A866" s="35"/>
-      <c r="B866" s="35"/>
-      <c r="C866" s="35"/>
-      <c r="D866" s="35"/>
+      <c r="A866" s="37"/>
+      <c r="B866" s="37"/>
+      <c r="C866" s="37"/>
+      <c r="D866" s="37"/>
     </row>
     <row r="867" ht="15.75" spans="1:4">
-      <c r="A867" s="35"/>
-      <c r="B867" s="35"/>
-      <c r="C867" s="35"/>
-      <c r="D867" s="35"/>
+      <c r="A867" s="37"/>
+      <c r="B867" s="37"/>
+      <c r="C867" s="37"/>
+      <c r="D867" s="37"/>
     </row>
     <row r="868" ht="15.75" spans="1:4">
-      <c r="A868" s="35"/>
-      <c r="B868" s="35"/>
-      <c r="C868" s="35"/>
-      <c r="D868" s="35"/>
+      <c r="A868" s="37"/>
+      <c r="B868" s="37"/>
+      <c r="C868" s="37"/>
+      <c r="D868" s="37"/>
     </row>
     <row r="869" ht="15.75" spans="1:4">
-      <c r="A869" s="35"/>
-      <c r="B869" s="35"/>
-      <c r="C869" s="35"/>
-      <c r="D869" s="35"/>
+      <c r="A869" s="37"/>
+      <c r="B869" s="37"/>
+      <c r="C869" s="37"/>
+      <c r="D869" s="37"/>
     </row>
     <row r="870" ht="15.75" spans="1:4">
-      <c r="A870" s="35"/>
-      <c r="B870" s="35"/>
-      <c r="C870" s="35"/>
-      <c r="D870" s="35"/>
+      <c r="A870" s="37"/>
+      <c r="B870" s="37"/>
+      <c r="C870" s="37"/>
+      <c r="D870" s="37"/>
     </row>
     <row r="871" ht="15.75" spans="1:4">
-      <c r="A871" s="35"/>
-      <c r="B871" s="35"/>
-      <c r="C871" s="35"/>
-      <c r="D871" s="35"/>
+      <c r="A871" s="37"/>
+      <c r="B871" s="37"/>
+      <c r="C871" s="37"/>
+      <c r="D871" s="37"/>
     </row>
     <row r="872" ht="15.75" spans="1:4">
-      <c r="A872" s="35"/>
-      <c r="B872" s="35"/>
-      <c r="C872" s="35"/>
-      <c r="D872" s="35"/>
+      <c r="A872" s="37"/>
+      <c r="B872" s="37"/>
+      <c r="C872" s="37"/>
+      <c r="D872" s="37"/>
     </row>
     <row r="873" ht="15.75" spans="1:4">
-      <c r="A873" s="35"/>
-      <c r="B873" s="35"/>
-      <c r="C873" s="35"/>
-      <c r="D873" s="35"/>
+      <c r="A873" s="37"/>
+      <c r="B873" s="37"/>
+      <c r="C873" s="37"/>
+      <c r="D873" s="37"/>
     </row>
     <row r="874" ht="15.75" spans="1:4">
-      <c r="A874" s="35"/>
-      <c r="B874" s="35"/>
-      <c r="C874" s="35"/>
-      <c r="D874" s="35"/>
+      <c r="A874" s="37"/>
+      <c r="B874" s="37"/>
+      <c r="C874" s="37"/>
+      <c r="D874" s="37"/>
     </row>
     <row r="875" ht="15.75" spans="1:4">
-      <c r="A875" s="35"/>
-      <c r="B875" s="35"/>
-      <c r="C875" s="35"/>
-      <c r="D875" s="35"/>
+      <c r="A875" s="37"/>
+      <c r="B875" s="37"/>
+      <c r="C875" s="37"/>
+      <c r="D875" s="37"/>
     </row>
     <row r="876" ht="15.75" spans="1:4">
-      <c r="A876" s="35"/>
-      <c r="B876" s="35"/>
-      <c r="C876" s="35"/>
-      <c r="D876" s="35"/>
+      <c r="A876" s="37"/>
+      <c r="B876" s="37"/>
+      <c r="C876" s="37"/>
+      <c r="D876" s="37"/>
     </row>
     <row r="877" ht="15.75" spans="1:4">
-      <c r="A877" s="35"/>
-      <c r="B877" s="35"/>
-      <c r="C877" s="35"/>
-      <c r="D877" s="35"/>
+      <c r="A877" s="37"/>
+      <c r="B877" s="37"/>
+      <c r="C877" s="37"/>
+      <c r="D877" s="37"/>
     </row>
     <row r="878" ht="15.75" spans="1:4">
-      <c r="A878" s="35"/>
-      <c r="B878" s="35"/>
-      <c r="C878" s="35"/>
-      <c r="D878" s="35"/>
+      <c r="A878" s="37"/>
+      <c r="B878" s="37"/>
+      <c r="C878" s="37"/>
+      <c r="D878" s="37"/>
     </row>
     <row r="879" ht="15.75" spans="1:4">
-      <c r="A879" s="35"/>
-      <c r="B879" s="35"/>
-      <c r="C879" s="35"/>
-      <c r="D879" s="35"/>
+      <c r="A879" s="37"/>
+      <c r="B879" s="37"/>
+      <c r="C879" s="37"/>
+      <c r="D879" s="37"/>
     </row>
     <row r="880" ht="15.75" spans="1:4">
-      <c r="A880" s="35"/>
-      <c r="B880" s="35"/>
-      <c r="C880" s="35"/>
-      <c r="D880" s="35"/>
+      <c r="A880" s="37"/>
+      <c r="B880" s="37"/>
+      <c r="C880" s="37"/>
+      <c r="D880" s="37"/>
     </row>
     <row r="881" ht="15.75" spans="1:4">
-      <c r="A881" s="35"/>
-      <c r="B881" s="35"/>
-      <c r="C881" s="35"/>
-      <c r="D881" s="35"/>
+      <c r="A881" s="37"/>
+      <c r="B881" s="37"/>
+      <c r="C881" s="37"/>
+      <c r="D881" s="37"/>
     </row>
     <row r="882" ht="15.75" spans="1:4">
-      <c r="A882" s="35"/>
-      <c r="B882" s="35"/>
-      <c r="C882" s="35"/>
-      <c r="D882" s="35"/>
+      <c r="A882" s="37"/>
+      <c r="B882" s="37"/>
+      <c r="C882" s="37"/>
+      <c r="D882" s="37"/>
     </row>
     <row r="883" ht="15.75" spans="1:4">
-      <c r="A883" s="35"/>
-      <c r="B883" s="35"/>
-      <c r="C883" s="35"/>
-      <c r="D883" s="35"/>
+      <c r="A883" s="37"/>
+      <c r="B883" s="37"/>
+      <c r="C883" s="37"/>
+      <c r="D883" s="37"/>
     </row>
     <row r="884" ht="15.75" spans="1:4">
-      <c r="A884" s="35"/>
-      <c r="B884" s="35"/>
-      <c r="C884" s="35"/>
-      <c r="D884" s="35"/>
+      <c r="A884" s="37"/>
+      <c r="B884" s="37"/>
+      <c r="C884" s="37"/>
+      <c r="D884" s="37"/>
     </row>
     <row r="885" ht="15.75" spans="1:4">
-      <c r="A885" s="35"/>
-      <c r="B885" s="35"/>
-      <c r="C885" s="35"/>
-      <c r="D885" s="35"/>
+      <c r="A885" s="37"/>
+      <c r="B885" s="37"/>
+      <c r="C885" s="37"/>
+      <c r="D885" s="37"/>
     </row>
     <row r="886" ht="15.75" spans="1:4">
-      <c r="A886" s="35"/>
-      <c r="B886" s="35"/>
-      <c r="C886" s="35"/>
-      <c r="D886" s="35"/>
+      <c r="A886" s="37"/>
+      <c r="B886" s="37"/>
+      <c r="C886" s="37"/>
+      <c r="D886" s="37"/>
     </row>
     <row r="887" ht="15.75" spans="1:4">
-      <c r="A887" s="35"/>
-      <c r="B887" s="35"/>
-      <c r="C887" s="35"/>
-      <c r="D887" s="35"/>
+      <c r="A887" s="37"/>
+      <c r="B887" s="37"/>
+      <c r="C887" s="37"/>
+      <c r="D887" s="37"/>
     </row>
     <row r="888" ht="15.75" spans="1:4">
-      <c r="A888" s="35"/>
-      <c r="B888" s="35"/>
-      <c r="C888" s="35"/>
-      <c r="D888" s="35"/>
+      <c r="A888" s="37"/>
+      <c r="B888" s="37"/>
+      <c r="C888" s="37"/>
+      <c r="D888" s="37"/>
     </row>
     <row r="889" ht="15.75" spans="1:4">
-      <c r="A889" s="35"/>
-      <c r="B889" s="35"/>
-      <c r="C889" s="35"/>
-      <c r="D889" s="35"/>
+      <c r="A889" s="37"/>
+      <c r="B889" s="37"/>
+      <c r="C889" s="37"/>
+      <c r="D889" s="37"/>
     </row>
     <row r="890" ht="15.75" spans="1:4">
-      <c r="A890" s="35"/>
-      <c r="B890" s="35"/>
-      <c r="C890" s="35"/>
-      <c r="D890" s="35"/>
+      <c r="A890" s="37"/>
+      <c r="B890" s="37"/>
+      <c r="C890" s="37"/>
+      <c r="D890" s="37"/>
     </row>
     <row r="891" ht="15.75" spans="1:4">
-      <c r="A891" s="35"/>
-      <c r="B891" s="35"/>
-      <c r="C891" s="35"/>
-      <c r="D891" s="35"/>
+      <c r="A891" s="37"/>
+      <c r="B891" s="37"/>
+      <c r="C891" s="37"/>
+      <c r="D891" s="37"/>
     </row>
     <row r="892" ht="15.75" spans="1:4">
-      <c r="A892" s="35"/>
-      <c r="B892" s="35"/>
-      <c r="C892" s="35"/>
-      <c r="D892" s="35"/>
+      <c r="A892" s="37"/>
+      <c r="B892" s="37"/>
+      <c r="C892" s="37"/>
+      <c r="D892" s="37"/>
     </row>
     <row r="893" ht="15.75" spans="1:4">
-      <c r="A893" s="35"/>
-      <c r="B893" s="35"/>
-      <c r="C893" s="35"/>
-      <c r="D893" s="35"/>
+      <c r="A893" s="37"/>
+      <c r="B893" s="37"/>
+      <c r="C893" s="37"/>
+      <c r="D893" s="37"/>
     </row>
     <row r="894" ht="15.75" spans="1:4">
-      <c r="A894" s="35"/>
-      <c r="B894" s="35"/>
-      <c r="C894" s="35"/>
-      <c r="D894" s="35"/>
+      <c r="A894" s="37"/>
+      <c r="B894" s="37"/>
+      <c r="C894" s="37"/>
+      <c r="D894" s="37"/>
     </row>
     <row r="895" ht="15.75" spans="1:4">
-      <c r="A895" s="35"/>
-      <c r="B895" s="35"/>
-      <c r="C895" s="35"/>
-      <c r="D895" s="35"/>
+      <c r="A895" s="37"/>
+      <c r="B895" s="37"/>
+      <c r="C895" s="37"/>
+      <c r="D895" s="37"/>
     </row>
     <row r="896" ht="15.75" spans="1:4">
-      <c r="A896" s="35"/>
-      <c r="B896" s="35"/>
-      <c r="C896" s="35"/>
-      <c r="D896" s="35"/>
+      <c r="A896" s="37"/>
+      <c r="B896" s="37"/>
+      <c r="C896" s="37"/>
+      <c r="D896" s="37"/>
     </row>
     <row r="897" ht="15.75" spans="1:4">
-      <c r="A897" s="35"/>
-      <c r="B897" s="35"/>
-      <c r="C897" s="35"/>
-      <c r="D897" s="35"/>
+      <c r="A897" s="37"/>
+      <c r="B897" s="37"/>
+      <c r="C897" s="37"/>
+      <c r="D897" s="37"/>
     </row>
     <row r="898" ht="15.75" spans="1:4">
-      <c r="A898" s="35"/>
-      <c r="B898" s="35"/>
-      <c r="C898" s="35"/>
-      <c r="D898" s="35"/>
+      <c r="A898" s="37"/>
+      <c r="B898" s="37"/>
+      <c r="C898" s="37"/>
+      <c r="D898" s="37"/>
     </row>
     <row r="899" ht="15.75" spans="1:4">
-      <c r="A899" s="35"/>
-      <c r="B899" s="35"/>
-      <c r="C899" s="35"/>
-      <c r="D899" s="35"/>
+      <c r="A899" s="37"/>
+      <c r="B899" s="37"/>
+      <c r="C899" s="37"/>
+      <c r="D899" s="37"/>
     </row>
     <row r="900" ht="15.75" spans="1:4">
-      <c r="A900" s="35"/>
-      <c r="B900" s="35"/>
-      <c r="C900" s="35"/>
-      <c r="D900" s="35"/>
+      <c r="A900" s="37"/>
+      <c r="B900" s="37"/>
+      <c r="C900" s="37"/>
+      <c r="D900" s="37"/>
     </row>
     <row r="901" ht="15.75" spans="1:4">
-      <c r="A901" s="35"/>
-      <c r="B901" s="35"/>
-      <c r="C901" s="35"/>
-      <c r="D901" s="35"/>
+      <c r="A901" s="37"/>
+      <c r="B901" s="37"/>
+      <c r="C901" s="37"/>
+      <c r="D901" s="37"/>
     </row>
     <row r="902" ht="15.75" spans="1:4">
-      <c r="A902" s="35"/>
-      <c r="B902" s="35"/>
-      <c r="C902" s="35"/>
-      <c r="D902" s="35"/>
+      <c r="A902" s="37"/>
+      <c r="B902" s="37"/>
+      <c r="C902" s="37"/>
+      <c r="D902" s="37"/>
     </row>
     <row r="903" ht="15.75" spans="1:4">
-      <c r="A903" s="35"/>
-      <c r="B903" s="35"/>
-      <c r="C903" s="35"/>
-      <c r="D903" s="35"/>
+      <c r="A903" s="37"/>
+      <c r="B903" s="37"/>
+      <c r="C903" s="37"/>
+      <c r="D903" s="37"/>
     </row>
     <row r="904" ht="15.75" spans="1:4">
-      <c r="A904" s="35"/>
-      <c r="B904" s="35"/>
-      <c r="C904" s="35"/>
-      <c r="D904" s="35"/>
+      <c r="A904" s="37"/>
+      <c r="B904" s="37"/>
+      <c r="C904" s="37"/>
+      <c r="D904" s="37"/>
     </row>
     <row r="905" ht="15.75" spans="1:4">
-      <c r="A905" s="35"/>
-      <c r="B905" s="35"/>
-      <c r="C905" s="35"/>
-      <c r="D905" s="35"/>
+      <c r="A905" s="37"/>
+      <c r="B905" s="37"/>
+      <c r="C905" s="37"/>
+      <c r="D905" s="37"/>
     </row>
     <row r="906" ht="15.75" spans="1:4">
-      <c r="A906" s="35"/>
-      <c r="B906" s="35"/>
-      <c r="C906" s="35"/>
-      <c r="D906" s="35"/>
+      <c r="A906" s="37"/>
+      <c r="B906" s="37"/>
+      <c r="C906" s="37"/>
+      <c r="D906" s="37"/>
     </row>
     <row r="907" ht="15.75" spans="1:4">
-      <c r="A907" s="35"/>
-      <c r="B907" s="35"/>
-      <c r="C907" s="35"/>
-      <c r="D907" s="35"/>
+      <c r="A907" s="37"/>
+      <c r="B907" s="37"/>
+      <c r="C907" s="37"/>
+      <c r="D907" s="37"/>
     </row>
     <row r="908" ht="15.75" spans="1:4">
-      <c r="A908" s="35"/>
-      <c r="B908" s="35"/>
-      <c r="C908" s="35"/>
-      <c r="D908" s="35"/>
+      <c r="A908" s="37"/>
+      <c r="B908" s="37"/>
+      <c r="C908" s="37"/>
+      <c r="D908" s="37"/>
     </row>
     <row r="909" ht="15.75" spans="1:4">
-      <c r="A909" s="35"/>
-      <c r="B909" s="35"/>
-      <c r="C909" s="35"/>
-      <c r="D909" s="35"/>
+      <c r="A909" s="37"/>
+      <c r="B909" s="37"/>
+      <c r="C909" s="37"/>
+      <c r="D909" s="37"/>
     </row>
     <row r="910" ht="15.75" spans="1:4">
-      <c r="A910" s="35"/>
-      <c r="B910" s="35"/>
-      <c r="C910" s="35"/>
-      <c r="D910" s="35"/>
+      <c r="A910" s="37"/>
+      <c r="B910" s="37"/>
+      <c r="C910" s="37"/>
+      <c r="D910" s="37"/>
     </row>
     <row r="911" ht="15.75" spans="1:4">
-      <c r="A911" s="35"/>
-      <c r="B911" s="35"/>
-      <c r="C911" s="35"/>
-      <c r="D911" s="35"/>
+      <c r="A911" s="37"/>
+      <c r="B911" s="37"/>
+      <c r="C911" s="37"/>
+      <c r="D911" s="37"/>
     </row>
     <row r="912" ht="15.75" spans="1:4">
-      <c r="A912" s="35"/>
-      <c r="B912" s="35"/>
-      <c r="C912" s="35"/>
-      <c r="D912" s="35"/>
+      <c r="A912" s="37"/>
+      <c r="B912" s="37"/>
+      <c r="C912" s="37"/>
+      <c r="D912" s="37"/>
     </row>
     <row r="913" ht="15.75" spans="1:4">
-      <c r="A913" s="35"/>
-      <c r="B913" s="35"/>
-      <c r="C913" s="35"/>
-      <c r="D913" s="35"/>
+      <c r="A913" s="37"/>
+      <c r="B913" s="37"/>
+      <c r="C913" s="37"/>
+      <c r="D913" s="37"/>
     </row>
     <row r="914" ht="15.75" spans="1:4">
-      <c r="A914" s="35"/>
-      <c r="B914" s="35"/>
-      <c r="C914" s="35"/>
-      <c r="D914" s="35"/>
+      <c r="A914" s="37"/>
+      <c r="B914" s="37"/>
+      <c r="C914" s="37"/>
+      <c r="D914" s="37"/>
     </row>
     <row r="915" ht="15.75" spans="1:4">
-      <c r="A915" s="35"/>
-      <c r="B915" s="35"/>
-      <c r="C915" s="35"/>
-      <c r="D915" s="35"/>
+      <c r="A915" s="37"/>
+      <c r="B915" s="37"/>
+      <c r="C915" s="37"/>
+      <c r="D915" s="37"/>
     </row>
     <row r="916" ht="15.75" spans="1:4">
-      <c r="A916" s="35"/>
-      <c r="B916" s="35"/>
-      <c r="C916" s="35"/>
-      <c r="D916" s="35"/>
+      <c r="A916" s="37"/>
+      <c r="B916" s="37"/>
+      <c r="C916" s="37"/>
+      <c r="D916" s="37"/>
     </row>
     <row r="917" ht="15.75" spans="1:4">
-      <c r="A917" s="35"/>
-      <c r="B917" s="35"/>
-      <c r="C917" s="35"/>
-      <c r="D917" s="35"/>
+      <c r="A917" s="37"/>
+      <c r="B917" s="37"/>
+      <c r="C917" s="37"/>
+      <c r="D917" s="37"/>
     </row>
     <row r="918" ht="15.75" spans="1:4">
-      <c r="A918" s="35"/>
-      <c r="B918" s="35"/>
-      <c r="C918" s="35"/>
-      <c r="D918" s="35"/>
+      <c r="A918" s="37"/>
+      <c r="B918" s="37"/>
+      <c r="C918" s="37"/>
+      <c r="D918" s="37"/>
     </row>
     <row r="919" ht="15.75" spans="1:4">
-      <c r="A919" s="35"/>
-      <c r="B919" s="35"/>
-      <c r="C919" s="35"/>
-      <c r="D919" s="35"/>
+      <c r="A919" s="37"/>
+      <c r="B919" s="37"/>
+      <c r="C919" s="37"/>
+      <c r="D919" s="37"/>
     </row>
     <row r="920" ht="15.75" spans="1:4">
-      <c r="A920" s="35"/>
-      <c r="B920" s="35"/>
-      <c r="C920" s="35"/>
-      <c r="D920" s="35"/>
+      <c r="A920" s="37"/>
+      <c r="B920" s="37"/>
+      <c r="C920" s="37"/>
+      <c r="D920" s="37"/>
     </row>
     <row r="921" ht="15.75" spans="1:4">
-      <c r="A921" s="35"/>
-      <c r="B921" s="35"/>
-      <c r="C921" s="35"/>
-      <c r="D921" s="35"/>
+      <c r="A921" s="37"/>
+      <c r="B921" s="37"/>
+      <c r="C921" s="37"/>
+      <c r="D921" s="37"/>
     </row>
     <row r="922" ht="15.75" spans="1:4">
-      <c r="A922" s="35"/>
-      <c r="B922" s="35"/>
-      <c r="C922" s="35"/>
-      <c r="D922" s="35"/>
+      <c r="A922" s="37"/>
+      <c r="B922" s="37"/>
+      <c r="C922" s="37"/>
+      <c r="D922" s="37"/>
     </row>
     <row r="923" ht="15.75" spans="1:4">
-      <c r="A923" s="35"/>
-      <c r="B923" s="35"/>
-      <c r="C923" s="35"/>
-      <c r="D923" s="35"/>
+      <c r="A923" s="37"/>
+      <c r="B923" s="37"/>
+      <c r="C923" s="37"/>
+      <c r="D923" s="37"/>
     </row>
     <row r="924" ht="15.75" spans="1:4">
-      <c r="A924" s="35"/>
-      <c r="B924" s="35"/>
-      <c r="C924" s="35"/>
-      <c r="D924" s="35"/>
+      <c r="A924" s="37"/>
+      <c r="B924" s="37"/>
+      <c r="C924" s="37"/>
+      <c r="D924" s="37"/>
     </row>
     <row r="925" ht="15.75" spans="1:4">
-      <c r="A925" s="35"/>
-      <c r="B925" s="35"/>
-      <c r="C925" s="35"/>
-      <c r="D925" s="35"/>
+      <c r="A925" s="37"/>
+      <c r="B925" s="37"/>
+      <c r="C925" s="37"/>
+      <c r="D925" s="37"/>
     </row>
     <row r="926" ht="15.75" spans="1:4">
-      <c r="A926" s="35"/>
-      <c r="B926" s="35"/>
-      <c r="C926" s="35"/>
-      <c r="D926" s="35"/>
+      <c r="A926" s="37"/>
+      <c r="B926" s="37"/>
+      <c r="C926" s="37"/>
+      <c r="D926" s="37"/>
     </row>
     <row r="927" ht="15.75" spans="1:4">
-      <c r="A927" s="35"/>
-      <c r="B927" s="35"/>
-      <c r="C927" s="35"/>
-      <c r="D927" s="35"/>
+      <c r="A927" s="37"/>
+      <c r="B927" s="37"/>
+      <c r="C927" s="37"/>
+      <c r="D927" s="37"/>
     </row>
     <row r="928" ht="15.75" spans="1:4">
-      <c r="A928" s="35"/>
-      <c r="B928" s="35"/>
-      <c r="C928" s="35"/>
-      <c r="D928" s="35"/>
+      <c r="A928" s="37"/>
+      <c r="B928" s="37"/>
+      <c r="C928" s="37"/>
+      <c r="D928" s="37"/>
     </row>
     <row r="929" ht="15.75" spans="1:4">
-      <c r="A929" s="35"/>
-      <c r="B929" s="35"/>
-      <c r="C929" s="35"/>
-      <c r="D929" s="35"/>
+      <c r="A929" s="37"/>
+      <c r="B929" s="37"/>
+      <c r="C929" s="37"/>
+      <c r="D929" s="37"/>
     </row>
     <row r="930" ht="15.75" spans="1:4">
-      <c r="A930" s="35"/>
-      <c r="B930" s="35"/>
-      <c r="C930" s="35"/>
-      <c r="D930" s="35"/>
+      <c r="A930" s="37"/>
+      <c r="B930" s="37"/>
+      <c r="C930" s="37"/>
+      <c r="D930" s="37"/>
     </row>
     <row r="931" ht="15.75" spans="1:4">
-      <c r="A931" s="35"/>
-      <c r="B931" s="35"/>
-      <c r="C931" s="35"/>
-      <c r="D931" s="35"/>
+      <c r="A931" s="37"/>
+      <c r="B931" s="37"/>
+      <c r="C931" s="37"/>
+      <c r="D931" s="37"/>
     </row>
     <row r="932" ht="15.75" spans="1:4">
-      <c r="A932" s="35"/>
-      <c r="B932" s="35"/>
-      <c r="C932" s="35"/>
-      <c r="D932" s="35"/>
+      <c r="A932" s="37"/>
+      <c r="B932" s="37"/>
+      <c r="C932" s="37"/>
+      <c r="D932" s="37"/>
     </row>
     <row r="933" ht="15.75" spans="1:4">
-      <c r="A933" s="35"/>
-      <c r="B933" s="35"/>
-      <c r="C933" s="35"/>
-      <c r="D933" s="35"/>
+      <c r="A933" s="37"/>
+      <c r="B933" s="37"/>
+      <c r="C933" s="37"/>
+      <c r="D933" s="37"/>
     </row>
     <row r="934" ht="15.75" spans="1:4">
-      <c r="A934" s="35"/>
-      <c r="B934" s="35"/>
-      <c r="C934" s="35"/>
-      <c r="D934" s="35"/>
+      <c r="A934" s="37"/>
+      <c r="B934" s="37"/>
+      <c r="C934" s="37"/>
+      <c r="D934" s="37"/>
     </row>
     <row r="935" ht="15.75" spans="1:4">
-      <c r="A935" s="35"/>
-      <c r="B935" s="35"/>
-      <c r="C935" s="35"/>
-      <c r="D935" s="35"/>
+      <c r="A935" s="37"/>
+      <c r="B935" s="37"/>
+      <c r="C935" s="37"/>
+      <c r="D935" s="37"/>
     </row>
     <row r="936" ht="15.75" spans="1:4">
-      <c r="A936" s="35"/>
-      <c r="B936" s="35"/>
-      <c r="C936" s="35"/>
-      <c r="D936" s="35"/>
+      <c r="A936" s="37"/>
+      <c r="B936" s="37"/>
+      <c r="C936" s="37"/>
+      <c r="D936" s="37"/>
     </row>
     <row r="937" ht="15.75" spans="1:4">
-      <c r="A937" s="35"/>
-      <c r="B937" s="35"/>
-      <c r="C937" s="35"/>
-      <c r="D937" s="35"/>
+      <c r="A937" s="37"/>
+      <c r="B937" s="37"/>
+      <c r="C937" s="37"/>
+      <c r="D937" s="37"/>
     </row>
     <row r="938" ht="15.75" spans="1:4">
-      <c r="A938" s="35"/>
-      <c r="B938" s="35"/>
-      <c r="C938" s="35"/>
-      <c r="D938" s="35"/>
+      <c r="A938" s="37"/>
+      <c r="B938" s="37"/>
+      <c r="C938" s="37"/>
+      <c r="D938" s="37"/>
     </row>
     <row r="939" ht="15.75" spans="1:4">
-      <c r="A939" s="35"/>
-      <c r="B939" s="35"/>
-      <c r="C939" s="35"/>
-      <c r="D939" s="35"/>
+      <c r="A939" s="37"/>
+      <c r="B939" s="37"/>
+      <c r="C939" s="37"/>
+      <c r="D939" s="37"/>
     </row>
     <row r="940" ht="15.75" spans="1:4">
-      <c r="A940" s="35"/>
-      <c r="B940" s="35"/>
-      <c r="C940" s="35"/>
-      <c r="D940" s="35"/>
+      <c r="A940" s="37"/>
+      <c r="B940" s="37"/>
+      <c r="C940" s="37"/>
+      <c r="D940" s="37"/>
     </row>
     <row r="941" ht="15.75" spans="1:4">
-      <c r="A941" s="35"/>
-      <c r="B941" s="35"/>
-      <c r="C941" s="35"/>
-      <c r="D941" s="35"/>
+      <c r="A941" s="37"/>
+      <c r="B941" s="37"/>
+      <c r="C941" s="37"/>
+      <c r="D941" s="37"/>
     </row>
     <row r="942" ht="15.75" spans="1:4">
-      <c r="A942" s="35"/>
-      <c r="B942" s="35"/>
-      <c r="C942" s="35"/>
-      <c r="D942" s="35"/>
+      <c r="A942" s="37"/>
+      <c r="B942" s="37"/>
+      <c r="C942" s="37"/>
+      <c r="D942" s="37"/>
     </row>
     <row r="943" ht="15.75" spans="1:4">
-      <c r="A943" s="35"/>
-      <c r="B943" s="35"/>
-      <c r="C943" s="35"/>
-      <c r="D943" s="35"/>
+      <c r="A943" s="37"/>
+      <c r="B943" s="37"/>
+      <c r="C943" s="37"/>
+      <c r="D943" s="37"/>
     </row>
     <row r="944" ht="15.75" spans="1:4">
-      <c r="A944" s="35"/>
-      <c r="B944" s="35"/>
-      <c r="C944" s="35"/>
-      <c r="D944" s="35"/>
+      <c r="A944" s="37"/>
+      <c r="B944" s="37"/>
+      <c r="C944" s="37"/>
+      <c r="D944" s="37"/>
     </row>
     <row r="945" ht="15.75" spans="1:4">
-      <c r="A945" s="35"/>
-      <c r="B945" s="35"/>
-      <c r="C945" s="35"/>
-      <c r="D945" s="35"/>
+      <c r="A945" s="37"/>
+      <c r="B945" s="37"/>
+      <c r="C945" s="37"/>
+      <c r="D945" s="37"/>
     </row>
     <row r="946" ht="15.75" spans="1:4">
-      <c r="A946" s="35"/>
-      <c r="B946" s="35"/>
-      <c r="C946" s="35"/>
-      <c r="D946" s="35"/>
+      <c r="A946" s="37"/>
+      <c r="B946" s="37"/>
+      <c r="C946" s="37"/>
+      <c r="D946" s="37"/>
     </row>
     <row r="947" ht="15.75" spans="1:4">
-      <c r="A947" s="35"/>
-      <c r="B947" s="35"/>
-      <c r="C947" s="35"/>
-      <c r="D947" s="35"/>
+      <c r="A947" s="37"/>
+      <c r="B947" s="37"/>
+      <c r="C947" s="37"/>
+      <c r="D947" s="37"/>
     </row>
     <row r="948" ht="15.75" spans="1:4">
-      <c r="A948" s="35"/>
-      <c r="B948" s="35"/>
-      <c r="C948" s="35"/>
-      <c r="D948" s="35"/>
+      <c r="A948" s="37"/>
+      <c r="B948" s="37"/>
+      <c r="C948" s="37"/>
+      <c r="D948" s="37"/>
     </row>
     <row r="949" ht="15.75" spans="1:4">
-      <c r="A949" s="35"/>
-      <c r="B949" s="35"/>
-      <c r="C949" s="35"/>
-      <c r="D949" s="35"/>
+      <c r="A949" s="37"/>
+      <c r="B949" s="37"/>
+      <c r="C949" s="37"/>
+      <c r="D949" s="37"/>
     </row>
     <row r="950" ht="15.75" spans="1:4">
-      <c r="A950" s="35"/>
-      <c r="B950" s="35"/>
-      <c r="C950" s="35"/>
-      <c r="D950" s="35"/>
+      <c r="A950" s="37"/>
+      <c r="B950" s="37"/>
+      <c r="C950" s="37"/>
+      <c r="D950" s="37"/>
     </row>
     <row r="951" ht="15.75" spans="1:4">
-      <c r="A951" s="35"/>
-      <c r="B951" s="35"/>
-      <c r="C951" s="35"/>
-      <c r="D951" s="35"/>
+      <c r="A951" s="37"/>
+      <c r="B951" s="37"/>
+      <c r="C951" s="37"/>
+      <c r="D951" s="37"/>
     </row>
     <row r="952" ht="15.75" spans="1:4">
-      <c r="A952" s="35"/>
-      <c r="B952" s="35"/>
-      <c r="C952" s="35"/>
-      <c r="D952" s="35"/>
+      <c r="A952" s="37"/>
+      <c r="B952" s="37"/>
+      <c r="C952" s="37"/>
+      <c r="D952" s="37"/>
     </row>
     <row r="953" ht="15.75" spans="1:4">
-      <c r="A953" s="35"/>
-      <c r="B953" s="35"/>
-      <c r="C953" s="35"/>
-      <c r="D953" s="35"/>
+      <c r="A953" s="37"/>
+      <c r="B953" s="37"/>
+      <c r="C953" s="37"/>
+      <c r="D953" s="37"/>
     </row>
     <row r="954" ht="15.75" spans="1:4">
-      <c r="A954" s="35"/>
-      <c r="B954" s="35"/>
-      <c r="C954" s="35"/>
-      <c r="D954" s="35"/>
+      <c r="A954" s="37"/>
+      <c r="B954" s="37"/>
+      <c r="C954" s="37"/>
+      <c r="D954" s="37"/>
     </row>
     <row r="955" ht="15.75" spans="1:4">
-      <c r="A955" s="35"/>
-      <c r="B955" s="35"/>
-      <c r="C955" s="35"/>
-      <c r="D955" s="35"/>
+      <c r="A955" s="37"/>
+      <c r="B955" s="37"/>
+      <c r="C955" s="37"/>
+      <c r="D955" s="37"/>
     </row>
     <row r="956" ht="15.75" spans="1:4">
-      <c r="A956" s="35"/>
-      <c r="B956" s="35"/>
-      <c r="C956" s="35"/>
-      <c r="D956" s="35"/>
+      <c r="A956" s="37"/>
+      <c r="B956" s="37"/>
+      <c r="C956" s="37"/>
+      <c r="D956" s="37"/>
     </row>
     <row r="957" ht="15.75" spans="1:4">
-      <c r="A957" s="35"/>
-      <c r="B957" s="35"/>
-      <c r="C957" s="35"/>
-      <c r="D957" s="35"/>
+      <c r="A957" s="37"/>
+      <c r="B957" s="37"/>
+      <c r="C957" s="37"/>
+      <c r="D957" s="37"/>
     </row>
     <row r="958" ht="15.75" spans="1:4">
-      <c r="A958" s="35"/>
-      <c r="B958" s="35"/>
-      <c r="C958" s="35"/>
-      <c r="D958" s="35"/>
+      <c r="A958" s="37"/>
+      <c r="B958" s="37"/>
+      <c r="C958" s="37"/>
+      <c r="D958" s="37"/>
     </row>
     <row r="959" ht="15.75" spans="1:4">
-      <c r="A959" s="35"/>
-      <c r="B959" s="35"/>
-      <c r="C959" s="35"/>
-      <c r="D959" s="35"/>
+      <c r="A959" s="37"/>
+      <c r="B959" s="37"/>
+      <c r="C959" s="37"/>
+      <c r="D959" s="37"/>
     </row>
     <row r="960" ht="15.75" spans="1:4">
-      <c r="A960" s="35"/>
-      <c r="B960" s="35"/>
-      <c r="C960" s="35"/>
-      <c r="D960" s="35"/>
+      <c r="A960" s="37"/>
+      <c r="B960" s="37"/>
+      <c r="C960" s="37"/>
+      <c r="D960" s="37"/>
     </row>
     <row r="961" ht="15.75" spans="1:4">
-      <c r="A961" s="35"/>
-      <c r="B961" s="35"/>
-      <c r="C961" s="35"/>
-      <c r="D961" s="35"/>
+      <c r="A961" s="37"/>
+      <c r="B961" s="37"/>
+      <c r="C961" s="37"/>
+      <c r="D961" s="37"/>
     </row>
     <row r="962" ht="15.75" spans="1:4">
-      <c r="A962" s="35"/>
-      <c r="B962" s="35"/>
-      <c r="C962" s="35"/>
-      <c r="D962" s="35"/>
+      <c r="A962" s="37"/>
+      <c r="B962" s="37"/>
+      <c r="C962" s="37"/>
+      <c r="D962" s="37"/>
     </row>
     <row r="963" ht="15.75" spans="1:4">
-      <c r="A963" s="35"/>
-      <c r="B963" s="35"/>
-      <c r="C963" s="35"/>
-      <c r="D963" s="35"/>
+      <c r="A963" s="37"/>
+      <c r="B963" s="37"/>
+      <c r="C963" s="37"/>
+      <c r="D963" s="37"/>
     </row>
     <row r="964" ht="15.75" spans="1:4">
-      <c r="A964" s="35"/>
-      <c r="B964" s="35"/>
-      <c r="C964" s="35"/>
-      <c r="D964" s="35"/>
+      <c r="A964" s="37"/>
+      <c r="B964" s="37"/>
+      <c r="C964" s="37"/>
+      <c r="D964" s="37"/>
     </row>
     <row r="965" ht="15.75" spans="1:4">
-      <c r="A965" s="35"/>
-      <c r="B965" s="35"/>
-      <c r="C965" s="35"/>
-      <c r="D965" s="35"/>
+      <c r="A965" s="37"/>
+      <c r="B965" s="37"/>
+      <c r="C965" s="37"/>
+      <c r="D965" s="37"/>
     </row>
     <row r="966" ht="15.75" spans="1:4">
-      <c r="A966" s="35"/>
-      <c r="B966" s="35"/>
-      <c r="C966" s="35"/>
-      <c r="D966" s="35"/>
+      <c r="A966" s="37"/>
+      <c r="B966" s="37"/>
+      <c r="C966" s="37"/>
+      <c r="D966" s="37"/>
     </row>
     <row r="967" ht="15.75" spans="1:4">
-      <c r="A967" s="35"/>
-      <c r="B967" s="35"/>
-      <c r="C967" s="35"/>
-      <c r="D967" s="35"/>
+      <c r="A967" s="37"/>
+      <c r="B967" s="37"/>
+      <c r="C967" s="37"/>
+      <c r="D967" s="37"/>
     </row>
     <row r="968" ht="15.75" spans="1:4">
-      <c r="A968" s="35"/>
-      <c r="B968" s="35"/>
-      <c r="C968" s="35"/>
-      <c r="D968" s="35"/>
+      <c r="A968" s="37"/>
+      <c r="B968" s="37"/>
+      <c r="C968" s="37"/>
+      <c r="D968" s="37"/>
     </row>
     <row r="969" ht="15.75" spans="1:4">
-      <c r="A969" s="35"/>
-      <c r="B969" s="35"/>
-      <c r="C969" s="35"/>
-      <c r="D969" s="35"/>
+      <c r="A969" s="37"/>
+      <c r="B969" s="37"/>
+      <c r="C969" s="37"/>
+      <c r="D969" s="37"/>
     </row>
     <row r="970" ht="15.75" spans="1:4">
-      <c r="A970" s="35"/>
-      <c r="B970" s="35"/>
-      <c r="C970" s="35"/>
-      <c r="D970" s="35"/>
+      <c r="A970" s="37"/>
+      <c r="B970" s="37"/>
+      <c r="C970" s="37"/>
+      <c r="D970" s="37"/>
     </row>
     <row r="971" ht="15.75" spans="1:4">
-      <c r="A971" s="35"/>
-      <c r="B971" s="35"/>
-      <c r="C971" s="35"/>
-      <c r="D971" s="35"/>
+      <c r="A971" s="37"/>
+      <c r="B971" s="37"/>
+      <c r="C971" s="37"/>
+      <c r="D971" s="37"/>
     </row>
     <row r="972" ht="15.75" spans="1:4">
-      <c r="A972" s="35"/>
-      <c r="B972" s="35"/>
-      <c r="C972" s="35"/>
-      <c r="D972" s="35"/>
+      <c r="A972" s="37"/>
+      <c r="B972" s="37"/>
+      <c r="C972" s="37"/>
+      <c r="D972" s="37"/>
     </row>
     <row r="973" ht="15.75" spans="1:4">
-      <c r="A973" s="35"/>
-      <c r="B973" s="35"/>
-      <c r="C973" s="35"/>
-      <c r="D973" s="35"/>
+      <c r="A973" s="37"/>
+      <c r="B973" s="37"/>
+      <c r="C973" s="37"/>
+      <c r="D973" s="37"/>
     </row>
     <row r="974" ht="15.75" spans="1:4">
-      <c r="A974" s="35"/>
-      <c r="B974" s="35"/>
-      <c r="C974" s="35"/>
-      <c r="D974" s="35"/>
+      <c r="A974" s="37"/>
+      <c r="B974" s="37"/>
+      <c r="C974" s="37"/>
+      <c r="D974" s="37"/>
     </row>
     <row r="975" ht="15.75" spans="1:4">
-      <c r="A975" s="35"/>
-      <c r="B975" s="35"/>
-      <c r="C975" s="35"/>
-      <c r="D975" s="35"/>
+      <c r="A975" s="37"/>
+      <c r="B975" s="37"/>
+      <c r="C975" s="37"/>
+      <c r="D975" s="37"/>
     </row>
     <row r="976" ht="15.75" spans="1:4">
-      <c r="A976" s="35"/>
-      <c r="B976" s="35"/>
-      <c r="C976" s="35"/>
-      <c r="D976" s="35"/>
+      <c r="A976" s="37"/>
+      <c r="B976" s="37"/>
+      <c r="C976" s="37"/>
+      <c r="D976" s="37"/>
     </row>
     <row r="977" ht="15.75" spans="1:4">
-      <c r="A977" s="35"/>
-      <c r="B977" s="35"/>
-      <c r="C977" s="35"/>
-      <c r="D977" s="35"/>
+      <c r="A977" s="37"/>
+      <c r="B977" s="37"/>
+      <c r="C977" s="37"/>
+      <c r="D977" s="37"/>
     </row>
     <row r="978" ht="15.75" spans="1:4">
-      <c r="A978" s="35"/>
-      <c r="B978" s="35"/>
-      <c r="C978" s="35"/>
-      <c r="D978" s="35"/>
+      <c r="A978" s="37"/>
+      <c r="B978" s="37"/>
+      <c r="C978" s="37"/>
+      <c r="D978" s="37"/>
     </row>
     <row r="979" ht="15.75" spans="1:4">
-      <c r="A979" s="35"/>
-      <c r="B979" s="35"/>
-      <c r="C979" s="35"/>
-      <c r="D979" s="35"/>
+      <c r="A979" s="37"/>
+      <c r="B979" s="37"/>
+      <c r="C979" s="37"/>
+      <c r="D979" s="37"/>
     </row>
     <row r="980" ht="15.75" spans="1:4">
-      <c r="A980" s="35"/>
-      <c r="B980" s="35"/>
-      <c r="C980" s="35"/>
-      <c r="D980" s="35"/>
+      <c r="A980" s="37"/>
+      <c r="B980" s="37"/>
+      <c r="C980" s="37"/>
+      <c r="D980" s="37"/>
     </row>
     <row r="981" ht="15.75" spans="1:4">
-      <c r="A981" s="35"/>
-      <c r="B981" s="35"/>
-      <c r="C981" s="35"/>
-      <c r="D981" s="35"/>
+      <c r="A981" s="37"/>
+      <c r="B981" s="37"/>
+      <c r="C981" s="37"/>
+      <c r="D981" s="37"/>
     </row>
     <row r="982" ht="15.75" spans="1:4">
-      <c r="A982" s="35"/>
-      <c r="B982" s="35"/>
-      <c r="C982" s="35"/>
-      <c r="D982" s="35"/>
+      <c r="A982" s="37"/>
+      <c r="B982" s="37"/>
+      <c r="C982" s="37"/>
+      <c r="D982" s="37"/>
     </row>
     <row r="983" ht="15.75" spans="1:4">
-      <c r="A983" s="35"/>
-      <c r="B983" s="35"/>
-      <c r="C983" s="35"/>
-      <c r="D983" s="35"/>
+      <c r="A983" s="37"/>
+      <c r="B983" s="37"/>
+      <c r="C983" s="37"/>
+      <c r="D983" s="37"/>
     </row>
     <row r="984" ht="15.75" spans="1:4">
-      <c r="A984" s="35"/>
-      <c r="B984" s="35"/>
-      <c r="C984" s="35"/>
-      <c r="D984" s="35"/>
+      <c r="A984" s="37"/>
+      <c r="B984" s="37"/>
+      <c r="C984" s="37"/>
+      <c r="D984" s="37"/>
     </row>
     <row r="985" ht="15.75" spans="1:4">
-      <c r="A985" s="35"/>
-      <c r="B985" s="35"/>
-      <c r="C985" s="35"/>
-      <c r="D985" s="35"/>
+      <c r="A985" s="37"/>
+      <c r="B985" s="37"/>
+      <c r="C985" s="37"/>
+      <c r="D985" s="37"/>
     </row>
     <row r="986" ht="15.75" spans="1:4">
-      <c r="A986" s="35"/>
-      <c r="B986" s="35"/>
-      <c r="C986" s="35"/>
-      <c r="D986" s="35"/>
+      <c r="A986" s="37"/>
+      <c r="B986" s="37"/>
+      <c r="C986" s="37"/>
+      <c r="D986" s="37"/>
     </row>
     <row r="987" ht="15.75" spans="1:4">
-      <c r="A987" s="35"/>
-      <c r="B987" s="35"/>
-      <c r="C987" s="35"/>
-      <c r="D987" s="35"/>
+      <c r="A987" s="37"/>
+      <c r="B987" s="37"/>
+      <c r="C987" s="37"/>
+      <c r="D987" s="37"/>
     </row>
     <row r="988" ht="15.75" spans="1:4">
-      <c r="A988" s="35"/>
-      <c r="B988" s="35"/>
-      <c r="C988" s="35"/>
-      <c r="D988" s="35"/>
+      <c r="A988" s="37"/>
+      <c r="B988" s="37"/>
+      <c r="C988" s="37"/>
+      <c r="D988" s="37"/>
     </row>
     <row r="989" ht="15.75" spans="1:4">
-      <c r="A989" s="35"/>
-      <c r="B989" s="35"/>
-      <c r="C989" s="35"/>
-      <c r="D989" s="35"/>
+      <c r="A989" s="37"/>
+      <c r="B989" s="37"/>
+      <c r="C989" s="37"/>
+      <c r="D989" s="37"/>
     </row>
     <row r="990" ht="15.75" spans="1:4">
-      <c r="A990" s="35"/>
-      <c r="B990" s="35"/>
-      <c r="C990" s="35"/>
-      <c r="D990" s="35"/>
+      <c r="A990" s="37"/>
+      <c r="B990" s="37"/>
+      <c r="C990" s="37"/>
+      <c r="D990" s="37"/>
     </row>
     <row r="991" ht="15.75" spans="1:4">
-      <c r="A991" s="35"/>
-      <c r="B991" s="35"/>
-      <c r="C991" s="35"/>
-      <c r="D991" s="35"/>
+      <c r="A991" s="37"/>
+      <c r="B991" s="37"/>
+      <c r="C991" s="37"/>
+      <c r="D991" s="37"/>
     </row>
     <row r="992" ht="15.75" spans="1:4">
-      <c r="A992" s="35"/>
-      <c r="B992" s="35"/>
-      <c r="C992" s="35"/>
-      <c r="D992" s="35"/>
+      <c r="A992" s="37"/>
+      <c r="B992" s="37"/>
+      <c r="C992" s="37"/>
+      <c r="D992" s="37"/>
     </row>
     <row r="993" ht="15.75" spans="1:4">
-      <c r="A993" s="35"/>
-      <c r="B993" s="35"/>
-      <c r="C993" s="35"/>
-      <c r="D993" s="35"/>
+      <c r="A993" s="37"/>
+      <c r="B993" s="37"/>
+      <c r="C993" s="37"/>
+      <c r="D993" s="37"/>
     </row>
     <row r="994" ht="15.75" spans="1:4">
-      <c r="A994" s="35"/>
-      <c r="B994" s="35"/>
-      <c r="C994" s="35"/>
-      <c r="D994" s="35"/>
+      <c r="A994" s="37"/>
+      <c r="B994" s="37"/>
+      <c r="C994" s="37"/>
+      <c r="D994" s="37"/>
     </row>
     <row r="995" ht="15.75" spans="1:4">
-      <c r="A995" s="35"/>
-      <c r="B995" s="35"/>
-      <c r="C995" s="35"/>
-      <c r="D995" s="35"/>
+      <c r="A995" s="37"/>
+      <c r="B995" s="37"/>
+      <c r="C995" s="37"/>
+      <c r="D995" s="37"/>
     </row>
     <row r="996" ht="15.75" spans="1:4">
-      <c r="A996" s="35"/>
-      <c r="B996" s="35"/>
-      <c r="C996" s="35"/>
-      <c r="D996" s="35"/>
+      <c r="A996" s="37"/>
+      <c r="B996" s="37"/>
+      <c r="C996" s="37"/>
+      <c r="D996" s="37"/>
     </row>
     <row r="997" ht="15.75" spans="1:4">
-      <c r="A997" s="35"/>
-      <c r="B997" s="35"/>
-      <c r="C997" s="35"/>
-      <c r="D997" s="35"/>
+      <c r="A997" s="37"/>
+      <c r="B997" s="37"/>
+      <c r="C997" s="37"/>
+      <c r="D997" s="37"/>
     </row>
     <row r="998" ht="15.75" spans="1:4">
-      <c r="A998" s="35"/>
-      <c r="B998" s="35"/>
-      <c r="C998" s="35"/>
-      <c r="D998" s="35"/>
+      <c r="A998" s="37"/>
+      <c r="B998" s="37"/>
+      <c r="C998" s="37"/>
+      <c r="D998" s="37"/>
     </row>
     <row r="999" ht="15.75" spans="1:4">
-      <c r="A999" s="35"/>
-      <c r="B999" s="35"/>
-      <c r="C999" s="35"/>
-      <c r="D999" s="35"/>
+      <c r="A999" s="37"/>
+      <c r="B999" s="37"/>
+      <c r="C999" s="37"/>
+      <c r="D999" s="37"/>
     </row>
     <row r="1000" ht="15.75" spans="1:4">
-      <c r="A1000" s="35"/>
-      <c r="B1000" s="35"/>
-      <c r="C1000" s="35"/>
-      <c r="D1000" s="35"/>
+      <c r="A1000" s="37"/>
+      <c r="B1000" s="37"/>
+      <c r="C1000" s="37"/>
+      <c r="D1000" s="37"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D16" etc:filterBottomFollowUsedRange="0">
@@ -14688,11 +14765,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H1194"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -14729,7 +14806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" hidden="1" spans="1:7">
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -14750,7 +14827,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" hidden="1" spans="1:7">
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
@@ -14768,11 +14845,11 @@
         <v>10</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>374</v>
+        <v>14</v>
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" hidden="1" spans="1:7">
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14794,7 +14871,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" hidden="1" spans="1:7">
+    <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14816,7 +14893,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" hidden="1" spans="1:7">
+    <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14838,7 +14915,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" hidden="1" spans="1:7">
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14860,7 +14937,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" hidden="1" spans="1:7">
+    <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14882,7 +14959,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" hidden="1" spans="1:7">
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14904,7 +14981,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" hidden="1" spans="1:7">
+    <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14926,7 +15003,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" hidden="1" spans="1:7">
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14948,7 +15025,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" hidden="1" spans="1:7">
+    <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14968,7 +15045,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" hidden="1" spans="1:7">
+    <row r="13" ht="15.75" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14990,7 +15067,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" hidden="1" spans="1:7">
+    <row r="14" ht="15.75" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15012,7 +15089,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" hidden="1" spans="1:7">
+    <row r="15" ht="15.75" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15034,7 +15111,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" hidden="1" spans="1:7">
+    <row r="16" ht="15.75" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -15056,7 +15133,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" hidden="1" spans="1:7">
+    <row r="17" ht="15.75" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15078,7 +15155,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" hidden="1" spans="1:7">
+    <row r="18" ht="15.75" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15100,7 +15177,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" hidden="1" spans="1:7">
+    <row r="19" ht="15.75" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15122,7 +15199,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" hidden="1" spans="1:7">
+    <row r="20" ht="15.75" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15144,7 +15221,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" hidden="1" spans="1:7">
+    <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15166,7 +15243,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" hidden="1" spans="1:7">
+    <row r="22" ht="15.75" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -15188,7 +15265,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" hidden="1" spans="1:7">
+    <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -15210,7 +15287,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" hidden="1" spans="1:7">
+    <row r="24" ht="15.75" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -15232,7 +15309,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" hidden="1" spans="1:7">
+    <row r="25" ht="15.75" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -15254,7 +15331,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" hidden="1" spans="1:7">
+    <row r="26" ht="15.75" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -15276,7 +15353,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" hidden="1" spans="1:7">
+    <row r="27" ht="15.75" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -15298,7 +15375,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" hidden="1" spans="1:7">
+    <row r="28" ht="15.75" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -15320,7 +15397,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" hidden="1" spans="1:7">
+    <row r="29" ht="15.75" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -15342,7 +15419,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" hidden="1" spans="1:7">
+    <row r="30" ht="15.75" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -15364,7 +15441,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" hidden="1" spans="1:7">
+    <row r="31" ht="15.75" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15386,7 +15463,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" hidden="1" spans="1:7">
+    <row r="32" ht="15.75" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -15406,7 +15483,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" hidden="1" spans="1:7">
+    <row r="33" ht="15.75" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15428,7 +15505,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" hidden="1" spans="1:7">
+    <row r="34" ht="15.75" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -15450,7 +15527,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" hidden="1" spans="1:7">
+    <row r="35" ht="15.75" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15472,7 +15549,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" hidden="1" spans="1:7">
+    <row r="36" ht="15.75" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15494,7 +15571,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" hidden="1" spans="1:7">
+    <row r="37" ht="15.75" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15514,7 +15591,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" hidden="1" spans="1:7">
+    <row r="38" ht="15.75" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15534,7 +15611,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" hidden="1" spans="1:7">
+    <row r="39" ht="15.75" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -15556,7 +15633,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" hidden="1" spans="1:7">
+    <row r="40" ht="15.75" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -15578,7 +15655,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" hidden="1" spans="1:7">
+    <row r="41" ht="15.75" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -15600,7 +15677,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" hidden="1" spans="1:7">
+    <row r="42" ht="15.75" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -15622,7 +15699,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" hidden="1" spans="1:7">
+    <row r="43" ht="15.75" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15644,7 +15721,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" hidden="1" spans="1:7">
+    <row r="44" ht="15.75" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -15661,18 +15738,18 @@
       <c r="E44" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="14" t="s">
         <v>129</v>
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" hidden="1" spans="1:7">
+    <row r="45" ht="15.75" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>131</v>
@@ -15688,7 +15765,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" hidden="1" spans="1:7">
+    <row r="46" ht="15.75" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -15710,7 +15787,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" hidden="1" spans="1:7">
+    <row r="47" ht="15.75" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -15732,7 +15809,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" hidden="1" spans="1:7">
+    <row r="48" ht="15.75" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -15754,7 +15831,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" hidden="1" spans="1:7">
+    <row r="49" ht="15.75" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -15776,7 +15853,7 @@
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" hidden="1" spans="1:7">
+    <row r="50" ht="15.75" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -15798,7 +15875,7 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" hidden="1" spans="1:7">
+    <row r="51" ht="15.75" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -15818,7 +15895,7 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" hidden="1" spans="1:7">
+    <row r="52" ht="15.75" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -15840,7 +15917,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" hidden="1" spans="1:7">
+    <row r="53" ht="15.75" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -15862,7 +15939,7 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" hidden="1" spans="1:7">
+    <row r="54" ht="15.75" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -15882,7 +15959,7 @@
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" hidden="1" spans="1:7">
+    <row r="55" ht="15.75" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -15900,7 +15977,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" hidden="1" spans="1:7">
+    <row r="56" ht="15.75" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -15920,7 +15997,7 @@
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" hidden="1" spans="1:7">
+    <row r="57" ht="15.75" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -15940,7 +16017,7 @@
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" hidden="1" spans="1:7">
+    <row r="58" ht="15.75" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -15954,44 +16031,46 @@
       <c r="D58" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F58" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" hidden="1" spans="1:7">
+    <row r="59" ht="15.75" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" hidden="1" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>155</v>
@@ -16000,13 +16079,13 @@
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" hidden="1" spans="1:7">
+    <row r="61" ht="15.75" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>148</v>
@@ -16016,79 +16095,81 @@
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" hidden="1" spans="1:7">
+    <row r="62" ht="15.75" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" hidden="1" spans="1:7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" hidden="1" spans="1:7">
+    <row r="64" ht="15.75" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F64" s="17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" hidden="1" spans="1:7">
+    <row r="65" ht="15.75" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
@@ -16098,294 +16179,298 @@
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" hidden="1" spans="1:7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" hidden="1" spans="1:7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" ref="A67:A112" si="1">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" hidden="1" spans="1:7">
+    <row r="68" ht="15.75" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" hidden="1" spans="1:7">
+    <row r="69" ht="15.75" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" hidden="1" spans="1:7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" hidden="1" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F71" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" hidden="1" spans="1:7">
+    <row r="72" ht="15.75" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" hidden="1" spans="1:7">
+    <row r="73" ht="15.75" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" hidden="1" spans="1:7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E74" s="16"/>
+      <c r="E74" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F74" s="18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" hidden="1" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" hidden="1" spans="1:7">
+    <row r="76" ht="15.75" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" hidden="1" spans="1:7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" hidden="1" spans="1:7">
+    <row r="78" ht="15.75" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" hidden="1" spans="1:7">
+    <row r="79" ht="15.75" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>155</v>
@@ -16394,78 +16479,78 @@
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" hidden="1" spans="1:7">
+    <row r="80" ht="15.75" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" hidden="1" spans="1:7">
+    <row r="81" ht="15.75" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" hidden="1" spans="1:7">
+    <row r="82" ht="15.75" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" hidden="1" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>155</v>
@@ -16474,218 +16559,226 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" hidden="1" spans="1:7">
+    <row r="84" ht="15.75" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" hidden="1" spans="1:7">
+    <row r="85" ht="15.75" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E85" s="16"/>
+      <c r="E85" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="F85" s="18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" hidden="1" spans="1:7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" hidden="1" spans="1:7">
+    <row r="87" ht="15.75" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" hidden="1" spans="1:7">
+    <row r="88" ht="15.75" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" hidden="1" spans="1:7">
+    <row r="89" ht="15.75" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E89" s="16"/>
-      <c r="F89" s="15"/>
+      <c r="E89" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>263</v>
+      </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" hidden="1" spans="1:7">
+    <row r="90" ht="15.75" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" hidden="1" spans="1:7">
+    <row r="91" ht="15.75" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" hidden="1" spans="1:7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" hidden="1" spans="1:7">
+    <row r="93" ht="15.75" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E93" s="16"/>
+      <c r="E93" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F93" s="18" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" hidden="1" spans="1:7">
+    <row r="94" ht="15.75" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>155</v>
@@ -16694,101 +16787,105 @@
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" hidden="1" spans="1:7">
+    <row r="95" ht="15.75" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" hidden="1" spans="1:7">
+    <row r="96" ht="15.75" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" hidden="1" spans="1:7">
+    <row r="97" ht="15.75" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E97" s="16"/>
-      <c r="F97" s="15"/>
+      <c r="E97" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" hidden="1" spans="1:7">
+    <row r="98" ht="15.75" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" hidden="1" spans="1:7">
+    <row r="99" ht="15.75" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -16798,135 +16895,137 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" hidden="1" spans="1:7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E101" s="16"/>
+      <c r="E101" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="F101" s="17" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" hidden="1" spans="1:7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" hidden="1" spans="1:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" hidden="1" spans="1:7">
+    <row r="104" ht="15.75" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" hidden="1" spans="1:7">
+    <row r="105" ht="15.75" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" hidden="1" spans="1:7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
@@ -16936,39 +17035,39 @@
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" hidden="1" spans="1:7">
+    <row r="107" ht="15.75" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" hidden="1" spans="1:7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>128</v>
@@ -16978,19 +17077,19 @@
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" hidden="1" spans="1:7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>128</v>
@@ -17000,53 +17099,57 @@
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" hidden="1" spans="1:7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="15"/>
+      <c r="E110" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" hidden="1" spans="1:7">
+    <row r="111" ht="15.75" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>152</v>
+        <v>330</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" hidden="1" spans="1:7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" spans="1:7">
       <c r="A112" s="9">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -17055,58 +17158,97 @@
         <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F112" s="11"/>
+      <c r="F112" s="12"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" hidden="1" spans="1:7">
-      <c r="A113" s="19"/>
-      <c r="B113" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="21" t="s">
+    <row r="113" ht="15.75" spans="1:7">
+      <c r="A113" s="9">
+        <v>112</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" ht="15.75" spans="1:7">
+      <c r="A114" s="9">
+        <v>113</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A115" s="20"/>
+      <c r="B115" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="21" t="s">
+      <c r="E115" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" ht="15.75" hidden="1" spans="1:7">
-      <c r="A114" s="19"/>
-      <c r="B114" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" s="21" t="s">
+      <c r="F115" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="12"/>
+    </row>
+    <row r="116" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="G114" s="13"/>
-    </row>
-    <row r="115" customFormat="1" spans="8:8">
-      <c r="H115" s="12"/>
-    </row>
-    <row r="116" customFormat="1" spans="6:6">
-      <c r="F116" s="2"/>
+      <c r="E116" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G116" s="23"/>
     </row>
     <row r="117" customFormat="1" spans="6:6">
       <c r="F117" s="2"/>
@@ -20344,11 +20486,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G114" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="FETHIMILOUA"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -20368,28 +20505,27 @@
     <hyperlink ref="F63" r:id="rId14" display="lakhdar_belhallouche@hotmail.fr"/>
     <hyperlink ref="F57" r:id="rId15" display="aliaissani97@gmail.com"/>
     <hyperlink ref="F61" r:id="rId16" display="meriembelabed5@gmail.com"/>
-    <hyperlink ref="F58" r:id="rId17" display="arab4abdelmajid@gmail"/>
-    <hyperlink ref="F98" r:id="rId18" display="mehadjiameslem@gmail.com"/>
-    <hyperlink ref="F72" r:id="rId19" display="douaaboularaf@gmail.com"/>
-    <hyperlink ref="F71" r:id="rId20" display="boukhari_sf@yahoo.com"/>
-    <hyperlink ref="F68" r:id="rId21" display="rawnakritedj@gmail.com"/>
-    <hyperlink ref="F88" r:id="rId22" display="kadrirania51@gmail.com"/>
-    <hyperlink ref="F108" r:id="rId23" display="zarebmohamedamine@gmail.com"/>
-    <hyperlink ref="F95" r:id="rId24" display="khalidamet4@gmail.com"/>
-    <hyperlink ref="F80" r:id="rId25" display="elghodasseabdelmadjid@gmail.com"/>
-    <hyperlink ref="F106" r:id="rId26" display="sacihamza40@gmail.com"/>
-    <hyperlink ref="F78" r:id="rId27" display="Lamia_du22@hotmail.com"/>
-    <hyperlink ref="F91" r:id="rId28" display="layatimedi@gmail.com"/>
-    <hyperlink ref="F70" r:id="rId29" display="boubkeurhalima97sba@gmail.com"/>
-    <hyperlink ref="F62" r:id="rId30" display="ri123hab@gmail.com"/>
-    <hyperlink ref="F69" r:id="rId31" display="berhenen@yahoo.fr"/>
-    <hyperlink ref="F82" r:id="rId32" display="khadidjafezazi90@gmail"/>
-    <hyperlink ref="F65" r:id="rId33" display="bendida65@gmail.com"/>
-    <hyperlink ref="F100" r:id="rId34" display="fethi22miloua@gmail.com" tooltip="mailto:fethi22miloua@gmail.com"/>
-    <hyperlink ref="F107" r:id="rId35" display="turkibilal22@gmail.com"/>
-    <hyperlink ref="F66" r:id="rId36" display="bkbhbb22@gmail.com"/>
-    <hyperlink ref="F101" r:id="rId37" display="khelifa-mir@outlook.fr"/>
-    <hyperlink ref="F76" r:id="rId38" display="djellouli7abderrahmane@gmail.com"/>
+    <hyperlink ref="F98" r:id="rId17" display="mehadjiameslem@gmail.com"/>
+    <hyperlink ref="F72" r:id="rId18" display="douaaboularaf@gmail.com"/>
+    <hyperlink ref="F68" r:id="rId19" display="rawnakritedj@gmail.com"/>
+    <hyperlink ref="F88" r:id="rId20" display="kadrirania51@gmail.com"/>
+    <hyperlink ref="F108" r:id="rId21" display="zarebmohamedamine@gmail.com"/>
+    <hyperlink ref="F95" r:id="rId22" display="khalidamet4@gmail.com"/>
+    <hyperlink ref="F80" r:id="rId23" display="elghodasseabdelmadjid@gmail.com"/>
+    <hyperlink ref="F106" r:id="rId24" display="sacihamza40@gmail.com"/>
+    <hyperlink ref="F78" r:id="rId25" display="Lamia_du22@hotmail.com"/>
+    <hyperlink ref="F91" r:id="rId26" display="layatimedi@gmail.com"/>
+    <hyperlink ref="F70" r:id="rId27" display="boubkeurhalima97sba@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId28" display="ri123hab@gmail.com"/>
+    <hyperlink ref="F69" r:id="rId29" display="berhenen@yahoo.fr"/>
+    <hyperlink ref="F82" r:id="rId30" display="khadidjafezazi90@gmail"/>
+    <hyperlink ref="F65" r:id="rId31" display="bendida65@gmail.com"/>
+    <hyperlink ref="F100" r:id="rId32" display="fethi22miloua@gmail.com"/>
+    <hyperlink ref="F107" r:id="rId33" display="turkibilal22@gmail.com"/>
+    <hyperlink ref="F66" r:id="rId34" display="bkbhbb22@gmail.com"/>
+    <hyperlink ref="F101" r:id="rId35" display="khelifa-mir@outlook.fr"/>
+    <hyperlink ref="F76" r:id="rId36" display="djellouli7abderrahmane@gmail.com"/>
+    <hyperlink ref="F44" r:id="rId37" display="rezoug.med@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="385">
   <si>
     <t>N°</t>
   </si>
@@ -549,643 +549,646 @@
     <t>MOUFOK</t>
   </si>
   <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohamedmoufak308@gmail.com </t>
+  </si>
+  <si>
+    <t>06 97 05 81 64</t>
+  </si>
+  <si>
+    <t>AZZA</t>
+  </si>
+  <si>
+    <t>ROMAISSA FATIMA ZOHRA</t>
+  </si>
+  <si>
+    <t>BELABED</t>
+  </si>
+  <si>
+    <t>meriembelabed5@gmail.com</t>
+  </si>
+  <si>
+    <t>BELHABRI</t>
+  </si>
+  <si>
+    <t>RIHAB</t>
+  </si>
+  <si>
+    <t>ri123hab@gmail.com</t>
+  </si>
+  <si>
+    <t>05540755 89</t>
+  </si>
+  <si>
+    <t>BELHALOUCHE</t>
+  </si>
+  <si>
+    <t>LAKHDAR</t>
+  </si>
+  <si>
+    <t>lakhdar_belhallouche@hotmail.fr</t>
+  </si>
+  <si>
+    <t>BENCELLA</t>
+  </si>
+  <si>
+    <t>SARRA</t>
+  </si>
+  <si>
+    <t>sarrabencella@gmail.com</t>
+  </si>
+  <si>
+    <t>BENDIDA</t>
+  </si>
+  <si>
+    <t>bendida65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 50 59 52 24 </t>
+  </si>
+  <si>
+    <t>BENKABOU</t>
+  </si>
+  <si>
+    <t>MOHAMED EL HABIB</t>
+  </si>
+  <si>
+    <t>bkbhbb22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 62 15 65 63 </t>
+  </si>
+  <si>
+    <t>BENMASOUD</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>l.benmessaoud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENSALEM</t>
+  </si>
+  <si>
+    <t>RITEDJ INES</t>
+  </si>
+  <si>
+    <t>rawnakritedj@gmail.com</t>
+  </si>
+  <si>
+    <t>BERROUNA</t>
+  </si>
+  <si>
+    <t>HANANEEL</t>
+  </si>
+  <si>
+    <t>berhenen@yahoo.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 71 74 58 06 </t>
+  </si>
+  <si>
+    <t>BOUBKEUR</t>
+  </si>
+  <si>
+    <t>HALIMA</t>
+  </si>
+  <si>
+    <t>boubkeurhalima97sba@gmail.com</t>
+  </si>
+  <si>
+    <t>06 74 50 65 01</t>
+  </si>
+  <si>
+    <t>BOUKHARI</t>
+  </si>
+  <si>
+    <t>SOUMIA</t>
+  </si>
+  <si>
+    <t>boukharisoumiafarah@gmail.com</t>
+  </si>
+  <si>
+    <t>BOULARAF</t>
+  </si>
+  <si>
+    <t>AICHA</t>
+  </si>
+  <si>
+    <t>douaaboularaf@gmail.com</t>
+  </si>
+  <si>
+    <t>CHIKHI</t>
+  </si>
+  <si>
+    <t>NAWEL</t>
+  </si>
+  <si>
+    <t>chikhi nawel75@yahoo.fr</t>
+  </si>
+  <si>
+    <t>06 75 33 80 01</t>
+  </si>
+  <si>
+    <t>DELLOUM</t>
+  </si>
+  <si>
+    <t>AMIRA</t>
+  </si>
+  <si>
+    <t>amiradelloum28@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 54 96 88 33 </t>
+  </si>
+  <si>
+    <t>DJELLOULI</t>
+  </si>
+  <si>
+    <t>YOUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
+  </si>
+  <si>
+    <t>ABDERRAHMANE</t>
+  </si>
+  <si>
+    <t>djellouli7abderrahmane@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 80 29 68 02 </t>
+  </si>
+  <si>
+    <t>DJIZIRI</t>
+  </si>
+  <si>
+    <t>soumiadjiziri22@gmail.com</t>
+  </si>
+  <si>
+    <t>DRICI</t>
+  </si>
+  <si>
+    <t>LAMIA</t>
+  </si>
+  <si>
+    <t>Lamia_du22@hotmail.com</t>
+  </si>
+  <si>
+    <t>DRIF</t>
+  </si>
+  <si>
+    <t>FAIZA</t>
+  </si>
+  <si>
+    <t>ELGHODASSE</t>
+  </si>
+  <si>
+    <t>ABDEL MADJID</t>
+  </si>
+  <si>
+    <t>elghodasseabdelmadjid@gmail.com</t>
+  </si>
+  <si>
+    <t>FENTAZY</t>
+  </si>
+  <si>
+    <t>BELKISSE</t>
+  </si>
+  <si>
+    <t>fantazibelkisse.13@gmail.com</t>
+  </si>
+  <si>
+    <t>FEZAZI</t>
+  </si>
+  <si>
+    <t>KHADIDJA</t>
+  </si>
+  <si>
+    <t>khadidjafezazi90@gmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06660791 28 </t>
+  </si>
+  <si>
+    <t>GHALEM</t>
+  </si>
+  <si>
+    <t>ABDELHAK</t>
+  </si>
+  <si>
+    <t>ghalem.abdelhak@yahoo.com</t>
+  </si>
+  <si>
+    <t>HADER</t>
+  </si>
+  <si>
+    <t>aer.hader91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 41 0044 75 </t>
+  </si>
+  <si>
+    <t>HAMMAR</t>
+  </si>
+  <si>
+    <t>MEHDI</t>
+  </si>
+  <si>
+    <t>protoboy9999@gmail.com</t>
+  </si>
+  <si>
+    <t>KADA ZAIR</t>
+  </si>
+  <si>
+    <t>IKRAM</t>
+  </si>
+  <si>
+    <t>ikram.kadazair@gmail.com</t>
+  </si>
+  <si>
+    <t>KADRI</t>
+  </si>
+  <si>
+    <t>RANIA</t>
+  </si>
+  <si>
+    <t>kadrirania51@gmail.com</t>
+  </si>
+  <si>
+    <t>KHELLAF</t>
+  </si>
+  <si>
+    <t>KADDA</t>
+  </si>
+  <si>
+    <t>khellafkadda1234@gmail.com</t>
+  </si>
+  <si>
+    <t>LATRECHE</t>
+  </si>
+  <si>
+    <t>MOKHTAR</t>
+  </si>
+  <si>
+    <t>m_latreche@yahoo.com</t>
+  </si>
+  <si>
+    <t>LAYATI</t>
+  </si>
+  <si>
+    <t>TAYEB MEHDI</t>
+  </si>
+  <si>
+    <t>layatimedi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06964431 32   </t>
+  </si>
+  <si>
+    <t>LOUSDAD</t>
+  </si>
+  <si>
+    <t>AYMEN</t>
+  </si>
+  <si>
+    <t>lousdadaymen.aziz@gmail.com</t>
+  </si>
+  <si>
+    <t>MAHKOUKA</t>
+  </si>
+  <si>
+    <t>ZAZA</t>
+  </si>
+  <si>
+    <t>mahkouka.zaza@gmail.com</t>
+  </si>
+  <si>
+    <t>MANSOURI</t>
+  </si>
+  <si>
+    <t>ABDERRAZAK</t>
+  </si>
+  <si>
+    <t>MECHETTEM</t>
+  </si>
+  <si>
+    <t>KHALIDA</t>
+  </si>
+  <si>
+    <t>khalidamet4@gmail.com</t>
+  </si>
+  <si>
+    <t>MEKHALEF</t>
+  </si>
+  <si>
+    <t>mekhalefleila@gmail.com</t>
+  </si>
+  <si>
+    <t>MERADJAH</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>ibrahimmeradjah72@gmail.com</t>
+  </si>
+  <si>
+    <t>MESLEM</t>
+  </si>
+  <si>
+    <t>MEHADJIA</t>
+  </si>
+  <si>
+    <t>mehadjiameslem@gmail.com</t>
+  </si>
+  <si>
+    <t>MESTARI</t>
+  </si>
+  <si>
+    <t>WAHIBA</t>
+  </si>
+  <si>
+    <t>wahibaelmestarii@gmail.com</t>
+  </si>
+  <si>
+    <t>FETHI.M</t>
+  </si>
+  <si>
+    <t>FETHI</t>
+  </si>
+  <si>
+    <t>fethi22miloua@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0664 31 52 76 </t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>KHELIFA</t>
+  </si>
+  <si>
+    <t>khelifa-mir@outlook.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 69 59 78 39 </t>
+  </si>
+  <si>
+    <t>MOKADEM</t>
+  </si>
+  <si>
+    <t>AMINA</t>
+  </si>
+  <si>
+    <t>mokeddem.amina2222@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06564287 15 </t>
+  </si>
+  <si>
+    <t>MOULAY</t>
+  </si>
+  <si>
+    <t>MILOUD</t>
+  </si>
+  <si>
+    <t>mmiloud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>NEFAHA</t>
+  </si>
+  <si>
+    <t>ABOUBAKR</t>
+  </si>
+  <si>
+    <t>Boba1620@hotmail.com</t>
+  </si>
+  <si>
+    <t>REDJALA</t>
+  </si>
+  <si>
+    <t>MAJDA</t>
+  </si>
+  <si>
+    <t>majdaredjala1492@gmail.com</t>
+  </si>
+  <si>
+    <t>05 53 64 47 91</t>
+  </si>
+  <si>
+    <t>SACI</t>
+  </si>
+  <si>
+    <t>sacihamza40@gmail.com</t>
+  </si>
+  <si>
+    <t>TURKI</t>
+  </si>
+  <si>
+    <t>BILAL MEROUANE</t>
+  </si>
+  <si>
+    <t>turkibilal22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 55 20 68 65 </t>
+  </si>
+  <si>
+    <t>ZAREB</t>
+  </si>
+  <si>
+    <t>zarebmohamedamine@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 74 68 05 35 </t>
+  </si>
+  <si>
+    <t>ZERDANI</t>
+  </si>
+  <si>
+    <t>medzerdani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 60 15 22 65 </t>
+  </si>
+  <si>
+    <t>ZIANI</t>
+  </si>
+  <si>
+    <t>DJAMEL</t>
+  </si>
+  <si>
+    <t>ziani_djamel@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ZIDI-2</t>
+  </si>
+  <si>
+    <t>LARBI</t>
+  </si>
+  <si>
+    <t>larbi.zidi6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 92 12 03 38 </t>
+  </si>
+  <si>
+    <t>Permanentt</t>
+  </si>
+  <si>
+    <t>Abdelhamid</t>
+  </si>
+  <si>
+    <t>bensalemabdelhamid7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drouni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wassila Abir </t>
+  </si>
+  <si>
+    <t>Wassila.drouni@gmail.com</t>
+  </si>
+  <si>
+    <t>RAIS</t>
+  </si>
+  <si>
+    <t>ABDELMAJID</t>
+  </si>
+  <si>
+    <t>amrais@yahoo.com</t>
+  </si>
+  <si>
+    <t>REGUIG</t>
+  </si>
+  <si>
+    <t>ABDELDJALIL</t>
+  </si>
+  <si>
+    <t>abdeldjalil.reguig@outlook.com</t>
+  </si>
+  <si>
+    <t>CYCLE</t>
+  </si>
+  <si>
+    <t>PROMOTION</t>
+  </si>
+  <si>
+    <t>HORAIRE</t>
+  </si>
+  <si>
+    <t>RÉPARTITION (GROUPES / SALLES)</t>
+  </si>
+  <si>
+    <t>INGÉNIEUR</t>
+  </si>
+  <si>
+    <t>ING1</t>
+  </si>
+  <si>
+    <t>13h30 – 15h30</t>
+  </si>
+  <si>
+    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
+  </si>
+  <si>
+    <t>ING2</t>
+  </si>
+  <si>
+    <t>11h00 – 13h00</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08 BIS</t>
+  </si>
+  <si>
+    <t>ING3-EI</t>
+  </si>
+  <si>
+    <t>08h30 – 10h30</t>
+  </si>
+  <si>
+    <t>Promotion entière : SN</t>
+  </si>
+  <si>
+    <t>ING3-TM</t>
+  </si>
+  <si>
+    <t>Promotion entière : A10</t>
+  </si>
+  <si>
+    <t>ING4-CI</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 14</t>
+  </si>
+  <si>
+    <t>LICENCE</t>
+  </si>
+  <si>
+    <t>L2ELT</t>
+  </si>
+  <si>
+    <t>G1: A8 / G2: A9 / G3: A12</t>
+  </si>
+  <si>
+    <t>L3ELT</t>
+  </si>
+  <si>
+    <t>MASTER / MCIL</t>
+  </si>
+  <si>
+    <t>MCIL1</t>
+  </si>
+  <si>
+    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
+  </si>
+  <si>
+    <t>MCIL2</t>
+  </si>
+  <si>
+    <t>G1+G2: A10, G3: S02, G4: S06</t>
+  </si>
+  <si>
+    <t>MCIL3</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 01</t>
+  </si>
+  <si>
+    <t>M1CE</t>
+  </si>
+  <si>
+    <t>M1ER</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 06</t>
+  </si>
+  <si>
+    <t>M1ME</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08</t>
+  </si>
+  <si>
+    <t>M1MCIL</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 02</t>
+  </si>
+  <si>
+    <t>M1RE</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 04</t>
+  </si>
+  <si>
     <t>mohamedmoufak308</t>
-  </si>
-  <si>
-    <t>06 97 05 81 64</t>
-  </si>
-  <si>
-    <t>AZZA</t>
-  </si>
-  <si>
-    <t>ROMAISSA FATIMA ZOHRA</t>
-  </si>
-  <si>
-    <t>BELABED</t>
-  </si>
-  <si>
-    <t>meriembelabed5@gmail.com</t>
-  </si>
-  <si>
-    <t>BELHABRI</t>
-  </si>
-  <si>
-    <t>RIHAB</t>
-  </si>
-  <si>
-    <t>ri123hab@gmail.com</t>
-  </si>
-  <si>
-    <t>05540755 89</t>
-  </si>
-  <si>
-    <t>BELHALOUCHE</t>
-  </si>
-  <si>
-    <t>LAKHDAR</t>
-  </si>
-  <si>
-    <t>lakhdar_belhallouche@hotmail.fr</t>
-  </si>
-  <si>
-    <t>BENCELLA</t>
-  </si>
-  <si>
-    <t>SARRA</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>sarrabencella@gmail.com</t>
-  </si>
-  <si>
-    <t>BENDIDA</t>
-  </si>
-  <si>
-    <t>bendida65@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 50 59 52 24 </t>
-  </si>
-  <si>
-    <t>BENKABOU</t>
-  </si>
-  <si>
-    <t>MOHAMED EL HABIB</t>
-  </si>
-  <si>
-    <t>bkbhbb22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 62 15 65 63 </t>
-  </si>
-  <si>
-    <t>BENMASOUD</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>l.benmessaoud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENSALEM</t>
-  </si>
-  <si>
-    <t>RITEDJ INES</t>
-  </si>
-  <si>
-    <t>rawnakritedj@gmail.com</t>
-  </si>
-  <si>
-    <t>BERROUNA</t>
-  </si>
-  <si>
-    <t>HANANEEL</t>
-  </si>
-  <si>
-    <t>berhenen@yahoo.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 71 74 58 06 </t>
-  </si>
-  <si>
-    <t>BOUBKEUR</t>
-  </si>
-  <si>
-    <t>HALIMA</t>
-  </si>
-  <si>
-    <t>boubkeurhalima97sba@gmail.com</t>
-  </si>
-  <si>
-    <t>06 74 50 65 01</t>
-  </si>
-  <si>
-    <t>BOUKHARI</t>
-  </si>
-  <si>
-    <t>SOUMIA</t>
-  </si>
-  <si>
-    <t>boukharisoumiafarah@gmail.com</t>
-  </si>
-  <si>
-    <t>BOULARAF</t>
-  </si>
-  <si>
-    <t>AICHA</t>
-  </si>
-  <si>
-    <t>douaaboularaf@gmail.com</t>
-  </si>
-  <si>
-    <t>CHIKHI</t>
-  </si>
-  <si>
-    <t>NAWEL</t>
-  </si>
-  <si>
-    <t>chikhi nawel75@yahoo.fr</t>
-  </si>
-  <si>
-    <t>06 75 33 80 01</t>
-  </si>
-  <si>
-    <t>DELLOUM</t>
-  </si>
-  <si>
-    <t>AMIRA</t>
-  </si>
-  <si>
-    <t>amiradelloum28@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 54 96 88 33 </t>
-  </si>
-  <si>
-    <t>DJELLOULI</t>
-  </si>
-  <si>
-    <t>YOUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
-  </si>
-  <si>
-    <t>ABDERRAHMANE</t>
-  </si>
-  <si>
-    <t>djellouli7abderrahmane@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 80 29 68 02 </t>
-  </si>
-  <si>
-    <t>DJIZIRI</t>
-  </si>
-  <si>
-    <t>soumiadjiziri22@gmail.com</t>
-  </si>
-  <si>
-    <t>DRICI</t>
-  </si>
-  <si>
-    <t>LAMIA</t>
-  </si>
-  <si>
-    <t>Lamia_du22@hotmail.com</t>
-  </si>
-  <si>
-    <t>DRIF</t>
-  </si>
-  <si>
-    <t>FAIZA</t>
-  </si>
-  <si>
-    <t>ELGHODASSE</t>
-  </si>
-  <si>
-    <t>ABDEL MADJID</t>
-  </si>
-  <si>
-    <t>elghodasseabdelmadjid@gmail.com</t>
-  </si>
-  <si>
-    <t>FENTAZY</t>
-  </si>
-  <si>
-    <t>BELKISSE</t>
-  </si>
-  <si>
-    <t>fantazibelkisse.13@gmail.com</t>
-  </si>
-  <si>
-    <t>FEZAZI</t>
-  </si>
-  <si>
-    <t>KHADIDJA</t>
-  </si>
-  <si>
-    <t>khadidjafezazi90@gmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06660791 28 </t>
-  </si>
-  <si>
-    <t>GHALEM</t>
-  </si>
-  <si>
-    <t>ABDELHAK</t>
-  </si>
-  <si>
-    <t>ghalem.abdelhak@yahoo.com</t>
-  </si>
-  <si>
-    <t>HADER</t>
-  </si>
-  <si>
-    <t>aer.hader91@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 41 0044 75 </t>
-  </si>
-  <si>
-    <t>HAMMAR</t>
-  </si>
-  <si>
-    <t>MEHDI</t>
-  </si>
-  <si>
-    <t>protoboy9999@gmail.com</t>
-  </si>
-  <si>
-    <t>KADA ZAIR</t>
-  </si>
-  <si>
-    <t>IKRAM</t>
-  </si>
-  <si>
-    <t>ikram.kadazair@gmail.com</t>
-  </si>
-  <si>
-    <t>KADRI</t>
-  </si>
-  <si>
-    <t>RANIA</t>
-  </si>
-  <si>
-    <t>kadrirania51@gmail.com</t>
-  </si>
-  <si>
-    <t>KHELLAF</t>
-  </si>
-  <si>
-    <t>KADDA</t>
-  </si>
-  <si>
-    <t>khellafkadda1234@gmail.com</t>
-  </si>
-  <si>
-    <t>LATRECHE</t>
-  </si>
-  <si>
-    <t>MOKHTAR</t>
-  </si>
-  <si>
-    <t>m_latreche@yahoo.com</t>
-  </si>
-  <si>
-    <t>LAYATI</t>
-  </si>
-  <si>
-    <t>TAYEB MEHDI</t>
-  </si>
-  <si>
-    <t>layatimedi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06964431 32   </t>
-  </si>
-  <si>
-    <t>LOUSDAD</t>
-  </si>
-  <si>
-    <t>AYMEN</t>
-  </si>
-  <si>
-    <t>lousdadaymen.aziz@gmail.com</t>
-  </si>
-  <si>
-    <t>MAHKOUKA</t>
-  </si>
-  <si>
-    <t>ZAZA</t>
-  </si>
-  <si>
-    <t>mahkouka.zaza@gmail.com</t>
-  </si>
-  <si>
-    <t>MANSOURI</t>
-  </si>
-  <si>
-    <t>ABDERRAZAK</t>
-  </si>
-  <si>
-    <t>MECHETTEM</t>
-  </si>
-  <si>
-    <t>KHALIDA</t>
-  </si>
-  <si>
-    <t>khalidamet4@gmail.com</t>
-  </si>
-  <si>
-    <t>MEKHALEF</t>
-  </si>
-  <si>
-    <t>mekhalefleila@gmail.com</t>
-  </si>
-  <si>
-    <t>MERADJAH</t>
-  </si>
-  <si>
-    <t>IBRAHIM</t>
-  </si>
-  <si>
-    <t>ibrahimmeradjah72@gmail.com</t>
-  </si>
-  <si>
-    <t>MESLEM</t>
-  </si>
-  <si>
-    <t>MEHADJIA</t>
-  </si>
-  <si>
-    <t>mehadjiameslem@gmail.com</t>
-  </si>
-  <si>
-    <t>MESTARI</t>
-  </si>
-  <si>
-    <t>WAHIBA</t>
-  </si>
-  <si>
-    <t>wahibaelmestarii@gmail.com</t>
-  </si>
-  <si>
-    <t>FETHI.M</t>
-  </si>
-  <si>
-    <t>FETHI</t>
-  </si>
-  <si>
-    <t>fethi22miloua@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0664 31 52 76 </t>
-  </si>
-  <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>KHELIFA</t>
-  </si>
-  <si>
-    <t>khelifa-mir@outlook.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 69 59 78 39 </t>
-  </si>
-  <si>
-    <t>MOKADEM</t>
-  </si>
-  <si>
-    <t>AMINA</t>
-  </si>
-  <si>
-    <t>mokeddem.amina2222@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06564287 15 </t>
-  </si>
-  <si>
-    <t>MOULAY</t>
-  </si>
-  <si>
-    <t>MILOUD</t>
-  </si>
-  <si>
-    <t>mmiloud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>NEFAHA</t>
-  </si>
-  <si>
-    <t>ABOUBAKR</t>
-  </si>
-  <si>
-    <t>Boba1620@hotmail.com</t>
-  </si>
-  <si>
-    <t>REDJALA</t>
-  </si>
-  <si>
-    <t>MAJDA</t>
-  </si>
-  <si>
-    <t>majdaredjala1492@gmail.com</t>
-  </si>
-  <si>
-    <t>05 53 64 47 91</t>
-  </si>
-  <si>
-    <t>SACI</t>
-  </si>
-  <si>
-    <t>sacihamza40@gmail.com</t>
-  </si>
-  <si>
-    <t>TURKI</t>
-  </si>
-  <si>
-    <t>BILAL MEROUANE</t>
-  </si>
-  <si>
-    <t>turkibilal22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 55 20 68 65 </t>
-  </si>
-  <si>
-    <t>ZAREB</t>
-  </si>
-  <si>
-    <t>zarebmohamedamine@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 74 68 05 35 </t>
-  </si>
-  <si>
-    <t>ZERDANI</t>
-  </si>
-  <si>
-    <t>medzerdani@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 60 15 22 65 </t>
-  </si>
-  <si>
-    <t>ZIANI</t>
-  </si>
-  <si>
-    <t>DJAMEL</t>
-  </si>
-  <si>
-    <t>ziani_djamel@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ZIDI-2</t>
-  </si>
-  <si>
-    <t>LARBI</t>
-  </si>
-  <si>
-    <t>larbi.zidi6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 92 12 03 38 </t>
-  </si>
-  <si>
-    <t>Permanentt</t>
-  </si>
-  <si>
-    <t>Abdelhamid</t>
-  </si>
-  <si>
-    <t>bensalemabdelhamid7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drouni </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wassila Abir </t>
-  </si>
-  <si>
-    <t>Wassila.drouni@gmail.com</t>
-  </si>
-  <si>
-    <t>RAIS</t>
-  </si>
-  <si>
-    <t>ABDELMAJID</t>
-  </si>
-  <si>
-    <t>amrais@yahoo.com</t>
-  </si>
-  <si>
-    <t>REGUIG</t>
-  </si>
-  <si>
-    <t>ABDELDJALIL</t>
-  </si>
-  <si>
-    <t>abdeldjalil.reguig@outlook.com</t>
-  </si>
-  <si>
-    <t>CYCLE</t>
-  </si>
-  <si>
-    <t>PROMOTION</t>
-  </si>
-  <si>
-    <t>HORAIRE</t>
-  </si>
-  <si>
-    <t>RÉPARTITION (GROUPES / SALLES)</t>
-  </si>
-  <si>
-    <t>INGÉNIEUR</t>
-  </si>
-  <si>
-    <t>ING1</t>
-  </si>
-  <si>
-    <t>13h30 – 15h30</t>
-  </si>
-  <si>
-    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
-  </si>
-  <si>
-    <t>ING2</t>
-  </si>
-  <si>
-    <t>11h00 – 13h00</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08 BIS</t>
-  </si>
-  <si>
-    <t>ING3-EI</t>
-  </si>
-  <si>
-    <t>08h30 – 10h30</t>
-  </si>
-  <si>
-    <t>Promotion entière : SN</t>
-  </si>
-  <si>
-    <t>ING3-TM</t>
-  </si>
-  <si>
-    <t>Promotion entière : A10</t>
-  </si>
-  <si>
-    <t>ING4-CI</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 14</t>
-  </si>
-  <si>
-    <t>LICENCE</t>
-  </si>
-  <si>
-    <t>L2ELT</t>
-  </si>
-  <si>
-    <t>G1: A8 / G2: A9 / G3: A12</t>
-  </si>
-  <si>
-    <t>L3ELT</t>
-  </si>
-  <si>
-    <t>MASTER / MCIL</t>
-  </si>
-  <si>
-    <t>MCIL1</t>
-  </si>
-  <si>
-    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
-  </si>
-  <si>
-    <t>MCIL2</t>
-  </si>
-  <si>
-    <t>G1+G2: A10, G3: S02, G4: S06</t>
-  </si>
-  <si>
-    <t>MCIL3</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 01</t>
-  </si>
-  <si>
-    <t>M1CE</t>
-  </si>
-  <si>
-    <t>M1ER</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 06</t>
-  </si>
-  <si>
-    <t>M1ME</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08</t>
-  </si>
-  <si>
-    <t>M1MCIL</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 02</t>
-  </si>
-  <si>
-    <t>M1RE</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 04</t>
   </si>
 </sst>
 </file>
@@ -2388,11 +2391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2429,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="15.75" hidden="1" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2450,7 +2453,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
@@ -2472,7 +2475,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2494,7 +2497,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2516,7 +2519,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2538,7 +2541,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2560,7 +2563,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2582,7 +2585,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2604,7 +2607,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2626,7 +2629,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" spans="1:7">
+    <row r="11" ht="15.75" hidden="1" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2648,7 +2651,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2668,7 +2671,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2690,7 +2693,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2712,7 +2715,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2734,7 +2737,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2756,7 +2759,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2778,7 +2781,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2800,7 +2803,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2822,7 +2825,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2844,7 +2847,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2866,7 +2869,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2888,7 +2891,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2910,7 +2913,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2932,7 +2935,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2954,7 +2957,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2976,7 +2979,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2998,7 +3001,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3020,7 +3023,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3042,7 +3045,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3064,7 +3067,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3086,7 +3089,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3106,7 +3109,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3128,7 +3131,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3150,7 +3153,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3172,7 +3175,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3214,7 +3217,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3234,7 +3237,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3256,7 +3259,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3278,7 +3281,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3300,7 +3303,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3322,7 +3325,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3366,7 +3369,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3388,7 +3391,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3410,7 +3413,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3432,7 +3435,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3454,7 +3457,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3476,7 +3479,7 @@
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3498,7 +3501,7 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" spans="1:7">
+    <row r="51" ht="15.75" hidden="1" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3518,7 +3521,7 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" spans="1:7">
+    <row r="52" ht="15.75" hidden="1" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3540,7 +3543,7 @@
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3562,7 +3565,7 @@
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3582,7 +3585,7 @@
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3600,7 +3603,7 @@
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3620,7 +3623,7 @@
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3640,7 +3643,7 @@
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3676,24 +3679,26 @@
       <c r="D59" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="F59" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="1:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>155</v>
@@ -3702,13 +3707,13 @@
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>148</v>
@@ -3718,75 +3723,75 @@
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="1:7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" hidden="1" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>187</v>
       </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3808,7 +3813,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" ht="15.75" spans="1:7">
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3830,7 +3835,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" ht="15.75" spans="1:7">
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3850,7 +3855,7 @@
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" ref="A68:A112" si="1">A67+1</f>
         <v>67</v>
@@ -3870,7 +3875,7 @@
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3892,7 +3897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" ht="15.75" spans="1:7">
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3914,7 +3919,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" ht="15.75" spans="1:7">
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3936,7 +3941,7 @@
       </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3956,7 +3961,7 @@
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -3978,7 +3983,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" ht="15.75" spans="1:7">
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -3993,7 +3998,7 @@
         <v>155</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>221</v>
@@ -4002,7 +4007,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" ht="15.75" spans="1:7">
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4022,7 +4027,7 @@
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4044,7 +4049,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" ht="15.75" spans="1:7">
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4064,7 +4069,7 @@
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4084,7 +4089,7 @@
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4102,7 +4107,7 @@
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4122,7 +4127,7 @@
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4142,7 +4147,7 @@
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4164,7 +4169,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:7">
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4182,7 +4187,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4202,7 +4207,7 @@
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" spans="1:7">
+    <row r="85" ht="15.75" hidden="1" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4226,7 +4231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:7">
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4246,7 +4251,7 @@
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4266,7 +4271,7 @@
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4286,7 +4291,7 @@
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4301,14 +4306,14 @@
         <v>155</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>263</v>
       </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4328,7 +4333,7 @@
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4350,7 +4355,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="92" ht="15.75" spans="1:7">
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4370,7 +4375,7 @@
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4385,14 +4390,14 @@
         <v>155</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F93" s="18" t="s">
         <v>276</v>
       </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4410,7 +4415,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4430,7 +4435,7 @@
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4450,7 +4455,7 @@
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4472,7 +4477,7 @@
       </c>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4492,7 +4497,7 @@
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4512,7 +4517,7 @@
       </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" ht="15.75" spans="1:7">
+    <row r="100" ht="15.75" hidden="1" spans="1:7">
       <c r="A100" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4534,7 +4539,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" ht="15.75" spans="1:7">
+    <row r="101" ht="15.75" hidden="1" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4549,7 +4554,7 @@
         <v>155</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>299</v>
@@ -4558,7 +4563,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" ht="15.75" spans="1:7">
+    <row r="102" ht="15.75" hidden="1" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4580,7 +4585,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" ht="15.75" spans="1:7">
+    <row r="103" ht="15.75" hidden="1" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4600,7 +4605,7 @@
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" spans="1:7">
+    <row r="104" ht="15.75" hidden="1" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4620,7 +4625,7 @@
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" spans="1:7">
+    <row r="105" ht="15.75" hidden="1" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4642,7 +4647,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" ht="15.75" spans="1:7">
+    <row r="106" ht="15.75" hidden="1" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4662,7 +4667,7 @@
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" spans="1:7">
+    <row r="107" ht="15.75" hidden="1" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4684,7 +4689,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="108" ht="15.75" spans="1:7">
+    <row r="108" ht="15.75" hidden="1" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4706,7 +4711,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" ht="15.75" spans="1:7">
+    <row r="109" ht="15.75" hidden="1" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4728,7 +4733,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="110" ht="15.75" spans="1:7">
+    <row r="110" ht="15.75" hidden="1" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4750,7 +4755,7 @@
       </c>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" spans="1:7">
+    <row r="111" ht="15.75" hidden="1" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4772,7 +4777,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" ht="15.75" spans="1:7">
+    <row r="112" ht="15.75" hidden="1" spans="1:7">
       <c r="A112" s="9">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4781,7 +4786,7 @@
         <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>334</v>
@@ -4792,7 +4797,7 @@
       <c r="F112" s="12"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" spans="1:7">
+    <row r="113" ht="15.75" hidden="1" spans="1:7">
       <c r="A113" s="9">
         <v>112</v>
       </c>
@@ -4813,7 +4818,7 @@
       </c>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" ht="15.75" spans="1:7">
+    <row r="114" ht="15.75" hidden="1" spans="1:7">
       <c r="A114" s="9">
         <v>113</v>
       </c>
@@ -4834,7 +4839,7 @@
       </c>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" ht="15.75" spans="1:7">
+    <row r="115" ht="15.75" hidden="1" spans="1:7">
       <c r="A115" s="20"/>
       <c r="B115" s="21" t="s">
         <v>340</v>
@@ -4853,7 +4858,7 @@
       </c>
       <c r="G115" s="13"/>
     </row>
-    <row r="116" ht="15.75" spans="1:7">
+    <row r="116" ht="15.75" hidden="1" spans="1:7">
       <c r="A116" s="20"/>
       <c r="B116" s="21" t="s">
         <v>343</v>
@@ -12420,6 +12425,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F116" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AREZKI"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:F116">
       <sortCondition ref="A1"/>
     </sortState>
@@ -16055,10 +16065,10 @@
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="18" t="s">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="15.75" spans="1:7">
@@ -16067,10 +16077,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>155</v>
@@ -16085,7 +16095,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>148</v>
@@ -16095,7 +16105,7 @@
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -16105,20 +16115,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" ht="15.75" spans="1:7">
@@ -16127,17 +16137,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -16147,16 +16157,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>187</v>
@@ -16370,7 +16380,7 @@
         <v>155</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F74" s="18" t="s">
         <v>221</v>
@@ -16678,7 +16688,7 @@
         <v>155</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>263</v>
@@ -16762,7 +16772,7 @@
         <v>155</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F93" s="18" t="s">
         <v>276</v>
@@ -16926,7 +16936,7 @@
         <v>155</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>299</v>
@@ -17158,7 +17168,7 @@
         <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>334</v>

--- a/Permanents-Vacataires-ELT2-2025-2026.xlsx
+++ b/Permanents-Vacataires-ELT2-2025-2026.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Permanents-Vacataires" sheetId="7" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permanents-Vacataires'!$A$1:$F$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Répartiion pour Examen'!$A$1:$D$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuille3!$A$1:$G$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Feuille3!$A$1:$G$116</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="385">
   <si>
     <t>N°</t>
   </si>
@@ -489,703 +489,703 @@
     <t>MOUNYA</t>
   </si>
   <si>
+    <t>ZIDI</t>
+  </si>
+  <si>
+    <t>sbzidi@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ABBES</t>
+  </si>
+  <si>
+    <t>Vacataire</t>
+  </si>
+  <si>
+    <t>abbasmohammed@gmail.com</t>
+  </si>
+  <si>
+    <t>ABDELLI</t>
+  </si>
+  <si>
+    <t>MAMA</t>
+  </si>
+  <si>
+    <t>ABED</t>
+  </si>
+  <si>
+    <t>ZOULIKHA</t>
+  </si>
+  <si>
+    <t>zoulikhaabed3@gmail.com</t>
+  </si>
+  <si>
+    <t>AISSANI</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>aliaissani97@gmail.com</t>
+  </si>
+  <si>
+    <t>ARAB</t>
+  </si>
+  <si>
+    <t>ABDELMADJID</t>
+  </si>
+  <si>
+    <t>Doctorat</t>
+  </si>
+  <si>
+    <t>arab4abdelmadjid@gmail.com</t>
+  </si>
+  <si>
+    <t>AREZKI</t>
+  </si>
+  <si>
+    <t>MOUFOK</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohamedmoufak308@gmail.com </t>
+  </si>
+  <si>
+    <t>06 97 05 81 64</t>
+  </si>
+  <si>
+    <t>AZZA</t>
+  </si>
+  <si>
+    <t>ROMAISSA FATIMA ZOHRA</t>
+  </si>
+  <si>
+    <t>BELABED</t>
+  </si>
+  <si>
+    <t>meriembelabed5@gmail.com</t>
+  </si>
+  <si>
+    <t>BELHABRI</t>
+  </si>
+  <si>
+    <t>RIHAB</t>
+  </si>
+  <si>
+    <t>ri123hab@gmail.com</t>
+  </si>
+  <si>
+    <t>05540755 89</t>
+  </si>
+  <si>
+    <t>BELHALOUCHE</t>
+  </si>
+  <si>
+    <t>LAKHDAR</t>
+  </si>
+  <si>
+    <t>lakhdar_belhallouche@hotmail.fr</t>
+  </si>
+  <si>
+    <t>BENCELLA</t>
+  </si>
+  <si>
+    <t>SARRA</t>
+  </si>
+  <si>
+    <t>sarrabencella@gmail.com</t>
+  </si>
+  <si>
+    <t>BENDIDA</t>
+  </si>
+  <si>
+    <t>bendida65@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 50 59 52 24 </t>
+  </si>
+  <si>
+    <t>BENKABOU</t>
+  </si>
+  <si>
+    <t>MOHAMED EL HABIB</t>
+  </si>
+  <si>
+    <t>bkbhbb22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 62 15 65 63 </t>
+  </si>
+  <si>
+    <t>BENMASOUD</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>l.benmessaoud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>BENSALEM</t>
+  </si>
+  <si>
+    <t>RITEDJ INES</t>
+  </si>
+  <si>
+    <t>rawnakritedj@gmail.com</t>
+  </si>
+  <si>
+    <t>BERROUNA</t>
+  </si>
+  <si>
+    <t>HANANEEL</t>
+  </si>
+  <si>
+    <t>berhenen@yahoo.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 71 74 58 06 </t>
+  </si>
+  <si>
+    <t>BOUBKEUR</t>
+  </si>
+  <si>
+    <t>HALIMA</t>
+  </si>
+  <si>
+    <t>boubkeurhalima97sba@gmail.com</t>
+  </si>
+  <si>
+    <t>06 74 50 65 01</t>
+  </si>
+  <si>
+    <t>BOUKHARI</t>
+  </si>
+  <si>
+    <t>SOUMIA</t>
+  </si>
+  <si>
+    <t>boukharisoumiafarah@gmail.com</t>
+  </si>
+  <si>
+    <t>BOULARAF</t>
+  </si>
+  <si>
+    <t>AICHA</t>
+  </si>
+  <si>
+    <t>douaaboularaf@gmail.com</t>
+  </si>
+  <si>
+    <t>CHIKHI</t>
+  </si>
+  <si>
+    <t>NAWEL</t>
+  </si>
+  <si>
+    <t>chikhi nawel75@yahoo.fr</t>
+  </si>
+  <si>
+    <t>06 75 33 80 01</t>
+  </si>
+  <si>
+    <t>DELLOUM</t>
+  </si>
+  <si>
+    <t>AMIRA</t>
+  </si>
+  <si>
+    <t>amiradelloum28@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 54 96 88 33 </t>
+  </si>
+  <si>
+    <t>DJELLOULI</t>
+  </si>
+  <si>
+    <t>YOUNES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
+  </si>
+  <si>
+    <t>ABDERRAHMANE</t>
+  </si>
+  <si>
+    <t>djellouli7abderrahmane@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 80 29 68 02 </t>
+  </si>
+  <si>
+    <t>DJIZIRI</t>
+  </si>
+  <si>
+    <t>soumiadjiziri22@gmail.com</t>
+  </si>
+  <si>
+    <t>DRICI</t>
+  </si>
+  <si>
+    <t>LAMIA</t>
+  </si>
+  <si>
+    <t>Lamia_du22@hotmail.com</t>
+  </si>
+  <si>
+    <t>DRIF</t>
+  </si>
+  <si>
+    <t>FAIZA</t>
+  </si>
+  <si>
+    <t>ELGHODASSE</t>
+  </si>
+  <si>
+    <t>ABDEL MADJID</t>
+  </si>
+  <si>
+    <t>elghodasseabdelmadjid@gmail.com</t>
+  </si>
+  <si>
+    <t>FENTAZY</t>
+  </si>
+  <si>
+    <t>BELKISSE</t>
+  </si>
+  <si>
+    <t>fantazibelkisse.13@gmail.com</t>
+  </si>
+  <si>
+    <t>FEZAZI</t>
+  </si>
+  <si>
+    <t>KHADIDJA</t>
+  </si>
+  <si>
+    <t>khadidjafezazi90@gmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06660791 28 </t>
+  </si>
+  <si>
+    <t>GHALEM</t>
+  </si>
+  <si>
+    <t>ABDELHAK</t>
+  </si>
+  <si>
+    <t>ghalem.abdelhak@yahoo.com</t>
+  </si>
+  <si>
+    <t>HADER</t>
+  </si>
+  <si>
+    <t>aer.hader91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05 41 0044 75 </t>
+  </si>
+  <si>
+    <t>HAMMAR</t>
+  </si>
+  <si>
+    <t>MEHDI</t>
+  </si>
+  <si>
+    <t>protoboy9999@gmail.com</t>
+  </si>
+  <si>
+    <t>KADA ZAIR</t>
+  </si>
+  <si>
+    <t>IKRAM</t>
+  </si>
+  <si>
+    <t>ikram.kadazair@gmail.com</t>
+  </si>
+  <si>
+    <t>KADRI</t>
+  </si>
+  <si>
+    <t>RANIA</t>
+  </si>
+  <si>
+    <t>kadrirania51@gmail.com</t>
+  </si>
+  <si>
+    <t>KHELLAF</t>
+  </si>
+  <si>
+    <t>KADDA</t>
+  </si>
+  <si>
+    <t>khellafkadda1234@gmail.com</t>
+  </si>
+  <si>
+    <t>LATRECHE</t>
+  </si>
+  <si>
+    <t>MOKHTAR</t>
+  </si>
+  <si>
+    <t>m_latreche@yahoo.com</t>
+  </si>
+  <si>
+    <t>LAYATI</t>
+  </si>
+  <si>
+    <t>TAYEB MEHDI</t>
+  </si>
+  <si>
+    <t>layatimedi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06964431 32   </t>
+  </si>
+  <si>
+    <t>LOUSDAD</t>
+  </si>
+  <si>
+    <t>AYMEN</t>
+  </si>
+  <si>
+    <t>lousdadaymen.aziz@gmail.com</t>
+  </si>
+  <si>
+    <t>MAHKOUKA</t>
+  </si>
+  <si>
+    <t>ZAZA</t>
+  </si>
+  <si>
+    <t>mahkouka.zaza@gmail.com</t>
+  </si>
+  <si>
+    <t>MANSOURI</t>
+  </si>
+  <si>
+    <t>ABDERRAZAK</t>
+  </si>
+  <si>
+    <t>MECHETTEM</t>
+  </si>
+  <si>
+    <t>KHALIDA</t>
+  </si>
+  <si>
+    <t>khalidamet4@gmail.com</t>
+  </si>
+  <si>
+    <t>MEKHALEF</t>
+  </si>
+  <si>
+    <t>mekhalefleila@gmail.com</t>
+  </si>
+  <si>
+    <t>MERADJAH</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>ibrahimmeradjah72@gmail.com</t>
+  </si>
+  <si>
+    <t>MESLEM</t>
+  </si>
+  <si>
+    <t>MEHADJIA</t>
+  </si>
+  <si>
+    <t>mehadjiameslem@gmail.com</t>
+  </si>
+  <si>
+    <t>MESTARI</t>
+  </si>
+  <si>
+    <t>WAHIBA</t>
+  </si>
+  <si>
+    <t>wahibaelmestarii@gmail.com</t>
+  </si>
+  <si>
+    <t>FETHI.M</t>
+  </si>
+  <si>
+    <t>FETHI</t>
+  </si>
+  <si>
+    <t>fethi22miloua@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0664 31 52 76 </t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>KHELIFA</t>
+  </si>
+  <si>
+    <t>khelifa-mir@outlook.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 69 59 78 39 </t>
+  </si>
+  <si>
+    <t>MOKADEM</t>
+  </si>
+  <si>
+    <t>AMINA</t>
+  </si>
+  <si>
+    <t>mokeddem.amina2222@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06564287 15 </t>
+  </si>
+  <si>
+    <t>MOULAY</t>
+  </si>
+  <si>
+    <t>MILOUD</t>
+  </si>
+  <si>
+    <t>mmiloud@yahoo.fr</t>
+  </si>
+  <si>
+    <t>NEFAHA</t>
+  </si>
+  <si>
+    <t>ABOUBAKR</t>
+  </si>
+  <si>
+    <t>Boba1620@hotmail.com</t>
+  </si>
+  <si>
+    <t>REDJALA</t>
+  </si>
+  <si>
+    <t>MAJDA</t>
+  </si>
+  <si>
+    <t>majdaredjala1492@gmail.com</t>
+  </si>
+  <si>
+    <t>05 53 64 47 91</t>
+  </si>
+  <si>
+    <t>SACI</t>
+  </si>
+  <si>
+    <t>sacihamza40@gmail.com</t>
+  </si>
+  <si>
+    <t>TURKI</t>
+  </si>
+  <si>
+    <t>BILAL MEROUANE</t>
+  </si>
+  <si>
+    <t>turkibilal22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 55 20 68 65 </t>
+  </si>
+  <si>
+    <t>ZAREB</t>
+  </si>
+  <si>
+    <t>zarebmohamedamine@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 74 68 05 35 </t>
+  </si>
+  <si>
+    <t>ZERDANI</t>
+  </si>
+  <si>
+    <t>medzerdani@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 60 15 22 65 </t>
+  </si>
+  <si>
+    <t>ZIANI</t>
+  </si>
+  <si>
+    <t>DJAMEL</t>
+  </si>
+  <si>
+    <t>ziani_djamel@yahoo.fr</t>
+  </si>
+  <si>
+    <t>ZIDI-2</t>
+  </si>
+  <si>
+    <t>LARBI</t>
+  </si>
+  <si>
+    <t>larbi.zidi6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07 92 12 03 38 </t>
+  </si>
+  <si>
+    <t>Permanentt</t>
+  </si>
+  <si>
+    <t>Abdelhamid</t>
+  </si>
+  <si>
+    <t>bensalemabdelhamid7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drouni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wassila Abir </t>
+  </si>
+  <si>
+    <t>Wassila.drouni@gmail.com</t>
+  </si>
+  <si>
+    <t>RAIS</t>
+  </si>
+  <si>
+    <t>ABDELMAJID</t>
+  </si>
+  <si>
+    <t>amrais@yahoo.com</t>
+  </si>
+  <si>
+    <t>REGUIG</t>
+  </si>
+  <si>
+    <t>ABDELDJALIL</t>
+  </si>
+  <si>
+    <t>abdeldjalil.reguig@outlook.com</t>
+  </si>
+  <si>
+    <t>CYCLE</t>
+  </si>
+  <si>
+    <t>PROMOTION</t>
+  </si>
+  <si>
+    <t>HORAIRE</t>
+  </si>
+  <si>
+    <t>RÉPARTITION (GROUPES / SALLES)</t>
+  </si>
+  <si>
+    <t>INGÉNIEUR</t>
+  </si>
+  <si>
+    <t>ING1</t>
+  </si>
+  <si>
+    <t>13h30 – 15h30</t>
+  </si>
+  <si>
+    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
+  </si>
+  <si>
+    <t>ING2</t>
+  </si>
+  <si>
+    <t>11h00 – 13h00</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08 BIS</t>
+  </si>
+  <si>
+    <t>ING3-EI</t>
+  </si>
+  <si>
+    <t>08h30 – 10h30</t>
+  </si>
+  <si>
+    <t>Promotion entière : SN</t>
+  </si>
+  <si>
+    <t>ING3-TM</t>
+  </si>
+  <si>
+    <t>Promotion entière : A10</t>
+  </si>
+  <si>
+    <t>ING4-CI</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 14</t>
+  </si>
+  <si>
+    <t>LICENCE</t>
+  </si>
+  <si>
+    <t>L2ELT</t>
+  </si>
+  <si>
+    <t>G1: A8 / G2: A9 / G3: A12</t>
+  </si>
+  <si>
+    <t>L3ELT</t>
+  </si>
+  <si>
+    <t>MASTER / MCIL</t>
+  </si>
+  <si>
+    <t>MCIL1</t>
+  </si>
+  <si>
+    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
+  </si>
+  <si>
+    <t>MCIL2</t>
+  </si>
+  <si>
+    <t>G1+G2: A10, G3: S02, G4: S06</t>
+  </si>
+  <si>
+    <t>MCIL3</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 01</t>
+  </si>
+  <si>
+    <t>M1CE</t>
+  </si>
+  <si>
+    <t>M1ER</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 06</t>
+  </si>
+  <si>
+    <t>M1ME</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 08</t>
+  </si>
+  <si>
+    <t>M1MCIL</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 02</t>
+  </si>
+  <si>
+    <t>M1RE</t>
+  </si>
+  <si>
+    <t>Promotion entière : S 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">zenasni_mounya@yahoo.fr </t>
-  </si>
-  <si>
-    <t>ZIDI</t>
-  </si>
-  <si>
-    <t>sbzidi@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ABBES</t>
-  </si>
-  <si>
-    <t>Vacataire</t>
-  </si>
-  <si>
-    <t>abbasmohammed@gmail.com</t>
-  </si>
-  <si>
-    <t>ABDELLI</t>
-  </si>
-  <si>
-    <t>MAMA</t>
-  </si>
-  <si>
-    <t>ABED</t>
-  </si>
-  <si>
-    <t>ZOULIKHA</t>
-  </si>
-  <si>
-    <t>zoulikhaabed3@gmail.com</t>
-  </si>
-  <si>
-    <t>AISSANI</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>aliaissani97@gmail.com</t>
-  </si>
-  <si>
-    <t>ARAB</t>
-  </si>
-  <si>
-    <t>ABDELMADJID</t>
-  </si>
-  <si>
-    <t>Doctorat</t>
-  </si>
-  <si>
-    <t>arab4abdelmadjid@gmail.com</t>
-  </si>
-  <si>
-    <t>AREZKI</t>
-  </si>
-  <si>
-    <t>MOUFOK</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mohamedmoufak308@gmail.com </t>
-  </si>
-  <si>
-    <t>06 97 05 81 64</t>
-  </si>
-  <si>
-    <t>AZZA</t>
-  </si>
-  <si>
-    <t>ROMAISSA FATIMA ZOHRA</t>
-  </si>
-  <si>
-    <t>BELABED</t>
-  </si>
-  <si>
-    <t>meriembelabed5@gmail.com</t>
-  </si>
-  <si>
-    <t>BELHABRI</t>
-  </si>
-  <si>
-    <t>RIHAB</t>
-  </si>
-  <si>
-    <t>ri123hab@gmail.com</t>
-  </si>
-  <si>
-    <t>05540755 89</t>
-  </si>
-  <si>
-    <t>BELHALOUCHE</t>
-  </si>
-  <si>
-    <t>LAKHDAR</t>
-  </si>
-  <si>
-    <t>lakhdar_belhallouche@hotmail.fr</t>
-  </si>
-  <si>
-    <t>BENCELLA</t>
-  </si>
-  <si>
-    <t>SARRA</t>
-  </si>
-  <si>
-    <t>sarrabencella@gmail.com</t>
-  </si>
-  <si>
-    <t>BENDIDA</t>
-  </si>
-  <si>
-    <t>bendida65@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 50 59 52 24 </t>
-  </si>
-  <si>
-    <t>BENKABOU</t>
-  </si>
-  <si>
-    <t>MOHAMED EL HABIB</t>
-  </si>
-  <si>
-    <t>bkbhbb22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 62 15 65 63 </t>
-  </si>
-  <si>
-    <t>BENMASOUD</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>l.benmessaoud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>BENSALEM</t>
-  </si>
-  <si>
-    <t>RITEDJ INES</t>
-  </si>
-  <si>
-    <t>rawnakritedj@gmail.com</t>
-  </si>
-  <si>
-    <t>BERROUNA</t>
-  </si>
-  <si>
-    <t>HANANEEL</t>
-  </si>
-  <si>
-    <t>berhenen@yahoo.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 71 74 58 06 </t>
-  </si>
-  <si>
-    <t>BOUBKEUR</t>
-  </si>
-  <si>
-    <t>HALIMA</t>
-  </si>
-  <si>
-    <t>boubkeurhalima97sba@gmail.com</t>
-  </si>
-  <si>
-    <t>06 74 50 65 01</t>
-  </si>
-  <si>
-    <t>BOUKHARI</t>
-  </si>
-  <si>
-    <t>SOUMIA</t>
-  </si>
-  <si>
-    <t>boukharisoumiafarah@gmail.com</t>
-  </si>
-  <si>
-    <t>BOULARAF</t>
-  </si>
-  <si>
-    <t>AICHA</t>
-  </si>
-  <si>
-    <t>douaaboularaf@gmail.com</t>
-  </si>
-  <si>
-    <t>CHIKHI</t>
-  </si>
-  <si>
-    <t>NAWEL</t>
-  </si>
-  <si>
-    <t>chikhi nawel75@yahoo.fr</t>
-  </si>
-  <si>
-    <t>06 75 33 80 01</t>
-  </si>
-  <si>
-    <t>DELLOUM</t>
-  </si>
-  <si>
-    <t>AMIRA</t>
-  </si>
-  <si>
-    <t>amiradelloum28@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 54 96 88 33 </t>
-  </si>
-  <si>
-    <t>DJELLOULI</t>
-  </si>
-  <si>
-    <t>YOUNES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">djellouli08younes08@gmail.com </t>
-  </si>
-  <si>
-    <t>ABDERRAHMANE</t>
-  </si>
-  <si>
-    <t>djellouli7abderrahmane@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 80 29 68 02 </t>
-  </si>
-  <si>
-    <t>DJIZIRI</t>
-  </si>
-  <si>
-    <t>soumiadjiziri22@gmail.com</t>
-  </si>
-  <si>
-    <t>DRICI</t>
-  </si>
-  <si>
-    <t>LAMIA</t>
-  </si>
-  <si>
-    <t>Lamia_du22@hotmail.com</t>
-  </si>
-  <si>
-    <t>DRIF</t>
-  </si>
-  <si>
-    <t>FAIZA</t>
-  </si>
-  <si>
-    <t>ELGHODASSE</t>
-  </si>
-  <si>
-    <t>ABDEL MADJID</t>
-  </si>
-  <si>
-    <t>elghodasseabdelmadjid@gmail.com</t>
-  </si>
-  <si>
-    <t>FENTAZY</t>
-  </si>
-  <si>
-    <t>BELKISSE</t>
-  </si>
-  <si>
-    <t>fantazibelkisse.13@gmail.com</t>
-  </si>
-  <si>
-    <t>FEZAZI</t>
-  </si>
-  <si>
-    <t>KHADIDJA</t>
-  </si>
-  <si>
-    <t>khadidjafezazi90@gmail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06660791 28 </t>
-  </si>
-  <si>
-    <t>GHALEM</t>
-  </si>
-  <si>
-    <t>ABDELHAK</t>
-  </si>
-  <si>
-    <t>ghalem.abdelhak@yahoo.com</t>
-  </si>
-  <si>
-    <t>HADER</t>
-  </si>
-  <si>
-    <t>aer.hader91@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 41 0044 75 </t>
-  </si>
-  <si>
-    <t>HAMMAR</t>
-  </si>
-  <si>
-    <t>MEHDI</t>
-  </si>
-  <si>
-    <t>protoboy9999@gmail.com</t>
-  </si>
-  <si>
-    <t>KADA ZAIR</t>
-  </si>
-  <si>
-    <t>IKRAM</t>
-  </si>
-  <si>
-    <t>ikram.kadazair@gmail.com</t>
-  </si>
-  <si>
-    <t>KADRI</t>
-  </si>
-  <si>
-    <t>RANIA</t>
-  </si>
-  <si>
-    <t>kadrirania51@gmail.com</t>
-  </si>
-  <si>
-    <t>KHELLAF</t>
-  </si>
-  <si>
-    <t>KADDA</t>
-  </si>
-  <si>
-    <t>khellafkadda1234@gmail.com</t>
-  </si>
-  <si>
-    <t>LATRECHE</t>
-  </si>
-  <si>
-    <t>MOKHTAR</t>
-  </si>
-  <si>
-    <t>m_latreche@yahoo.com</t>
-  </si>
-  <si>
-    <t>LAYATI</t>
-  </si>
-  <si>
-    <t>TAYEB MEHDI</t>
-  </si>
-  <si>
-    <t>layatimedi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06964431 32   </t>
-  </si>
-  <si>
-    <t>LOUSDAD</t>
-  </si>
-  <si>
-    <t>AYMEN</t>
-  </si>
-  <si>
-    <t>lousdadaymen.aziz@gmail.com</t>
-  </si>
-  <si>
-    <t>MAHKOUKA</t>
-  </si>
-  <si>
-    <t>ZAZA</t>
-  </si>
-  <si>
-    <t>mahkouka.zaza@gmail.com</t>
-  </si>
-  <si>
-    <t>MANSOURI</t>
-  </si>
-  <si>
-    <t>ABDERRAZAK</t>
-  </si>
-  <si>
-    <t>MECHETTEM</t>
-  </si>
-  <si>
-    <t>KHALIDA</t>
-  </si>
-  <si>
-    <t>khalidamet4@gmail.com</t>
-  </si>
-  <si>
-    <t>MEKHALEF</t>
-  </si>
-  <si>
-    <t>mekhalefleila@gmail.com</t>
-  </si>
-  <si>
-    <t>MERADJAH</t>
-  </si>
-  <si>
-    <t>IBRAHIM</t>
-  </si>
-  <si>
-    <t>ibrahimmeradjah72@gmail.com</t>
-  </si>
-  <si>
-    <t>MESLEM</t>
-  </si>
-  <si>
-    <t>MEHADJIA</t>
-  </si>
-  <si>
-    <t>mehadjiameslem@gmail.com</t>
-  </si>
-  <si>
-    <t>MESTARI</t>
-  </si>
-  <si>
-    <t>WAHIBA</t>
-  </si>
-  <si>
-    <t>wahibaelmestarii@gmail.com</t>
-  </si>
-  <si>
-    <t>FETHI.M</t>
-  </si>
-  <si>
-    <t>FETHI</t>
-  </si>
-  <si>
-    <t>fethi22miloua@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0664 31 52 76 </t>
-  </si>
-  <si>
-    <t>MIR</t>
-  </si>
-  <si>
-    <t>KHELIFA</t>
-  </si>
-  <si>
-    <t>khelifa-mir@outlook.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 69 59 78 39 </t>
-  </si>
-  <si>
-    <t>MOKADEM</t>
-  </si>
-  <si>
-    <t>AMINA</t>
-  </si>
-  <si>
-    <t>mokeddem.amina2222@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06564287 15 </t>
-  </si>
-  <si>
-    <t>MOULAY</t>
-  </si>
-  <si>
-    <t>MILOUD</t>
-  </si>
-  <si>
-    <t>mmiloud@yahoo.fr</t>
-  </si>
-  <si>
-    <t>NEFAHA</t>
-  </si>
-  <si>
-    <t>ABOUBAKR</t>
-  </si>
-  <si>
-    <t>Boba1620@hotmail.com</t>
-  </si>
-  <si>
-    <t>REDJALA</t>
-  </si>
-  <si>
-    <t>MAJDA</t>
-  </si>
-  <si>
-    <t>majdaredjala1492@gmail.com</t>
-  </si>
-  <si>
-    <t>05 53 64 47 91</t>
-  </si>
-  <si>
-    <t>SACI</t>
-  </si>
-  <si>
-    <t>sacihamza40@gmail.com</t>
-  </si>
-  <si>
-    <t>TURKI</t>
-  </si>
-  <si>
-    <t>BILAL MEROUANE</t>
-  </si>
-  <si>
-    <t>turkibilal22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 55 20 68 65 </t>
-  </si>
-  <si>
-    <t>ZAREB</t>
-  </si>
-  <si>
-    <t>zarebmohamedamine@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 74 68 05 35 </t>
-  </si>
-  <si>
-    <t>ZERDANI</t>
-  </si>
-  <si>
-    <t>medzerdani@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06 60 15 22 65 </t>
-  </si>
-  <si>
-    <t>ZIANI</t>
-  </si>
-  <si>
-    <t>DJAMEL</t>
-  </si>
-  <si>
-    <t>ziani_djamel@yahoo.fr</t>
-  </si>
-  <si>
-    <t>ZIDI-2</t>
-  </si>
-  <si>
-    <t>LARBI</t>
-  </si>
-  <si>
-    <t>larbi.zidi6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07 92 12 03 38 </t>
-  </si>
-  <si>
-    <t>Permanentt</t>
-  </si>
-  <si>
-    <t>Abdelhamid</t>
-  </si>
-  <si>
-    <t>bensalemabdelhamid7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drouni </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wassila Abir </t>
-  </si>
-  <si>
-    <t>Wassila.drouni@gmail.com</t>
-  </si>
-  <si>
-    <t>RAIS</t>
-  </si>
-  <si>
-    <t>ABDELMAJID</t>
-  </si>
-  <si>
-    <t>amrais@yahoo.com</t>
-  </si>
-  <si>
-    <t>REGUIG</t>
-  </si>
-  <si>
-    <t>ABDELDJALIL</t>
-  </si>
-  <si>
-    <t>abdeldjalil.reguig@outlook.com</t>
-  </si>
-  <si>
-    <t>CYCLE</t>
-  </si>
-  <si>
-    <t>PROMOTION</t>
-  </si>
-  <si>
-    <t>HORAIRE</t>
-  </si>
-  <si>
-    <t>RÉPARTITION (GROUPES / SALLES)</t>
-  </si>
-  <si>
-    <t>INGÉNIEUR</t>
-  </si>
-  <si>
-    <t>ING1</t>
-  </si>
-  <si>
-    <t>13h30 – 15h30</t>
-  </si>
-  <si>
-    <t>G1(SG11: S10 / SG12: S12), G2(SG21: S14 / SG22: S16)</t>
-  </si>
-  <si>
-    <t>ING2</t>
-  </si>
-  <si>
-    <t>11h00 – 13h00</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08 BIS</t>
-  </si>
-  <si>
-    <t>ING3-EI</t>
-  </si>
-  <si>
-    <t>08h30 – 10h30</t>
-  </si>
-  <si>
-    <t>Promotion entière : SN</t>
-  </si>
-  <si>
-    <t>ING3-TM</t>
-  </si>
-  <si>
-    <t>Promotion entière : A10</t>
-  </si>
-  <si>
-    <t>ING4-CI</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 14</t>
-  </si>
-  <si>
-    <t>LICENCE</t>
-  </si>
-  <si>
-    <t>L2ELT</t>
-  </si>
-  <si>
-    <t>G1: A8 / G2: A9 / G3: A12</t>
-  </si>
-  <si>
-    <t>L3ELT</t>
-  </si>
-  <si>
-    <t>MASTER / MCIL</t>
-  </si>
-  <si>
-    <t>MCIL1</t>
-  </si>
-  <si>
-    <t>G1:S01, G2:S02, G3:S03, G4:S04, G5:S05, G6:S06, G7:SN, G8:S08</t>
-  </si>
-  <si>
-    <t>MCIL2</t>
-  </si>
-  <si>
-    <t>G1+G2: A10, G3: S02, G4: S06</t>
-  </si>
-  <si>
-    <t>MCIL3</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 01</t>
-  </si>
-  <si>
-    <t>M1CE</t>
-  </si>
-  <si>
-    <t>M1ER</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 06</t>
-  </si>
-  <si>
-    <t>M1ME</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 08</t>
-  </si>
-  <si>
-    <t>M1MCIL</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 02</t>
-  </si>
-  <si>
-    <t>M1RE</t>
-  </si>
-  <si>
-    <t>Promotion entière : S 04</t>
   </si>
   <si>
     <t>mohamedmoufak308</t>
@@ -2394,8 +2394,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" ht="15.75" hidden="1" spans="1:7">
+    <row r="51" ht="15.75" spans="1:7">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3521,16 +3521,16 @@
       </c>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" ht="15.75" hidden="1" spans="1:7">
+    <row r="52" ht="15.75" spans="1:7">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>9</v>
@@ -3538,9 +3538,7 @@
       <c r="E52" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="F52" s="12"/>
       <c r="G52" s="13"/>
     </row>
     <row r="53" ht="15.75" hidden="1" spans="1:7">
@@ -3549,7 +3547,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>16</v>
@@ -3561,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="13"/>
     </row>
@@ -3571,17 +3569,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="13"/>
     </row>
@@ -3591,13 +3589,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D55" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="15"/>
@@ -3609,17 +3607,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G56" s="13"/>
     </row>
@@ -3629,17 +3627,17 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="D57" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G57" s="13"/>
     </row>
@@ -3649,44 +3647,44 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E59" s="11" t="s">
+      <c r="F59" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="G59" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" ht="15.75" hidden="1" spans="1:7">
@@ -3695,13 +3693,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="15"/>
@@ -3713,17 +3711,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="13"/>
     </row>
@@ -3733,20 +3731,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="D62" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="63" ht="15.75" hidden="1" spans="1:7">
@@ -3755,17 +3753,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="D63" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -3775,19 +3773,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="G64" s="13"/>
     </row>
@@ -3797,20 +3795,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="66" ht="15.75" hidden="1" spans="1:7">
@@ -3819,20 +3817,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="D66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" ht="15.75" hidden="1" spans="1:7">
@@ -3841,17 +3839,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="D67" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G67" s="13"/>
     </row>
@@ -3861,17 +3859,17 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="D68" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G68" s="13"/>
     </row>
@@ -3881,20 +3879,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="D69" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="70" ht="15.75" hidden="1" spans="1:7">
@@ -3903,20 +3901,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="71" ht="15.75" hidden="1" spans="1:7">
@@ -3925,19 +3923,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>210</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>211</v>
       </c>
       <c r="G71" s="13"/>
     </row>
@@ -3947,17 +3945,17 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="D72" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G72" s="13"/>
     </row>
@@ -3967,20 +3965,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="D73" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>217</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" ht="15.75" hidden="1" spans="1:7">
@@ -3989,22 +3987,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="18" t="s">
+      <c r="G74" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="75" ht="15.75" hidden="1" spans="1:7">
@@ -4013,17 +4011,17 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="D75" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G75" s="13"/>
     </row>
@@ -4033,20 +4031,20 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="G76" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="77" ht="15.75" hidden="1" spans="1:7">
@@ -4055,17 +4053,17 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G77" s="13"/>
     </row>
@@ -4075,17 +4073,17 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -4095,13 +4093,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="D79" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="15"/>
@@ -4113,17 +4111,17 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="D80" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G80" s="13"/>
     </row>
@@ -4133,17 +4131,17 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -4153,20 +4151,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="D82" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" ht="15.75" hidden="1" spans="1:7">
@@ -4175,13 +4173,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
@@ -4193,17 +4191,17 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="D84" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -4213,22 +4211,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F85" s="18" t="s">
+      <c r="G85" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="86" ht="15.75" hidden="1" spans="1:7">
@@ -4237,17 +4235,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="D86" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G86" s="13"/>
     </row>
@@ -4257,17 +4255,17 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="D87" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G87" s="13"/>
     </row>
@@ -4277,17 +4275,17 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="D88" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G88" s="13"/>
     </row>
@@ -4297,19 +4295,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="D89" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>263</v>
       </c>
       <c r="G89" s="13"/>
     </row>
@@ -4319,17 +4317,17 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="D90" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G90" s="13"/>
     </row>
@@ -4339,20 +4337,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="D91" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>269</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="92" ht="15.75" hidden="1" spans="1:7">
@@ -4361,17 +4359,17 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="D92" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G92" s="13"/>
     </row>
@@ -4381,19 +4379,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="D93" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="G93" s="13"/>
     </row>
@@ -4403,13 +4401,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="D94" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="15"/>
@@ -4421,17 +4419,17 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="D95" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G95" s="13"/>
     </row>
@@ -4441,17 +4439,17 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G96" s="13"/>
     </row>
@@ -4461,19 +4459,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="D97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="G97" s="13"/>
     </row>
@@ -4483,17 +4481,17 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="D98" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G98" s="13"/>
     </row>
@@ -4503,17 +4501,17 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="D99" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G99" s="13"/>
     </row>
@@ -4523,20 +4521,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="D100" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>295</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="101" ht="15.75" hidden="1" spans="1:7">
@@ -4545,22 +4543,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F101" s="17" t="s">
+      <c r="G101" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="102" ht="15.75" hidden="1" spans="1:7">
@@ -4569,20 +4567,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>302</v>
-      </c>
       <c r="D102" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="103" ht="15.75" hidden="1" spans="1:7">
@@ -4591,17 +4589,17 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>306</v>
-      </c>
       <c r="D103" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G103" s="13"/>
     </row>
@@ -4611,17 +4609,17 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>309</v>
-      </c>
       <c r="D104" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G104" s="13"/>
     </row>
@@ -4631,20 +4629,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="D105" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G105" s="13" t="s">
         <v>313</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="106" ht="15.75" hidden="1" spans="1:7">
@@ -4653,17 +4651,17 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -4673,20 +4671,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>318</v>
-      </c>
       <c r="D107" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" s="13" t="s">
         <v>319</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" ht="15.75" hidden="1" spans="1:7">
@@ -4695,20 +4693,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="109" ht="15.75" hidden="1" spans="1:7">
@@ -4717,20 +4715,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G109" s="13" t="s">
         <v>325</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="110" ht="15.75" hidden="1" spans="1:7">
@@ -4739,19 +4737,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="D110" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>329</v>
       </c>
       <c r="G110" s="13"/>
     </row>
@@ -4761,20 +4759,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="D111" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>332</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="112" ht="15.75" hidden="1" spans="1:7">
@@ -4786,10 +4784,10 @@
         <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>33</v>
@@ -4802,19 +4800,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F113" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="G113" s="13"/>
     </row>
@@ -4823,29 +4821,29 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="D114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F114" s="17" t="s">
         <v>338</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>339</v>
       </c>
       <c r="G114" s="13"/>
     </row>
     <row r="115" ht="15.75" hidden="1" spans="1:7">
       <c r="A115" s="20"/>
       <c r="B115" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>341</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>9</v>
@@ -4854,17 +4852,17 @@
         <v>10</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G115" s="13"/>
     </row>
     <row r="116" ht="15.75" hidden="1" spans="1:7">
       <c r="A116" s="20"/>
       <c r="B116" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>9</v>
@@ -4873,7 +4871,7 @@
         <v>33</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G116" s="23"/>
     </row>
@@ -12427,7 +12425,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F116" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="1">
       <filters>
-        <filter val="AREZKI"/>
+        <filter val="ZENASNI"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:F116">
@@ -12500,202 +12498,202 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
       <c r="A1" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>348</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>352</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:4">
       <c r="A3" s="31"/>
       <c r="B3" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>355</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:4">
       <c r="A4" s="31"/>
       <c r="B4" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>358</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:4">
       <c r="A5" s="31"/>
       <c r="B5" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>360</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:4">
       <c r="A6" s="31"/>
       <c r="B6" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:4">
       <c r="A7" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="C7" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>365</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="1:4">
       <c r="A8" s="31"/>
       <c r="B8" s="33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
       <c r="A9" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>369</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:4">
       <c r="A10" s="31"/>
       <c r="B10" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>371</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:4">
       <c r="A11" s="31"/>
       <c r="B11" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>373</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:4">
       <c r="A12" s="31"/>
       <c r="B12" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="1:4">
       <c r="A13" s="31"/>
       <c r="B13" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>376</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:4">
       <c r="A14" s="31"/>
       <c r="B14" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>378</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:4">
       <c r="A15" s="31"/>
       <c r="B15" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>380</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:4">
       <c r="A16" s="31"/>
       <c r="B16" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>382</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="656" ht="15.75"/>
@@ -14775,11 +14773,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H1194"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -14816,7 +14814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" ht="15.75" hidden="1" spans="1:7">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -14837,7 +14835,7 @@
       </c>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" ht="15.75" hidden="1" spans="1:7">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A66" si="0">A2+1</f>
         <v>2</v>
@@ -14859,7 +14857,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" ht="15.75" hidden="1" spans="1:7">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14881,7 +14879,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" ht="15.75" spans="1:7">
+    <row r="5" ht="15.75" hidden="1" spans="1:7">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14903,7 +14901,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" ht="15.75" spans="1:7">
+    <row r="6" ht="15.75" hidden="1" spans="1:7">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14925,7 +14923,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" ht="15.75" spans="1:7">
+    <row r="7" ht="15.75" hidden="1" spans="1:7">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14947,7 +14945,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" ht="15.75" spans="1:7">
+    <row r="8" ht="15.75" hidden="1" spans="1:7">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14969,7 +14967,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="15.75" spans="1:7">
+    <row r="9" ht="15.75" hidden="1" spans="1:7">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14991,7 +14989,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" ht="15.75" spans="1:7">
+    <row r="10" ht="15.75" hidden="1" spans="1:7">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15013,7 +15011,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" ht="15.75" spans="1:7">
+    <row r="11" ht="15.75" hidden="1" spans="1:7">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15035,7 +15033,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" ht="15.75" spans="1:7">
+    <row r="12" ht="15.75" hidden="1" spans="1:7">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15055,7 +15053,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" ht="15.75" spans="1:7">
+    <row r="13" ht="15.75" hidden="1" spans="1:7">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15077,7 +15075,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" ht="15.75" spans="1:7">
+    <row r="14" ht="15.75" hidden="1" spans="1:7">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15099,7 +15097,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" ht="15.75" spans="1:7">
+    <row r="15" ht="15.75" hidden="1" spans="1:7">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15121,7 +15119,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" ht="15.75" spans="1:7">
+    <row r="16" ht="15.75" hidden="1" spans="1:7">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -15143,7 +15141,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" ht="15.75" spans="1:7">
+    <row r="17" ht="15.75" hidden="1" spans="1:7">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15165,7 +15163,7 @@
       </c>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" ht="15.75" spans="1:7">
+    <row r="18" ht="15.75" hidden="1" spans="1:7">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15187,7 +15185,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" ht="15.75" spans="1:7">
+    <row r="19" ht="15.75" hidden="1" spans="1:7">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15209,7 +15207,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" ht="15.75" spans="1:7">
+    <row r="20" ht="15.75" hidden="1" spans="1:7">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15231,7 +15229,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" ht="15.75" spans="1:7">
+    <row r="21" ht="15.75" hidden="1" spans="1:7">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15253,7 +15251,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" ht="15.75" spans="1:7">
+    <row r="22" ht="15.75" hidden="1" spans="1:7">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -15275,7 +15273,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" ht="15.75" spans="1:7">
+    <row r="23" ht="15.75" hidden="1" spans="1:7">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -15297,7 +15295,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" ht="15.75" spans="1:7">
+    <row r="24" ht="15.75" hidden="1" spans="1:7">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -15319,7 +15317,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" ht="15.75" spans="1:7">
+    <row r="25" ht="15.75" hidden="1" spans="1:7">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -15341,7 +15339,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" ht="15.75" spans="1:7">
+    <row r="26" ht="15.75" hidden="1" spans="1:7">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -15363,7 +15361,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" ht="15.75" spans="1:7">
+    <row r="27" ht="15.75" hidden="1" spans="1:7">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -15385,7 +15383,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" ht="15.75" spans="1:7">
+    <row r="28" ht="15.75" hidden="1" spans="1:7">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -15407,7 +15405,7 @@
       </c>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" ht="15.75" spans="1:7">
+    <row r="29" ht="15.75" hidden="1" spans="1:7">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -15429,7 +15427,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" ht="15.75" spans="1:7">
+    <row r="30" ht="15.75" hidden="1" spans="1:7">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -15451,7 +15449,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" ht="15.75" spans="1:7">
+    <row r="31" ht="15.75" hidden="1" spans="1:7">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15473,7 +15471,7 @@
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" ht="15.75" spans="1:7">
+    <row r="32" ht="15.75" hidden="1" spans="1:7">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -15493,7 +15491,7 @@
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" ht="15.75" spans="1:7">
+    <row r="33" ht="15.75" hidden="1" spans="1:7">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15515,7 +15513,7 @@
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" ht="15.75" spans="1:7">
+    <row r="34" ht="15.75" hidden="1" spans="1:7">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -15537,7 +15535,7 @@
       </c>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" ht="15.75" spans="1:7">
+    <row r="35" ht="15.75" hidden="1" spans="1:7">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15559,7 +15557,7 @@
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" ht="15.75" spans="1:7">
+    <row r="36" ht="15.75" hidden="1" spans="1:7">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15581,7 +15579,7 @@
       </c>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" ht="15.75" spans="1:7">
+    <row r="37" ht="15.75" hidden="1" spans="1:7">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15601,7 +15599,7 @@
       <c r="F37" s="15"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" ht="15.75" spans="1:7">
+    <row r="38" ht="15.75" hidden="1" spans="1:7">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15621,7 +15619,7 @@
       </c>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" ht="15.75" spans="1:7">
+    <row r="39" ht="15.75" hidden="1" spans="1:7">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -15643,7 +15641,7 @@
       </c>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" ht="15.75" spans="1:7">
+    <row r="40" ht="15.75" hidden="1" spans="1:7">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -15665,7 +15663,7 @@
       </c>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" ht="15.75" spans="1:7">
+    <row r="41" ht="15.75" hidden="1" spans="1:7">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -15687,7 +15685,7 @@
       </c>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" ht="15.75" spans="1:7">
+    <row r="42" ht="15.75" hidden="1" spans="1:7">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -15709,7 +15707,7 @@
       </c>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" ht="15.75" spans="1:7">
+    <row r="43" ht="15.75" hidden="1" spans="1:7">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15731,7 +15729,7 @@
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" ht="15.75" spans="1:7">
+    <row r="44" ht="15.75" hidden="1" spans="1:7">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -15753,7 +15751,7 @@
       </c>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" ht="15.75" spans="1:7">
+    <row r="45" ht="15.75" hidden="1" spans="1:7">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -15775,7 +15773,7 @@
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" ht="15.75" spans="1:7">
+    <row r="46" ht="15.75" hidden="1" spans="1:7">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -15797,7 +15795,7 @@
       </c>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" ht="15.75" spans="1:7">
+    <row r="47" ht="15.75" hidden="1" spans="1:7">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -15819,7 +15817,7 @@
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" ht="15.75" spans="1:7">
+    <row r="48" ht="15.75" hidden="1" spans="1:7">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -15841,7 +15839,7 @@
       </c>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" ht="15.75" spans="1:7">
+    <row r="49" ht="15.75" hidden="1" spans="1:7">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -15863,7 +15861,7 @@
       </c>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" ht="15.75" spans="1:7">
+    <row r="50" ht="15.75" hidden="1" spans="1:7">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -15911,10 +15909,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>9</v>
@@ -15923,17 +15921,17 @@
         <v>33</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>151</v>
+        <v>383</v>
       </c>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" ht="15.75" spans="1:7">
+    <row r="53" ht="15.75" hidden="1" spans="1:7">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>16</v>
@@ -15945,1221 +15943,1221 @@
         <v>10</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" ht="15.75" spans="1:7">
+    <row r="54" ht="15.75" hidden="1" spans="1:7">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="16"/>
       <c r="F54" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" ht="15.75" spans="1:7">
+    <row r="55" ht="15.75" hidden="1" spans="1:7">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="D55" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E55" s="16"/>
       <c r="F55" s="15"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" ht="15.75" spans="1:7">
+    <row r="56" ht="15.75" hidden="1" spans="1:7">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="D56" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="16"/>
       <c r="F56" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" ht="15.75" spans="1:7">
+    <row r="57" ht="15.75" hidden="1" spans="1:7">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="D57" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" ht="15.75" spans="1:7">
+    <row r="58" ht="15.75" hidden="1" spans="1:7">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="F58" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" ht="15.75" spans="1:7">
+    <row r="59" ht="15.75" hidden="1" spans="1:7">
       <c r="A59" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="D59" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="16"/>
       <c r="F59" s="18" t="s">
         <v>384</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" hidden="1" spans="1:7">
       <c r="A60" s="9">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>175</v>
-      </c>
       <c r="D60" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="16"/>
       <c r="F60" s="15"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" ht="15.75" spans="1:7">
+    <row r="61" ht="15.75" hidden="1" spans="1:7">
       <c r="A61" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>148</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" ht="15.75" spans="1:7">
+    <row r="62" ht="15.75" hidden="1" spans="1:7">
       <c r="A62" s="9">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>179</v>
-      </c>
       <c r="D62" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E62" s="16"/>
       <c r="F62" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="1:7">
+    </row>
+    <row r="63" ht="15.75" hidden="1" spans="1:7">
       <c r="A63" s="9">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>183</v>
-      </c>
       <c r="D63" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" s="16"/>
       <c r="F63" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" ht="15.75" spans="1:7">
+    <row r="64" ht="15.75" hidden="1" spans="1:7">
       <c r="A64" s="9">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>187</v>
-      </c>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" ht="15.75" spans="1:7">
+    <row r="65" ht="15.75" hidden="1" spans="1:7">
       <c r="A65" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E65" s="16"/>
       <c r="F65" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G65" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" spans="1:7">
+    </row>
+    <row r="66" ht="15.75" hidden="1" spans="1:7">
       <c r="A66" s="9">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="D66" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" spans="1:7">
+    </row>
+    <row r="67" ht="15.75" hidden="1" spans="1:7">
       <c r="A67" s="9">
         <f t="shared" ref="A67:A112" si="1">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>196</v>
-      </c>
       <c r="D67" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E67" s="16"/>
       <c r="F67" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" ht="15.75" spans="1:7">
+    <row r="68" ht="15.75" hidden="1" spans="1:7">
       <c r="A68" s="9">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>199</v>
-      </c>
       <c r="D68" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E68" s="16"/>
       <c r="F68" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G68" s="13"/>
     </row>
-    <row r="69" ht="15.75" spans="1:7">
+    <row r="69" ht="15.75" hidden="1" spans="1:7">
       <c r="A69" s="9">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>202</v>
-      </c>
       <c r="D69" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E69" s="16"/>
       <c r="F69" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G69" s="13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" spans="1:7">
+    </row>
+    <row r="70" ht="15.75" hidden="1" spans="1:7">
       <c r="A70" s="9">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="16"/>
       <c r="F70" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="1:7">
+    </row>
+    <row r="71" ht="15.75" hidden="1" spans="1:7">
       <c r="A71" s="9">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" ht="15.75" spans="1:7">
+    <row r="72" ht="15.75" hidden="1" spans="1:7">
       <c r="A72" s="9">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>213</v>
-      </c>
       <c r="D72" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" s="16"/>
       <c r="F72" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" ht="15.75" spans="1:7">
+    <row r="73" ht="15.75" hidden="1" spans="1:7">
       <c r="A73" s="9">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>216</v>
-      </c>
       <c r="D73" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="G73" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" spans="1:7">
+    </row>
+    <row r="74" ht="15.75" hidden="1" spans="1:7">
       <c r="A74" s="9">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="18" t="s">
+      <c r="G74" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G74" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" spans="1:7">
+    </row>
+    <row r="75" ht="15.75" hidden="1" spans="1:7">
       <c r="A75" s="9">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="D75" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" ht="15.75" spans="1:7">
+    <row r="76" ht="15.75" hidden="1" spans="1:7">
       <c r="A76" s="9">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E76" s="16"/>
       <c r="F76" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" spans="1:7">
+    </row>
+    <row r="77" ht="15.75" hidden="1" spans="1:7">
       <c r="A77" s="9">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E77" s="16"/>
       <c r="F77" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" ht="15.75" spans="1:7">
+    <row r="78" ht="15.75" hidden="1" spans="1:7">
       <c r="A78" s="9">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="D78" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" ht="15.75" spans="1:7">
+    <row r="79" ht="15.75" hidden="1" spans="1:7">
       <c r="A79" s="9">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="D79" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79" s="16"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" ht="15.75" spans="1:7">
+    <row r="80" ht="15.75" hidden="1" spans="1:7">
       <c r="A80" s="9">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>237</v>
-      </c>
       <c r="D80" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="16"/>
       <c r="F80" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" ht="15.75" spans="1:7">
+    <row r="81" ht="15.75" hidden="1" spans="1:7">
       <c r="A81" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E81" s="16"/>
       <c r="F81" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G81" s="13"/>
     </row>
-    <row r="82" ht="15.75" spans="1:7">
+    <row r="82" ht="15.75" hidden="1" spans="1:7">
       <c r="A82" s="9">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="D82" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E82" s="16"/>
       <c r="F82" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G82" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" spans="1:7">
+    </row>
+    <row r="83" ht="15.75" hidden="1" spans="1:7">
       <c r="A83" s="9">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" ht="15.75" spans="1:7">
+    <row r="84" ht="15.75" hidden="1" spans="1:7">
       <c r="A84" s="9">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="D84" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G84" s="13"/>
     </row>
-    <row r="85" ht="15.75" spans="1:7">
+    <row r="85" ht="15.75" hidden="1" spans="1:7">
       <c r="A85" s="9">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F85" s="18" t="s">
+      <c r="G85" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" spans="1:7">
+    </row>
+    <row r="86" ht="15.75" hidden="1" spans="1:7">
       <c r="A86" s="9">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="D86" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E86" s="16"/>
       <c r="F86" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G86" s="13"/>
     </row>
-    <row r="87" ht="15.75" spans="1:7">
+    <row r="87" ht="15.75" hidden="1" spans="1:7">
       <c r="A87" s="9">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="D87" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G87" s="13"/>
     </row>
-    <row r="88" ht="15.75" spans="1:7">
+    <row r="88" ht="15.75" hidden="1" spans="1:7">
       <c r="A88" s="9">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="D88" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E88" s="16"/>
       <c r="F88" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G88" s="13"/>
     </row>
-    <row r="89" ht="15.75" spans="1:7">
+    <row r="89" ht="15.75" hidden="1" spans="1:7">
       <c r="A89" s="9">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="D89" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>263</v>
-      </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" ht="15.75" spans="1:7">
+    <row r="90" ht="15.75" hidden="1" spans="1:7">
       <c r="A90" s="9">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="D90" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E90" s="16"/>
       <c r="F90" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G90" s="13"/>
     </row>
-    <row r="91" ht="15.75" spans="1:7">
+    <row r="91" ht="15.75" hidden="1" spans="1:7">
       <c r="A91" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="D91" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G91" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="G91" s="13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" spans="1:7">
+    </row>
+    <row r="92" ht="15.75" hidden="1" spans="1:7">
       <c r="A92" s="9">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="D92" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G92" s="13"/>
     </row>
-    <row r="93" ht="15.75" spans="1:7">
+    <row r="93" ht="15.75" hidden="1" spans="1:7">
       <c r="A93" s="9">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="D93" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G93" s="13"/>
     </row>
-    <row r="94" ht="15.75" spans="1:7">
+    <row r="94" ht="15.75" hidden="1" spans="1:7">
       <c r="A94" s="9">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C94" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="D94" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E94" s="16"/>
       <c r="F94" s="15"/>
       <c r="G94" s="13"/>
     </row>
-    <row r="95" ht="15.75" spans="1:7">
+    <row r="95" ht="15.75" hidden="1" spans="1:7">
       <c r="A95" s="9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="D95" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E95" s="16"/>
       <c r="F95" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G95" s="13"/>
     </row>
-    <row r="96" ht="15.75" spans="1:7">
+    <row r="96" ht="15.75" hidden="1" spans="1:7">
       <c r="A96" s="9">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" s="16"/>
       <c r="F96" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G96" s="13"/>
     </row>
-    <row r="97" ht="15.75" spans="1:7">
+    <row r="97" ht="15.75" hidden="1" spans="1:7">
       <c r="A97" s="9">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="D97" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F97" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>286</v>
-      </c>
       <c r="G97" s="13"/>
     </row>
-    <row r="98" ht="15.75" spans="1:7">
+    <row r="98" ht="15.75" hidden="1" spans="1:7">
       <c r="A98" s="9">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="D98" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G98" s="13"/>
     </row>
-    <row r="99" ht="15.75" spans="1:7">
+    <row r="99" ht="15.75" hidden="1" spans="1:7">
       <c r="A99" s="9">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="D99" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E99" s="16"/>
       <c r="F99" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" ht="15.75" spans="1:7">
+    <row r="100" ht="15.75" hidden="1" spans="1:7">
       <c r="A100" s="9">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>294</v>
-      </c>
       <c r="D100" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G100" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G100" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" spans="1:7">
+    </row>
+    <row r="101" ht="15.75" hidden="1" spans="1:7">
       <c r="A101" s="9">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F101" s="17" t="s">
+      <c r="G101" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G101" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" spans="1:7">
+    </row>
+    <row r="102" ht="15.75" hidden="1" spans="1:7">
       <c r="A102" s="9">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>302</v>
-      </c>
       <c r="D102" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E102" s="16"/>
       <c r="F102" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G102" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G102" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" spans="1:7">
+    </row>
+    <row r="103" ht="15.75" hidden="1" spans="1:7">
       <c r="A103" s="9">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>306</v>
-      </c>
       <c r="D103" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G103" s="13"/>
     </row>
-    <row r="104" ht="15.75" spans="1:7">
+    <row r="104" ht="15.75" hidden="1" spans="1:7">
       <c r="A104" s="9">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>309</v>
-      </c>
       <c r="D104" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G104" s="13"/>
     </row>
-    <row r="105" ht="15.75" spans="1:7">
+    <row r="105" ht="15.75" hidden="1" spans="1:7">
       <c r="A105" s="9">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="D105" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E105" s="16"/>
       <c r="F105" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G105" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G105" s="13" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" spans="1:7">
+    </row>
+    <row r="106" ht="15.75" hidden="1" spans="1:7">
       <c r="A106" s="9">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G106" s="13"/>
     </row>
-    <row r="107" ht="15.75" spans="1:7">
+    <row r="107" ht="15.75" hidden="1" spans="1:7">
       <c r="A107" s="9">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C107" s="10" t="s">
-        <v>318</v>
-      </c>
       <c r="D107" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E107" s="16"/>
       <c r="F107" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G107" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G107" s="13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" spans="1:7">
+    </row>
+    <row r="108" ht="15.75" hidden="1" spans="1:7">
       <c r="A108" s="9">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E108" s="16"/>
       <c r="F108" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G108" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="G108" s="13" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" spans="1:7">
+    </row>
+    <row r="109" ht="15.75" hidden="1" spans="1:7">
       <c r="A109" s="9">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E109" s="16"/>
       <c r="F109" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="G109" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="G109" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" spans="1:7">
+    </row>
+    <row r="110" ht="15.75" hidden="1" spans="1:7">
       <c r="A110" s="9">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="D110" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>329</v>
-      </c>
       <c r="G110" s="13"/>
     </row>
-    <row r="111" ht="15.75" spans="1:7">
+    <row r="111" ht="15.75" hidden="1" spans="1:7">
       <c r="A111" s="9">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="D111" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E111" s="16"/>
       <c r="F111" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="G111" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="G111" s="13" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" spans="1:7">
+    </row>
+    <row r="112" ht="15.75" hidden="1" spans="1:7">
       <c r="A112" s="9">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -17168,10 +17166,10 @@
         <v>103</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>33</v>
@@ -17179,55 +17177,55 @@
       <c r="F112" s="12"/>
       <c r="G112" s="13"/>
     </row>
-    <row r="113" ht="15.75" spans="1:7">
+    <row r="113" ht="15.75" hidden="1" spans="1:7">
       <c r="A113" s="9">
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F113" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F113" s="17" t="s">
-        <v>336</v>
-      </c>
       <c r="G113" s="13"/>
     </row>
-    <row r="114" ht="15.75" spans="1:7">
+    <row r="114" ht="15.75" hidden="1" spans="1:7">
       <c r="A114" s="9">
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="D114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F114" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F114" s="17" t="s">
-        <v>339</v>
-      </c>
       <c r="G114" s="13"/>
     </row>
-    <row r="115" customFormat="1" ht="15.75" spans="1:8">
+    <row r="115" customFormat="1" ht="15.75" hidden="1" spans="1:8">
       <c r="A115" s="20"/>
       <c r="B115" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="21" t="s">
         <v>340</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>341</v>
       </c>
       <c r="D115" s="22" t="s">
         <v>9</v>
@@ -17236,18 +17234,18 @@
         <v>10</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G115" s="13"/>
       <c r="H115" s="12"/>
     </row>
-    <row r="116" customFormat="1" ht="15.75" spans="1:7">
+    <row r="116" customFormat="1" ht="15.75" hidden="1" spans="1:7">
       <c r="A116" s="20"/>
       <c r="B116" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C116" s="21" t="s">
         <v>343</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>344</v>
       </c>
       <c r="D116" s="22" t="s">
         <v>9</v>
@@ -17256,7 +17254,7 @@
         <v>33</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G116" s="23"/>
     </row>
@@ -20495,7 +20493,12 @@
       <c r="F1194" s="2"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G114" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G116" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ZENASNI"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <hyperlinks>
